--- a/output.xlsx
+++ b/output.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G272"/>
+  <dimension ref="A1:G267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,24 +420,24 @@
         <v>274</v>
       </c>
       <c r="C2">
-        <v>273.9999727838149</v>
+        <v>273.9998668558185</v>
       </c>
       <c r="D2">
-        <v>277.2734065734583</v>
+        <v>273.9630007738066</v>
       </c>
       <c r="E2">
-        <v>287.1909136392417</v>
+        <v>273.9501772582856</v>
       </c>
       <c r="F2">
-        <v>299.3936685568374</v>
+        <v>273.9427322519459</v>
       </c>
       <c r="G2">
-        <v>311.8704381942708</v>
+        <v>273.9552960774988</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>0.1007407407407407</v>
+        <v>0.05018867924528302</v>
       </c>
       <c r="B3">
         <v>274</v>
@@ -446,21 +446,21 @@
         <v>274</v>
       </c>
       <c r="D3">
-        <v>277.3108570306958</v>
+        <v>273.9637768153218</v>
       </c>
       <c r="E3">
-        <v>287.25450504946</v>
+        <v>273.9509469636872</v>
       </c>
       <c r="F3">
-        <v>299.4808782708204</v>
+        <v>273.9434991490565</v>
       </c>
       <c r="G3">
-        <v>311.9787036905313</v>
+        <v>273.9561006952241</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>0.2014814814814815</v>
+        <v>0.100377358490566</v>
       </c>
       <c r="B4">
         <v>274</v>
@@ -469,21 +469,21 @@
         <v>274</v>
       </c>
       <c r="D4">
-        <v>277.3657239116394</v>
+        <v>273.9645432462234</v>
       </c>
       <c r="E4">
-        <v>287.3454091819457</v>
+        <v>273.9517111848447</v>
       </c>
       <c r="F4">
-        <v>299.5989941955405</v>
+        <v>273.9442638326411</v>
       </c>
       <c r="G4">
-        <v>312.1183978364824</v>
+        <v>273.9569306236793</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>0.3022222222222222</v>
+        <v>0.1505660377358491</v>
       </c>
       <c r="B5">
         <v>274</v>
@@ -492,21 +492,21 @@
         <v>274</v>
       </c>
       <c r="D5">
-        <v>277.4381070306173</v>
+        <v>273.9653000662643</v>
       </c>
       <c r="E5">
-        <v>287.4637068277428</v>
+        <v>273.9524699200743</v>
       </c>
       <c r="F5">
-        <v>299.7480868153233</v>
+        <v>273.9450263089855</v>
       </c>
       <c r="G5">
-        <v>312.2895835244432</v>
+        <v>273.9577859533431</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>0.4029629629629629</v>
+        <v>0.2007547169811321</v>
       </c>
       <c r="B6">
         <v>274</v>
@@ -515,21 +515,21 @@
         <v>274</v>
       </c>
       <c r="D6">
-        <v>277.5281413180907</v>
+        <v>273.9660472790026</v>
       </c>
       <c r="E6">
-        <v>287.6094953061995</v>
+        <v>273.9532231690931</v>
       </c>
       <c r="F6">
-        <v>299.9282338756772</v>
+        <v>273.945786588445</v>
       </c>
       <c r="G6">
-        <v>312.4923256745277</v>
+        <v>273.9586668097236</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>0.5037037037037037</v>
+        <v>0.2509433962264151</v>
       </c>
       <c r="B7">
         <v>274</v>
@@ -538,21 +538,21 @@
         <v>274</v>
       </c>
       <c r="D7">
-        <v>277.6359967290856</v>
+        <v>273.9667848917975</v>
       </c>
       <c r="E7">
-        <v>287.782888434307</v>
+        <v>273.9539709330191</v>
       </c>
       <c r="F7">
-        <v>300.1395203614616</v>
+        <v>273.9465446854648</v>
       </c>
       <c r="G7">
-        <v>312.7266912111614</v>
+        <v>273.9595733534873</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>0.6044444444444443</v>
+        <v>0.3011320754716981</v>
       </c>
       <c r="B8">
         <v>274</v>
@@ -561,21 +561,21 @@
         <v>274</v>
       </c>
       <c r="D8">
-        <v>277.7618780994598</v>
+        <v>273.9675129158009</v>
       </c>
       <c r="E8">
-        <v>287.9840164713326</v>
+        <v>273.95471321437</v>
       </c>
       <c r="F8">
-        <v>300.382038458084</v>
+        <v>273.9473006186068</v>
       </c>
       <c r="G8">
-        <v>312.9927490261572</v>
+        <v>273.9605057806199</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>0.7051851851851851</v>
+        <v>0.3513207547169812</v>
       </c>
       <c r="B9">
         <v>274</v>
@@ -584,21 +584,21 @@
         <v>274</v>
       </c>
       <c r="D9">
-        <v>277.9060249518242</v>
+        <v>273.9682313659471</v>
       </c>
       <c r="E9">
-        <v>288.2130260394721</v>
+        <v>273.9554500170616</v>
       </c>
       <c r="F9">
-        <v>300.6558874962342</v>
+        <v>273.9480544105823</v>
       </c>
       <c r="G9">
-        <v>313.2905699288171</v>
+        <v>273.9614643226212</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>0.8059259259259258</v>
+        <v>0.4015094339622642</v>
       </c>
       <c r="B10">
         <v>274</v>
@@ -607,21 +607,21 @@
         <v>274</v>
       </c>
       <c r="D10">
-        <v>278.0687112534562</v>
+        <v>273.96894026094</v>
       </c>
       <c r="E10">
-        <v>288.4700800214837</v>
+        <v>273.9561813464055</v>
       </c>
       <c r="F10">
-        <v>300.9611738808079</v>
+        <v>273.9488060882903</v>
       </c>
       <c r="G10">
-        <v>313.6202265836397</v>
+        <v>273.9624492467335</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>0.9066666666666665</v>
+        <v>0.4516981132075472</v>
       </c>
       <c r="B11">
         <v>274</v>
@@ -630,21 +630,21 @@
         <v>274</v>
       </c>
       <c r="D11">
-        <v>278.2502451290742</v>
+        <v>273.9696396232373</v>
       </c>
       <c r="E11">
-        <v>288.7553574364601</v>
+        <v>273.9569072091065</v>
       </c>
       <c r="F11">
-        <v>301.2980110047862</v>
+        <v>273.9495556828622</v>
       </c>
       <c r="G11">
-        <v>313.9817934362989</v>
+        <v>273.9634608562033</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>1.007407407407407</v>
+        <v>0.5018867924528302</v>
       </c>
       <c r="B12">
         <v>274</v>
@@ -653,21 +653,21 @@
         <v>274</v>
       </c>
       <c r="D12">
-        <v>278.4318490513192</v>
+        <v>273.970329479032</v>
       </c>
       <c r="E12">
-        <v>289.0407351303684</v>
+        <v>273.9576276132593</v>
       </c>
       <c r="F12">
-        <v>301.634955424063</v>
+        <v>273.9503032297123</v>
       </c>
       <c r="G12">
-        <v>314.3434643652305</v>
+        <v>273.9644994905773</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>1.108148148148148</v>
+        <v>0.5520754716981132</v>
       </c>
       <c r="B13">
         <v>274</v>
@@ -676,21 +676,21 @@
         <v>274</v>
       </c>
       <c r="D13">
-        <v>278.6135242301484</v>
+        <v>273.9710098582317</v>
       </c>
       <c r="E13">
-        <v>289.326213699688</v>
+        <v>273.9583425683446</v>
       </c>
       <c r="F13">
-        <v>301.9720074311801</v>
+        <v>273.9510487685947</v>
       </c>
       <c r="G13">
-        <v>314.7052395014565</v>
+        <v>273.9655655260328</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>1.208888888888889</v>
+        <v>0.6022641509433962</v>
       </c>
       <c r="B14">
         <v>274</v>
@@ -699,21 +699,21 @@
         <v>274</v>
       </c>
       <c r="D14">
-        <v>278.7952718759401</v>
+        <v>273.9716807944349</v>
       </c>
       <c r="E14">
-        <v>289.6117937410544</v>
+        <v>273.959052085225</v>
       </c>
       <c r="F14">
-        <v>302.309167318716</v>
+        <v>273.9517923436659</v>
       </c>
       <c r="G14">
-        <v>315.0671189759792</v>
+        <v>273.9666593757407</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>1.309629629629629</v>
+        <v>0.6524528301886793</v>
       </c>
       <c r="B15">
         <v>274</v>
@@ -722,21 +722,21 @@
         <v>274</v>
       </c>
       <c r="D15">
-        <v>278.9770931994794</v>
+        <v>273.9723423249047</v>
       </c>
       <c r="E15">
-        <v>289.8974758512572</v>
+        <v>273.9597561761399</v>
       </c>
       <c r="F15">
-        <v>302.6464353792833</v>
+        <v>273.9525340035548</v>
       </c>
       <c r="G15">
-        <v>315.429102919781</v>
+        <v>273.9677814902657</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>1.41037037037037</v>
+        <v>0.7026415094339623</v>
       </c>
       <c r="B16">
         <v>274</v>
@@ -745,21 +745,21 @@
         <v>274</v>
       </c>
       <c r="D16">
-        <v>279.1589894119609</v>
+        <v>273.9729944905405</v>
       </c>
       <c r="E16">
-        <v>290.1832606272341</v>
+        <v>273.9604548547002</v>
       </c>
       <c r="F16">
-        <v>302.9838119055274</v>
+        <v>273.9532738014378</v>
       </c>
       <c r="G16">
-        <v>315.7911914638227</v>
+        <v>273.9689323579988</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>1.511111111111111</v>
+        <v>0.7528301886792453</v>
       </c>
       <c r="B17">
         <v>274</v>
@@ -768,21 +768,21 @@
         <v>274</v>
       </c>
       <c r="D17">
-        <v>279.3409617249698</v>
+        <v>273.9736373358461</v>
       </c>
       <c r="E17">
-        <v>290.4691486660706</v>
+        <v>273.9611481358827</v>
       </c>
       <c r="F17">
-        <v>303.321297190124</v>
+        <v>273.954011795121</v>
       </c>
       <c r="G17">
-        <v>316.1533847390428</v>
+        <v>273.9701125056268</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>1.611851851851852</v>
+        <v>0.8030188679245284</v>
       </c>
       <c r="B18">
         <v>274</v>
@@ -791,21 +791,21 @@
         <v>274</v>
       </c>
       <c r="D18">
-        <v>279.5230113504889</v>
+        <v>273.9742709088968</v>
       </c>
       <c r="E18">
-        <v>290.7551405649926</v>
+        <v>273.9618360360234</v>
       </c>
       <c r="F18">
-        <v>303.6588915257782</v>
+        <v>273.9547480471297</v>
       </c>
       <c r="G18">
-        <v>316.5156828763558</v>
+        <v>273.9713224986363</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>1.712592592592592</v>
+        <v>0.8532075471698114</v>
       </c>
       <c r="B19">
         <v>274</v>
@@ -814,21 +814,21 @@
         <v>274</v>
       </c>
       <c r="D19">
-        <v>279.7051395008759</v>
+        <v>273.9748952613029</v>
       </c>
       <c r="E19">
-        <v>291.0412369213678</v>
+        <v>273.9625185728108</v>
       </c>
       <c r="F19">
-        <v>303.9965952052207</v>
+        <v>273.9554826248034</v>
       </c>
       <c r="G19">
-        <v>316.8780860066519</v>
+        <v>273.9725629418539</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>1.813333333333333</v>
+        <v>0.9033962264150944</v>
       </c>
       <c r="B20">
         <v>274</v>
@@ -837,21 +837,21 @@
         <v>274</v>
       </c>
       <c r="D20">
-        <v>279.887347388874</v>
+        <v>273.9755104481714</v>
       </c>
       <c r="E20">
-        <v>291.3274383326965</v>
+        <v>273.9631957652787</v>
       </c>
       <c r="F20">
-        <v>304.3344085212081</v>
+        <v>273.9562156003989</v>
       </c>
       <c r="G20">
-        <v>317.2405942607943</v>
+        <v>273.9738344800223</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>1.914074074074074</v>
+        <v>0.9535849056603775</v>
       </c>
       <c r="B21">
         <v>274</v>
@@ -860,21 +860,21 @@
         <v>274</v>
       </c>
       <c r="D21">
-        <v>280.0696362275849</v>
+        <v>273.9761165280645</v>
       </c>
       <c r="E21">
-        <v>291.6137453966141</v>
+        <v>273.9638676337983</v>
       </c>
       <c r="F21">
-        <v>304.6723317665184</v>
+        <v>273.9569470511992</v>
       </c>
       <c r="G21">
-        <v>317.6032077696203</v>
+        <v>273.9751377984137</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>2.014814814814815</v>
+        <v>1.00377358490566</v>
       </c>
       <c r="B22">
         <v>274</v>
@@ -883,21 +883,21 @@
         <v>274</v>
       </c>
       <c r="D22">
-        <v>280.2520072304844</v>
+        <v>273.9767135629573</v>
       </c>
       <c r="E22">
-        <v>291.9001587108813</v>
+        <v>273.9645342000699</v>
       </c>
       <c r="F22">
-        <v>305.0103652339523</v>
+        <v>273.9576770596311</v>
       </c>
       <c r="G22">
-        <v>317.9659266639379</v>
+        <v>273.9764736234791</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>2.115555555555555</v>
+        <v>1.053962264150943</v>
       </c>
       <c r="B23">
         <v>274</v>
@@ -906,21 +906,21 @@
         <v>274</v>
       </c>
       <c r="D23">
-        <v>280.4344616113907</v>
+        <v>273.977301618192</v>
       </c>
       <c r="E23">
-        <v>292.1866788733876</v>
+        <v>273.9651954871147</v>
       </c>
       <c r="F23">
-        <v>305.3485092163268</v>
+        <v>273.9584057133886</v>
       </c>
       <c r="G23">
-        <v>318.3287510745262</v>
+        <v>273.9778427235365</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>2.216296296296296</v>
+        <v>1.104150943396226</v>
       </c>
       <c r="B24">
         <v>274</v>
@@ -929,21 +929,21 @@
         <v>274</v>
       </c>
       <c r="D24">
-        <v>280.6170005844845</v>
+        <v>273.9778807624299</v>
       </c>
       <c r="E24">
-        <v>292.4733064821396</v>
+        <v>273.9658515192654</v>
       </c>
       <c r="F24">
-        <v>305.686764006479</v>
+        <v>273.9591331055652</v>
       </c>
       <c r="G24">
-        <v>318.6916811321333</v>
+        <v>273.9792459094955</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>2.317037037037037</v>
+        <v>1.154339622641509</v>
       </c>
       <c r="B25">
         <v>274</v>
@@ -952,21 +952,21 @@
         <v>274</v>
       </c>
       <c r="D25">
-        <v>280.7996253642716</v>
+        <v>273.9784510676024</v>
       </c>
       <c r="E25">
-        <v>292.760042135267</v>
+        <v>273.9665023221568</v>
       </c>
       <c r="F25">
-        <v>306.0251298972576</v>
+        <v>273.9598593347931</v>
       </c>
       <c r="G25">
-        <v>319.0547169674761</v>
+        <v>273.9806840356219</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>2.417777777777777</v>
+        <v>1.204528301886792</v>
       </c>
       <c r="B26">
         <v>274</v>
@@ -975,21 +975,21 @@
         <v>274</v>
       </c>
       <c r="D26">
-        <v>280.98233716561</v>
+        <v>273.979012608858</v>
       </c>
       <c r="E26">
-        <v>293.0468864310088</v>
+        <v>273.967147922716</v>
       </c>
       <c r="F26">
-        <v>306.3636071815274</v>
+        <v>273.9605845053904</v>
       </c>
       <c r="G26">
-        <v>319.4178587112375</v>
+        <v>273.9821580003401</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1">
-        <v>2.518518518518518</v>
+        <v>1.254716981132076</v>
       </c>
       <c r="B27">
         <v>274</v>
@@ -998,21 +998,21 @@
         <v>274</v>
       </c>
       <c r="D27">
-        <v>281.1651372036657</v>
+        <v>273.9795654645096</v>
       </c>
       <c r="E27">
-        <v>293.3338399677206</v>
+        <v>273.9677883491526</v>
       </c>
       <c r="F27">
-        <v>306.7021961521614</v>
+        <v>273.9613087275168</v>
       </c>
       <c r="G27">
-        <v>319.7811064940679</v>
+        <v>273.9836687470751</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1">
-        <v>2.619259259259259</v>
+        <v>1.304905660377359</v>
       </c>
       <c r="B28">
         <v>274</v>
@@ -1021,21 +1021,21 @@
         <v>274</v>
       </c>
       <c r="D28">
-        <v>281.3480266939457</v>
+        <v>273.9801097159773</v>
       </c>
       <c r="E28">
-        <v>293.6209033438595</v>
+        <v>273.9684236309475</v>
       </c>
       <c r="F28">
-        <v>307.0408971020447</v>
+        <v>273.962032117337</v>
       </c>
       <c r="G28">
-        <v>320.1444604465808</v>
+        <v>273.985217265136</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1">
-        <v>2.72</v>
+        <v>1.355094339622642</v>
       </c>
       <c r="B29">
         <v>274</v>
@@ -1044,21 +1044,21 @@
         <v>274</v>
       </c>
       <c r="D29">
-        <v>281.5310068522483</v>
+        <v>273.9806454477314</v>
       </c>
       <c r="E29">
-        <v>293.9080771579931</v>
+        <v>273.9690537988428</v>
       </c>
       <c r="F29">
-        <v>307.3797103240661</v>
+        <v>273.9627547971935</v>
       </c>
       <c r="G29">
-        <v>320.5079206993547</v>
+        <v>273.9868045906379</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1">
-        <v>2.820740740740741</v>
+        <v>1.405283018867925</v>
       </c>
       <c r="B30">
         <v>274</v>
@@ -1067,21 +1067,21 @@
         <v>274</v>
       </c>
       <c r="D30">
-        <v>281.7140788947014</v>
+        <v>273.9811727472323</v>
       </c>
       <c r="E30">
-        <v>294.1953620087828</v>
+        <v>273.9696788848302</v>
       </c>
       <c r="F30">
-        <v>307.7186361111233</v>
+        <v>273.9634768957876</v>
       </c>
       <c r="G30">
-        <v>320.8714873829293</v>
+        <v>273.9884318074672</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1">
-        <v>2.921481481481481</v>
+        <v>1.455471698113208</v>
       </c>
       <c r="B31">
         <v>274</v>
@@ -1090,21 +1090,21 @@
         <v>274</v>
       </c>
       <c r="D31">
-        <v>281.8972440377077</v>
+        <v>273.9816917048688</v>
       </c>
       <c r="E31">
-        <v>294.4827584949942</v>
+        <v>273.9702989221399</v>
       </c>
       <c r="F31">
-        <v>308.0576747561133</v>
+        <v>273.9641985483691</v>
       </c>
       <c r="G31">
-        <v>321.2351606278073</v>
+        <v>273.9901000482875</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1">
-        <v>3.022222222222222</v>
+        <v>1.505660377358491</v>
       </c>
       <c r="B32">
         <v>274</v>
@@ -1113,21 +1113,21 @@
         <v>274</v>
       </c>
       <c r="D32">
-        <v>282.0805034979883</v>
+        <v>273.9822024138947</v>
       </c>
       <c r="E32">
-        <v>294.7702672154787</v>
+        <v>273.9709139452289</v>
       </c>
       <c r="F32">
-        <v>308.3968265519387</v>
+        <v>273.9649198969367</v>
       </c>
       <c r="G32">
-        <v>321.5989405644493</v>
+        <v>273.9918104955891</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1">
-        <v>3.122962962962962</v>
+        <v>1.555849056603774</v>
       </c>
       <c r="B33">
         <v>274</v>
@@ -1136,21 +1136,21 @@
         <v>274</v>
       </c>
       <c r="D33">
-        <v>282.2638584925224</v>
+        <v>273.9827049703644</v>
       </c>
       <c r="E33">
-        <v>295.0578887691861</v>
+        <v>273.9715239897691</v>
       </c>
       <c r="F33">
-        <v>308.7360917914968</v>
+        <v>273.9656410904462</v>
       </c>
       <c r="G33">
-        <v>321.9628273232773</v>
+        <v>273.993564382781</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1">
-        <v>3.223703703703703</v>
+        <v>1.606037735849057</v>
       </c>
       <c r="B34">
         <v>274</v>
@@ -1159,21 +1159,21 @@
         <v>274</v>
       </c>
       <c r="D34">
-        <v>282.4473102385963</v>
+        <v>273.9831994730656</v>
       </c>
       <c r="E34">
-        <v>295.3456237551439</v>
+        <v>273.9721290926353</v>
       </c>
       <c r="F34">
-        <v>309.075470767687</v>
+        <v>273.9663622850297</v>
       </c>
       <c r="G34">
-        <v>322.3268210346689</v>
+        <v>273.9953629953278</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1">
-        <v>3.324444444444444</v>
+        <v>1.65622641509434</v>
       </c>
       <c r="B35">
         <v>274</v>
@@ -1182,21 +1182,21 @@
         <v>274</v>
       </c>
       <c r="D35">
-        <v>282.6308599537377</v>
+        <v>273.983686023451</v>
       </c>
       <c r="E35">
-        <v>295.633472772472</v>
+        <v>273.9727292918929</v>
       </c>
       <c r="F35">
-        <v>309.4149637733992</v>
+        <v>273.9670836442247</v>
       </c>
       <c r="G35">
-        <v>322.6909218289608</v>
+        <v>273.9972076719305</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1">
-        <v>3.425185185185185</v>
+        <v>1.706415094339623</v>
       </c>
       <c r="B36">
         <v>274</v>
@@ -1205,21 +1205,21 @@
         <v>274</v>
       </c>
       <c r="D36">
-        <v>282.8145088557701</v>
+        <v>273.9841647255695</v>
       </c>
       <c r="E36">
-        <v>295.9214364203598</v>
+        <v>273.9733246267859</v>
       </c>
       <c r="F36">
-        <v>309.7545711015221</v>
+        <v>273.9678053392132</v>
       </c>
       <c r="G36">
-        <v>323.0551298364425</v>
+        <v>273.9990998057542</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1">
-        <v>3.525925925925926</v>
+        <v>1.756603773584906</v>
       </c>
       <c r="B37">
         <v>274</v>
@@ -1228,21 +1228,21 @@
         <v>274</v>
       </c>
       <c r="D37">
-        <v>282.9982581627422</v>
+        <v>273.9846356859941</v>
       </c>
       <c r="E37">
-        <v>296.2095152980835</v>
+        <v>273.973915137724</v>
       </c>
       <c r="F37">
-        <v>310.0942930449301</v>
+        <v>273.9685275490726</v>
       </c>
       <c r="G37">
-        <v>323.4194451873608</v>
+        <v>274.0010408457009</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1">
-        <v>3.626666666666666</v>
+        <v>1.806792452830189</v>
       </c>
       <c r="B38">
         <v>274</v>
@@ -1251,21 +1251,21 @@
         <v>274</v>
       </c>
       <c r="D38">
-        <v>283.1821090929866</v>
+        <v>273.9850990137501</v>
       </c>
       <c r="E38">
-        <v>296.4977100049807</v>
+        <v>273.9745008662704</v>
       </c>
       <c r="F38">
-        <v>310.4341298964933</v>
+        <v>273.9692504610363</v>
       </c>
       <c r="G38">
-        <v>323.7838680119128</v>
+        <v>274.0030322977305</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1">
-        <v>3.727407407407407</v>
+        <v>1.856981132075472</v>
       </c>
       <c r="B39">
         <v>274</v>
@@ -1274,21 +1274,21 @@
         <v>274</v>
       </c>
       <c r="D39">
-        <v>283.366062865045</v>
+        <v>273.9855548202412</v>
       </c>
       <c r="E39">
-        <v>296.7860211404694</v>
+        <v>273.9750818551292</v>
       </c>
       <c r="F39">
-        <v>310.7740819490633</v>
+        <v>273.9699742707666</v>
       </c>
       <c r="G39">
-        <v>324.148398440251</v>
+        <v>274.0050757262298</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1">
-        <v>3.828148148148148</v>
+        <v>1.907169811320755</v>
       </c>
       <c r="B40">
         <v>274</v>
@@ -1297,21 +1297,21 @@
         <v>274</v>
       </c>
       <c r="D40">
-        <v>283.5501206977315</v>
+        <v>273.9860032191745</v>
       </c>
       <c r="E40">
-        <v>297.0744493040214</v>
+        <v>273.9756581481329</v>
       </c>
       <c r="F40">
-        <v>311.1141494954833</v>
+        <v>273.9706991826397</v>
       </c>
       <c r="G40">
-        <v>324.5130366024751</v>
+        <v>274.00717275543</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1">
-        <v>3.928888888888888</v>
+        <v>1.957358490566038</v>
       </c>
       <c r="B41">
         <v>274</v>
@@ -1320,21 +1320,21 @@
         <v>274</v>
       </c>
       <c r="D41">
-        <v>283.7342838100529</v>
+        <v>273.9864443264846</v>
       </c>
       <c r="E41">
-        <v>297.362995095183</v>
+        <v>273.9762297902295</v>
       </c>
       <c r="F41">
-        <v>311.4543328285743</v>
+        <v>273.9714254100417</v>
       </c>
       <c r="G41">
-        <v>324.8777826286388</v>
+        <v>274.0093250708754</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1">
-        <v>4.029629629629629</v>
+        <v>2.007547169811321</v>
       </c>
       <c r="B42">
         <v>274</v>
@@ -1343,21 +1343,21 @@
         <v>274</v>
       </c>
       <c r="D42">
-        <v>283.9185534212768</v>
+        <v>273.9868782602562</v>
       </c>
       <c r="E42">
-        <v>297.6516591135461</v>
+        <v>273.9767968274707</v>
       </c>
       <c r="F42">
-        <v>311.7946322411452</v>
+        <v>273.9721531756783</v>
       </c>
       <c r="G42">
-        <v>325.2426366487398</v>
+        <v>274.0115344209416</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1">
-        <v>4.13037037037037</v>
+        <v>2.057735849056604</v>
       </c>
       <c r="B43">
         <v>274</v>
@@ -1366,21 +1366,21 @@
         <v>274</v>
       </c>
       <c r="D43">
-        <v>284.1029307508473</v>
+        <v>273.9873051406467</v>
       </c>
       <c r="E43">
-        <v>297.9404419587711</v>
+        <v>273.9773593069988</v>
       </c>
       <c r="F43">
-        <v>312.1350480259784</v>
+        <v>273.9728827118965</v>
       </c>
       <c r="G43">
-        <v>325.6075987927285</v>
+        <v>274.0138026184068</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1">
-        <v>4.231111111111111</v>
+        <v>2.107924528301887</v>
       </c>
       <c r="B44">
         <v>274</v>
@@ -1389,21 +1389,21 @@
         <v>274</v>
       </c>
       <c r="D44">
-        <v>284.287417018458</v>
+        <v>273.9877250898063</v>
       </c>
       <c r="E44">
-        <v>298.2293442305561</v>
+        <v>273.9779172770354</v>
       </c>
       <c r="F44">
-        <v>312.4755804758408</v>
+        <v>273.9736142610206</v>
       </c>
       <c r="G44">
-        <v>325.9726691904962</v>
+        <v>274.0161315420754</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1">
-        <v>4.331851851851852</v>
+        <v>2.15811320754717</v>
       </c>
       <c r="B45">
         <v>274</v>
@@ -1412,21 +1412,21 @@
         <v>274</v>
       </c>
       <c r="D45">
-        <v>284.4720134439619</v>
+        <v>273.9881382317989</v>
       </c>
       <c r="E45">
-        <v>298.5183665286619</v>
+        <v>273.9784707868687</v>
       </c>
       <c r="F45">
-        <v>312.8162298834683</v>
+        <v>273.974348075701</v>
       </c>
       <c r="G45">
-        <v>326.3378479718849</v>
+        <v>274.0185231384561</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1">
-        <v>4.432592592592592</v>
+        <v>2.208301886792453</v>
       </c>
       <c r="B46">
         <v>274</v>
@@ -1435,21 +1435,21 @@
         <v>274</v>
       </c>
       <c r="D46">
-        <v>284.6567212474513</v>
+        <v>273.988544692521</v>
       </c>
       <c r="E46">
-        <v>298.8075094528785</v>
+        <v>273.979019886842</v>
       </c>
       <c r="F46">
-        <v>313.1569965415781</v>
+        <v>273.9750844192777</v>
       </c>
       <c r="G46">
-        <v>326.7031352666753</v>
+        <v>274.020979423495</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1">
-        <v>4.533333333333332</v>
+        <v>2.258490566037736</v>
       </c>
       <c r="B47">
         <v>274</v>
@@ -1458,21 +1458,21 @@
         <v>274</v>
       </c>
       <c r="D47">
-        <v>284.8415416491606</v>
+        <v>273.9889445996205</v>
       </c>
       <c r="E47">
-        <v>299.0967736030532</v>
+        <v>273.9795646283424</v>
       </c>
       <c r="F47">
-        <v>313.4978807428516</v>
+        <v>273.9758235661587</v>
       </c>
       <c r="G47">
-        <v>327.0685312045963</v>
+        <v>274.0235024843645</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1">
-        <v>4.634074074074073</v>
+        <v>2.308679245283019</v>
       </c>
       <c r="B48">
         <v>274</v>
@@ -1481,21 +1481,21 @@
         <v>274</v>
       </c>
       <c r="D48">
-        <v>285.0264758695524</v>
+        <v>273.9893380824151</v>
       </c>
       <c r="E48">
-        <v>299.3861595790544</v>
+        <v>273.9801050637894</v>
       </c>
       <c r="F48">
-        <v>313.8388827799488</v>
+        <v>273.9765658022129</v>
       </c>
       <c r="G48">
-        <v>327.4340359153135</v>
+        <v>274.0260944813104</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1">
-        <v>4.734814814814814</v>
+        <v>2.358867924528302</v>
       </c>
       <c r="B49">
         <v>274</v>
@@ -1504,21 +1504,21 @@
         <v>274</v>
       </c>
       <c r="D49">
-        <v>285.2115251292149</v>
+        <v>273.9897252718093</v>
       </c>
       <c r="E49">
-        <v>299.6756679808016</v>
+        <v>273.9806412466246</v>
       </c>
       <c r="F49">
-        <v>314.1800029454889</v>
+        <v>273.9773114251793</v>
       </c>
       <c r="G49">
-        <v>327.7996495284384</v>
+        <v>274.0287576495567</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1">
-        <v>4.835555555555555</v>
+        <v>2.409056603773585</v>
       </c>
       <c r="B50">
         <v>274</v>
@@ -1527,21 +1527,21 @@
         <v>274</v>
       </c>
       <c r="D50">
-        <v>285.3966906489536</v>
+        <v>273.9901063002117</v>
       </c>
       <c r="E50">
-        <v>299.9652994082275</v>
+        <v>273.9811732313011</v>
       </c>
       <c r="F50">
-        <v>314.5212415320667</v>
+        <v>273.9780607450912</v>
       </c>
       <c r="G50">
-        <v>328.1653721735163</v>
+        <v>274.031494301271</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1">
-        <v>4.936296296296296</v>
+        <v>2.459245283018868</v>
       </c>
       <c r="B51">
         <v>274</v>
@@ -1550,21 +1550,21 @@
         <v>274</v>
       </c>
       <c r="D51">
-        <v>285.5819736496827</v>
+        <v>273.9904813014519</v>
       </c>
       <c r="E51">
-        <v>300.2550544613102</v>
+        <v>273.9817010732738</v>
       </c>
       <c r="F51">
-        <v>314.8625988322316</v>
+        <v>273.9788140847191</v>
       </c>
       <c r="G51">
-        <v>328.531203980037</v>
+        <v>274.0343068275903</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1">
-        <v>5.037037037037036</v>
+        <v>2.509433962264151</v>
       </c>
       <c r="B52">
         <v>274</v>
@@ -1573,21 +1573,21 @@
         <v>274</v>
       </c>
       <c r="D52">
-        <v>285.7673753525228</v>
+        <v>273.9908504106961</v>
       </c>
       <c r="E52">
-        <v>300.5449337400331</v>
+        <v>273.9822248289904</v>
       </c>
       <c r="F52">
-        <v>315.2040751385055</v>
+        <v>273.979571780028</v>
       </c>
       <c r="G52">
-        <v>328.8971450774214</v>
+        <v>274.0371977007101</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1">
-        <v>5.137777777777777</v>
+        <v>2.559622641509434</v>
       </c>
       <c r="B53">
         <v>274</v>
@@ -1596,21 +1596,21 @@
         <v>274</v>
       </c>
       <c r="D53">
-        <v>285.9528969786867</v>
+        <v>273.991213764364</v>
       </c>
       <c r="E53">
-        <v>300.8349378444185</v>
+        <v>273.9827445558824</v>
       </c>
       <c r="F53">
-        <v>315.5456707433602</v>
+        <v>273.9803341806551</v>
       </c>
       <c r="G53">
-        <v>329.2631955950328</v>
+        <v>274.0401694760355</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1">
-        <v>5.238518518518518</v>
+        <v>2.609811320754717</v>
       </c>
       <c r="B54">
         <v>274</v>
@@ -1619,21 +1619,21 @@
         <v>274</v>
       </c>
       <c r="D54">
-        <v>286.1385397495821</v>
+        <v>273.9915715000437</v>
       </c>
       <c r="E54">
-        <v>301.1250673744865</v>
+        <v>273.9832603123581</v>
       </c>
       <c r="F54">
-        <v>315.8873859392369</v>
+        <v>273.981101650404</v>
       </c>
       <c r="G54">
-        <v>329.6293556621627</v>
+        <v>274.0432247943995</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1">
-        <v>5.339259259259259</v>
+        <v>2.66</v>
       </c>
       <c r="B55">
         <v>274</v>
@@ -1642,21 +1642,21 @@
         <v>274</v>
       </c>
       <c r="D55">
-        <v>286.324304886693</v>
+        <v>273.9919237564081</v>
       </c>
       <c r="E55">
-        <v>301.4153229302903</v>
+        <v>273.9837721577942</v>
       </c>
       <c r="F55">
-        <v>316.2292210185221</v>
+        <v>273.9818745677582</v>
       </c>
       <c r="G55">
-        <v>329.9956254080436</v>
+        <v>274.0463663843458</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1">
-        <v>5.44</v>
+        <v>2.710188679245283</v>
       </c>
       <c r="B56">
         <v>274</v>
@@ -1665,21 +1665,21 @@
         <v>274</v>
       </c>
       <c r="D56">
-        <v>286.5101936116867</v>
+        <v>273.9922706731303</v>
       </c>
       <c r="E56">
-        <v>301.7057051118724</v>
+        <v>273.9842801525306</v>
       </c>
       <c r="F56">
-        <v>316.5711762735684</v>
+        <v>273.9826533264148</v>
       </c>
       <c r="G56">
-        <v>330.3620049618333</v>
+        <v>274.0495970644806</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1">
-        <v>5.54074074074074</v>
+        <v>2.760377358490566</v>
       </c>
       <c r="B57">
         <v>274</v>
@@ -1688,21 +1688,21 @@
         <v>274</v>
       </c>
       <c r="D57">
-        <v>286.6962071462907</v>
+        <v>273.9926123907993</v>
       </c>
       <c r="E57">
-        <v>301.9962145193032</v>
+        <v>273.9847843578643</v>
       </c>
       <c r="F57">
-        <v>316.9132519966699</v>
+        <v>273.9834383358374</v>
       </c>
       <c r="G57">
-        <v>330.728494452629</v>
+        <v>274.0529197458929</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1">
-        <v>5.641481481481481</v>
+        <v>2.810566037735849</v>
       </c>
       <c r="B58">
         <v>274</v>
@@ -1711,21 +1711,21 @@
         <v>274</v>
       </c>
       <c r="D58">
-        <v>286.8823467124043</v>
+        <v>273.9929490508354</v>
       </c>
       <c r="E58">
-        <v>302.2868517526338</v>
+        <v>273.9852848360455</v>
       </c>
       <c r="F58">
-        <v>317.2554484800825</v>
+        <v>273.9842300218306</v>
       </c>
       <c r="G58">
-        <v>331.09509400945</v>
+        <v>274.0563374346459</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1">
-        <v>5.742222222222222</v>
+        <v>2.860754716981132</v>
       </c>
       <c r="B59">
         <v>274</v>
@@ -1734,21 +1734,21 @@
         <v>274</v>
       </c>
       <c r="D59">
-        <v>287.0686135319713</v>
+        <v>273.9932807954066</v>
       </c>
       <c r="E59">
-        <v>302.5776174119377</v>
+        <v>273.9857816502735</v>
       </c>
       <c r="F59">
-        <v>317.5977660159999</v>
+        <v>273.9850288271348</v>
       </c>
       <c r="G59">
-        <v>331.4618037612537</v>
+        <v>274.0598532343403</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1">
-        <v>5.842962962962962</v>
+        <v>2.910943396226415</v>
       </c>
       <c r="B60">
         <v>274</v>
@@ -1757,21 +1757,21 @@
         <v>274</v>
       </c>
       <c r="D60">
-        <v>287.2550088270953</v>
+        <v>273.9936077673441</v>
       </c>
       <c r="E60">
-        <v>302.8685120972613</v>
+        <v>273.9862748646953</v>
       </c>
       <c r="F60">
-        <v>317.940204896574</v>
+        <v>273.9858352120442</v>
       </c>
       <c r="G60">
-        <v>331.8286238369165</v>
+        <v>274.0634703487517</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1">
-        <v>5.943703703703703</v>
+        <v>2.961132075471698</v>
       </c>
       <c r="B61">
         <v>274</v>
@@ -1780,21 +1780,21 @@
         <v>274</v>
       </c>
       <c r="D61">
-        <v>287.4415338199086</v>
+        <v>273.9939301100592</v>
       </c>
       <c r="E61">
-        <v>303.1595364086669</v>
+        <v>273.9867645444039</v>
       </c>
       <c r="F61">
-        <v>318.2827654138902</v>
+        <v>273.9866496550473</v>
       </c>
       <c r="G61">
-        <v>332.1955543652514</v>
+        <v>274.067192084543</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1">
-        <v>6.044444444444443</v>
+        <v>3.011320754716981</v>
       </c>
       <c r="B62">
         <v>274</v>
@@ -1803,21 +1803,21 @@
         <v>274</v>
       </c>
       <c r="D62">
-        <v>287.6281897326922</v>
+        <v>273.9942479674593</v>
       </c>
       <c r="E62">
-        <v>303.4506909461825</v>
+        <v>273.9872507554385</v>
       </c>
       <c r="F62">
-        <v>318.6254478599888</v>
+        <v>273.9874726534907</v>
       </c>
       <c r="G62">
-        <v>332.5625954749875</v>
+        <v>274.0710218540536</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1">
-        <v>6.145185185185184</v>
+        <v>3.061509433962264</v>
       </c>
       <c r="B63">
         <v>274</v>
@@ -1826,21 +1826,21 @@
         <v>274</v>
       </c>
       <c r="D63">
-        <v>287.8149777877395</v>
+        <v>273.9945614838655</v>
       </c>
       <c r="E63">
-        <v>303.7419763098459</v>
+        <v>273.987733564787</v>
       </c>
       <c r="F63">
-        <v>318.9682525268394</v>
+        <v>273.9883047242673</v>
       </c>
       <c r="G63">
-        <v>332.929747294789</v>
+        <v>274.0749631781687</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1">
-        <v>6.245925925925925</v>
+        <v>3.111698113207547</v>
       </c>
       <c r="B64">
         <v>274</v>
@@ -1849,21 +1849,21 @@
         <v>274</v>
       </c>
       <c r="D64">
-        <v>288.0018992074811</v>
+        <v>273.9948708039296</v>
       </c>
       <c r="E64">
-        <v>304.0333930996524</v>
+        <v>273.9882130403881</v>
       </c>
       <c r="F64">
-        <v>319.3111797063629</v>
+        <v>273.9891464045298</v>
       </c>
       <c r="G64">
-        <v>333.2970099532328</v>
+        <v>274.0790196892676</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1">
-        <v>6.346666666666666</v>
+        <v>3.16188679245283</v>
       </c>
       <c r="B65">
         <v>274</v>
@@ -1872,21 +1872,21 @@
         <v>274</v>
       </c>
       <c r="D65">
-        <v>288.1889552143446</v>
+        <v>273.9951788015767</v>
       </c>
       <c r="E65">
-        <v>304.3249419156014</v>
+        <v>273.9886914502958</v>
       </c>
       <c r="F65">
-        <v>319.6542296904054</v>
+        <v>273.9899914036415</v>
       </c>
       <c r="G65">
-        <v>333.6643835788299</v>
+        <v>274.0831150102919</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1">
-        <v>6.447407407407407</v>
+        <v>3.212075471698113</v>
       </c>
       <c r="B66">
         <v>274</v>
@@ -1895,21 +1895,21 @@
         <v>274</v>
       </c>
       <c r="D66">
-        <v>288.3761470308825</v>
+        <v>273.9954855241227</v>
       </c>
       <c r="E66">
-        <v>304.6166233576421</v>
+        <v>273.9891688171028</v>
       </c>
       <c r="F66">
-        <v>319.9974027707608</v>
+        <v>273.9908399060999</v>
       </c>
       <c r="G66">
-        <v>334.0318683000011</v>
+        <v>274.0872503759131</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1">
-        <v>6.548148148148147</v>
+        <v>3.262264150943397</v>
       </c>
       <c r="B67">
         <v>274</v>
@@ -1918,21 +1918,21 @@
         <v>274</v>
       </c>
       <c r="D67">
-        <v>288.5634758796294</v>
+        <v>273.9957910188925</v>
       </c>
       <c r="E67">
-        <v>304.908438025722</v>
+        <v>273.9896451635047</v>
       </c>
       <c r="F67">
-        <v>320.340699239144</v>
+        <v>273.9916920988038</v>
       </c>
       <c r="G67">
-        <v>334.3994642450989</v>
+        <v>274.0914270336467</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1">
-        <v>6.648888888888888</v>
+        <v>3.31245283018868</v>
       </c>
       <c r="B68">
         <v>274</v>
@@ -1941,21 +1941,21 @@
         <v>274</v>
       </c>
       <c r="D68">
-        <v>288.7509429832328</v>
+        <v>273.9960953332114</v>
       </c>
       <c r="E68">
-        <v>305.2003865197301</v>
+        <v>273.9901205123016</v>
       </c>
       <c r="F68">
-        <v>320.6841193872144</v>
+        <v>273.9925481711363</v>
       </c>
       <c r="G68">
-        <v>334.7671715423841</v>
+        <v>274.0956462441891</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1">
-        <v>6.749629629629629</v>
+        <v>3.362641509433963</v>
       </c>
       <c r="B69">
         <v>274</v>
@@ -1964,21 +1964,21 @@
         <v>274</v>
       </c>
       <c r="D69">
-        <v>288.9385495643066</v>
+        <v>273.9963815579017</v>
       </c>
       <c r="E69">
-        <v>305.4924694395481</v>
+        <v>273.9905803009935</v>
       </c>
       <c r="F69">
-        <v>321.0276635065478</v>
+        <v>273.993469242553</v>
       </c>
       <c r="G69">
-        <v>335.1349903200462</v>
+        <v>274.1005653096613</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1">
-        <v>6.85037037037037</v>
+        <v>3.412830188679246</v>
       </c>
       <c r="B70">
         <v>274</v>
@@ -1987,21 +1987,21 @@
         <v>274</v>
       </c>
       <c r="D70">
-        <v>289.1262968455662</v>
+        <v>273.9966504440824</v>
       </c>
       <c r="E70">
-        <v>305.7846873849916</v>
+        <v>273.9910249222088</v>
       </c>
       <c r="F70">
-        <v>321.3713318886618</v>
+        <v>273.994459054127</v>
       </c>
       <c r="G70">
-        <v>335.502920706181</v>
+        <v>274.1062081222282</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1">
-        <v>6.951111111111111</v>
+        <v>3.463018867924529</v>
       </c>
       <c r="B71">
         <v>274</v>
@@ -2010,21 +2010,21 @@
         <v>274</v>
       </c>
       <c r="D71">
-        <v>289.314186049678</v>
+        <v>273.9969027365516</v>
       </c>
       <c r="E71">
-        <v>306.0770409558627</v>
+        <v>273.9914547961382</v>
       </c>
       <c r="F71">
-        <v>321.7151248249855</v>
+        <v>273.9955220497092</v>
       </c>
       <c r="G71">
-        <v>335.8709628288112</v>
+        <v>274.112602211938</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1">
-        <v>7.051851851851851</v>
+        <v>3.513207547169812</v>
       </c>
       <c r="B72">
         <v>274</v>
@@ -2033,21 +2033,21 @@
         <v>274</v>
       </c>
       <c r="D72">
-        <v>289.5022183993979</v>
+        <v>273.9971391718404</v>
       </c>
       <c r="E72">
-        <v>306.3695307518897</v>
+        <v>273.9918703714407</v>
       </c>
       <c r="F72">
-        <v>322.0590426068869</v>
+        <v>273.9966634066474</v>
       </c>
       <c r="G72">
-        <v>336.2391168158629</v>
+        <v>274.1197788612075</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1">
-        <v>7.152592592592591</v>
+        <v>3.563396226415095</v>
       </c>
       <c r="B73">
         <v>274</v>
@@ -2056,21 +2056,21 @@
         <v>274</v>
       </c>
       <c r="D73">
-        <v>289.6903951174174</v>
+        <v>273.9973604763945</v>
       </c>
       <c r="E73">
-        <v>306.6621573727817</v>
+        <v>273.9922721265148</v>
       </c>
       <c r="F73">
-        <v>322.4030855256408</v>
+        <v>273.9978890711878</v>
       </c>
       <c r="G73">
-        <v>336.6073827951874</v>
+        <v>274.1277732331552</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1">
-        <v>7.253333333333332</v>
+        <v>3.613584905660378</v>
       </c>
       <c r="B74">
         <v>274</v>
@@ -2079,21 +2079,21 @@
         <v>274</v>
       </c>
       <c r="D74">
-        <v>289.8787174265064</v>
+        <v>273.9975673648892</v>
       </c>
       <c r="E74">
-        <v>306.9549214181662</v>
+        <v>273.9926605711657</v>
       </c>
       <c r="F74">
-        <v>322.7472538724582</v>
+        <v>273.9992057987468</v>
       </c>
       <c r="G74">
-        <v>336.9757608945368</v>
+        <v>274.1366245141638</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1">
-        <v>7.354074074074073</v>
+        <v>3.663773584905661</v>
       </c>
       <c r="B75">
         <v>274</v>
@@ -2102,21 +2102,21 @@
         <v>274</v>
       </c>
       <c r="D75">
-        <v>290.0671865493545</v>
+        <v>273.9977605386804</v>
       </c>
       <c r="E75">
-        <v>307.2478234876452</v>
+        <v>273.9930362486992</v>
       </c>
       <c r="F75">
-        <v>323.091547938452</v>
+        <v>274.0006211992525</v>
       </c>
       <c r="G75">
-        <v>337.3442512415866</v>
+        <v>274.1463760710992</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1">
-        <v>7.454814814814814</v>
+        <v>3.713962264150944</v>
       </c>
       <c r="B76">
         <v>274</v>
@@ -2125,21 +2125,21 @@
         <v>274</v>
       </c>
       <c r="D76">
-        <v>290.2558037087182</v>
+        <v>273.9979406843938</v>
       </c>
       <c r="E76">
-        <v>307.5408641807321</v>
+        <v>273.9933997384862</v>
       </c>
       <c r="F76">
-        <v>323.4359680146684</v>
+        <v>274.0021437877847</v>
       </c>
       <c r="G76">
-        <v>337.7128539639105</v>
+        <v>274.1570756236503</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1">
-        <v>7.555555555555554</v>
+        <v>3.764150943396227</v>
       </c>
       <c r="B77">
         <v>274</v>
@@ -2148,21 +2148,21 @@
         <v>274</v>
       </c>
       <c r="D77">
-        <v>290.4445701272584</v>
+        <v>273.9981084726522</v>
       </c>
       <c r="E77">
-        <v>307.8340440969084</v>
+        <v>273.9937516590385</v>
       </c>
       <c r="F77">
-        <v>323.7805143920513</v>
+        <v>274.0037830407584</v>
       </c>
       <c r="G77">
-        <v>338.0815691890036</v>
+        <v>274.1687754322905</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1">
-        <v>7.656296296296295</v>
+        <v>3.81433962264151</v>
       </c>
       <c r="B78">
         <v>274</v>
@@ -2171,21 +2171,21 @@
         <v>274</v>
       </c>
       <c r="D78">
-        <v>290.6334870276913</v>
+        <v>273.9982645569414</v>
       </c>
       <c r="E78">
-        <v>308.1273638355594</v>
+        <v>273.9940926716472</v>
       </c>
       <c r="F78">
-        <v>324.1251873614742</v>
+        <v>274.0055494579213</v>
       </c>
       <c r="G78">
-        <v>338.450397044257</v>
+        <v>274.181532502401</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1">
-        <v>7.757037037037036</v>
+        <v>3.864528301886793</v>
       </c>
       <c r="B79">
         <v>274</v>
@@ -2194,21 +2194,21 @@
         <v>274</v>
       </c>
       <c r="D79">
-        <v>290.8225556326224</v>
+        <v>273.9984095726144</v>
       </c>
       <c r="E79">
-        <v>308.4208239960328</v>
+        <v>273.9944234846433</v>
       </c>
       <c r="F79">
-        <v>324.4699872137044</v>
+        <v>274.0074546304586</v>
       </c>
       <c r="G79">
-        <v>338.8193376569812</v>
+        <v>274.1954088051417</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1">
-        <v>7.857777777777777</v>
+        <v>3.914716981132076</v>
       </c>
       <c r="B80">
         <v>274</v>
@@ -2217,21 +2217,21 @@
         <v>274</v>
       </c>
       <c r="D80">
-        <v>291.0117771647006</v>
+        <v>273.9985441360299</v>
       </c>
       <c r="E80">
-        <v>308.7144251775725</v>
+        <v>273.9947448583407</v>
       </c>
       <c r="F80">
-        <v>324.8149142394356</v>
+        <v>274.0095113155207</v>
       </c>
       <c r="G80">
-        <v>339.1883911543798</v>
+        <v>274.2104715156952</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1">
-        <v>7.958518518518518</v>
+        <v>3.964905660377359</v>
       </c>
       <c r="B81">
         <v>274</v>
@@ -2240,21 +2240,21 @@
         <v>274</v>
       </c>
       <c r="D81">
-        <v>291.2011528464491</v>
+        <v>273.9986688438249</v>
       </c>
       <c r="E81">
-        <v>309.0081679793787</v>
+        <v>273.9950576107339</v>
       </c>
       <c r="F81">
-        <v>325.1599687292509</v>
+        <v>274.0117335175182</v>
       </c>
       <c r="G81">
-        <v>339.5575576635744</v>
+        <v>274.2267932695603</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1">
-        <v>8.059259259259258</v>
+        <v>4.015094339622642</v>
       </c>
       <c r="B82">
         <v>274</v>
@@ -2263,21 +2263,21 @@
         <v>274</v>
       </c>
       <c r="D82">
-        <v>291.390683900423</v>
+        <v>273.998784272315</v>
       </c>
       <c r="E82">
-        <v>309.3020530005401</v>
+        <v>273.9953626240308</v>
       </c>
       <c r="F82">
-        <v>325.5051509736563</v>
+        <v>274.0141365765472</v>
       </c>
       <c r="G82">
-        <v>339.9268373115771</v>
+        <v>274.2444524376163</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1">
-        <v>8.159999999999998</v>
+        <v>4.065283018867925</v>
       </c>
       <c r="B83">
         <v>274</v>
@@ -2286,21 +2286,21 @@
         <v>274</v>
       </c>
       <c r="D83">
-        <v>291.5803715490365</v>
+        <v>273.9988909770206</v>
       </c>
       <c r="E83">
-        <v>309.5960808400963</v>
+        <v>273.9956608521076</v>
       </c>
       <c r="F83">
-        <v>325.8504612630435</v>
+        <v>274.0167372643428</v>
       </c>
       <c r="G83">
-        <v>340.2962302253158</v>
+        <v>274.2635334207301</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1">
-        <v>8.26074074074074</v>
+        <v>4.115471698113208</v>
       </c>
       <c r="B84">
         <v>274</v>
@@ -2309,21 +2309,21 @@
         <v>274</v>
       </c>
       <c r="D84">
-        <v>291.7702170147242</v>
+        <v>273.9989894923124</v>
       </c>
       <c r="E84">
-        <v>309.8902520969675</v>
+        <v>273.9959533289818</v>
       </c>
       <c r="F84">
-        <v>326.1958998877235</v>
+        <v>274.0195538881778</v>
       </c>
       <c r="G84">
-        <v>340.665736531607</v>
+        <v>274.2841269647319</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1">
-        <v>8.36148148148148</v>
+        <v>4.165660377358491</v>
       </c>
       <c r="B85">
         <v>274</v>
@@ -2332,21 +2332,21 @@
         <v>274</v>
       </c>
       <c r="D85">
-        <v>291.9602215197644</v>
+        <v>273.9990803311722</v>
       </c>
       <c r="E85">
-        <v>310.1845673700186</v>
+        <v>273.9962411784139</v>
       </c>
       <c r="F85">
-        <v>326.5414671378888</v>
+        <v>274.0226064031584</v>
       </c>
       <c r="G85">
-        <v>341.0353563571806</v>
+        <v>274.3063304966377</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1">
-        <v>8.462222222222222</v>
+        <v>4.215849056603774</v>
       </c>
       <c r="B86">
         <v>274</v>
@@ -2355,21 +2355,21 @@
         <v>274</v>
       </c>
       <c r="D86">
-        <v>292.1503862864447</v>
+        <v>273.9991639850616</v>
       </c>
       <c r="E86">
-        <v>310.4790272579883</v>
+        <v>273.9965256247534</v>
       </c>
       <c r="F86">
-        <v>326.8871633036482</v>
+        <v>274.0259165333923</v>
       </c>
       <c r="G86">
-        <v>341.405089828653</v>
+        <v>274.3302484830556</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1">
-        <v>8.562962962962962</v>
+        <v>4.266037735849057</v>
       </c>
       <c r="B87">
         <v>274</v>
@@ -2378,21 +2378,21 @@
         <v>274</v>
       </c>
       <c r="D87">
-        <v>292.3407125368815</v>
+        <v>273.9992409238938</v>
       </c>
       <c r="E87">
-        <v>310.7736323595536</v>
+        <v>273.996808005163</v>
       </c>
       <c r="F87">
-        <v>327.2329886749875</v>
+        <v>274.0295079025391</v>
       </c>
       <c r="G87">
-        <v>341.7749370725519</v>
+        <v>274.3559928117746</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1">
-        <v>8.663703703703703</v>
+        <v>4.31622641509434</v>
       </c>
       <c r="B88">
         <v>274</v>
@@ -2401,21 +2401,21 @@
         <v>274</v>
       </c>
       <c r="D88">
-        <v>292.5312014931884</v>
+        <v>273.9993115961011</v>
       </c>
       <c r="E88">
-        <v>311.0683832732581</v>
+        <v>273.9970897833617</v>
       </c>
       <c r="F88">
-        <v>327.5789435418056</v>
+        <v>274.033406174281</v>
       </c>
       <c r="G88">
-        <v>342.144898215289</v>
+        <v>274.3836831975944</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1">
-        <v>8.764444444444443</v>
+        <v>4.366415094339623</v>
       </c>
       <c r="B89">
         <v>274</v>
@@ -2424,21 +2424,21 @@
         <v>274</v>
       </c>
       <c r="D89">
-        <v>292.7218543772933</v>
+        <v>273.9993764287917</v>
       </c>
       <c r="E89">
-        <v>311.3632805975775</v>
+        <v>273.9973725650489</v>
       </c>
       <c r="F89">
-        <v>327.9250281938747</v>
+        <v>274.0376392032865</v>
       </c>
       <c r="G89">
-        <v>342.5149733831856</v>
+        <v>274.4134476135257</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1">
-        <v>8.865185185185185</v>
+        <v>4.416603773584906</v>
       </c>
       <c r="B90">
         <v>274</v>
@@ -2447,21 +2447,21 @@
         <v>274</v>
       </c>
       <c r="D90">
-        <v>292.9126724111098</v>
+        <v>273.9994358279897</v>
       </c>
       <c r="E90">
-        <v>311.658324930847</v>
+        <v>273.9976581151786</v>
       </c>
       <c r="F90">
-        <v>328.2712429208763</v>
+        <v>274.0422371972697</v>
       </c>
       <c r="G90">
-        <v>342.8851627024447</v>
+        <v>274.4454227485592</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1">
-        <v>8.965925925925925</v>
+        <v>4.466792452830189</v>
       </c>
       <c r="B91">
         <v>274</v>
@@ -2470,21 +2470,21 @@
         <v>274</v>
       </c>
       <c r="D91">
-        <v>293.1036568163509</v>
+        <v>273.9994901789486</v>
       </c>
       <c r="E91">
-        <v>311.9535168713277</v>
+        <v>273.997948377279</v>
       </c>
       <c r="F91">
-        <v>328.617588012361</v>
+        <v>274.0472328907881</v>
       </c>
       <c r="G91">
-        <v>343.2554662991765</v>
+        <v>274.4797544932763</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1">
-        <v>9.066666666666665</v>
+        <v>4.516981132075472</v>
       </c>
       <c r="B92">
         <v>274</v>
@@ -2493,21 +2493,21 @@
         <v>274</v>
       </c>
       <c r="D92">
-        <v>293.2948088147037</v>
+        <v>273.9995398465362</v>
       </c>
       <c r="E92">
-        <v>312.248857017133</v>
+        <v>273.9982454950203</v>
       </c>
       <c r="F92">
-        <v>328.964063757786</v>
+        <v>274.0526617314504</v>
       </c>
       <c r="G92">
-        <v>343.6258842993709</v>
+        <v>274.5165984546562</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1">
-        <v>9.167407407407406</v>
+        <v>4.567169811320755</v>
       </c>
       <c r="B93">
         <v>274</v>
@@ -2516,21 +2516,21 @@
         <v>274</v>
       </c>
       <c r="D93">
-        <v>293.4861296276401</v>
+        <v>273.9995851756786</v>
       </c>
       <c r="E93">
-        <v>312.5443459662963</v>
+        <v>273.9985518362637</v>
       </c>
       <c r="F93">
-        <v>329.3106704464733</v>
+        <v>274.05856207925</v>
       </c>
       <c r="G93">
-        <v>343.9964168289231</v>
+        <v>274.5561205015142</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1">
-        <v>9.268148148148146</v>
+        <v>4.617358490566038</v>
       </c>
       <c r="B94">
         <v>274</v>
@@ -2539,21 +2539,21 @@
         <v>274</v>
       </c>
       <c r="D94">
-        <v>293.6776204765946</v>
+        <v>273.9996264918619</v>
       </c>
       <c r="E94">
-        <v>312.839984316696</v>
+        <v>273.9988700198356</v>
       </c>
       <c r="F94">
-        <v>329.6574083676478</v>
+        <v>274.0649754197733</v>
       </c>
       <c r="G94">
-        <v>344.3670640136056</v>
+        <v>274.5984973421021</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1">
-        <v>9.368888888888888</v>
+        <v>4.667547169811321</v>
       </c>
       <c r="B95">
         <v>274</v>
@@ -2562,21 +2562,21 @@
         <v>274</v>
       </c>
       <c r="D95">
-        <v>293.8692825827716</v>
+        <v>273.9996641016803</v>
       </c>
       <c r="E95">
-        <v>313.1357726661241</v>
+        <v>273.9992029453023</v>
       </c>
       <c r="F95">
-        <v>330.0042778103958</v>
+        <v>274.0719465920752</v>
       </c>
       <c r="G95">
-        <v>344.7378259790939</v>
+        <v>274.6439171354892</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1">
-        <v>9.469629629629628</v>
+        <v>4.717735849056604</v>
       </c>
       <c r="B96">
         <v>274</v>
@@ -2585,21 +2585,21 @@
         <v>274</v>
       </c>
       <c r="D96">
-        <v>294.0611171673268</v>
+        <v>273.9996982934296</v>
       </c>
       <c r="E96">
-        <v>313.4317116122112</v>
+        <v>273.9995538260371</v>
       </c>
       <c r="F96">
-        <v>330.3512790637026</v>
+        <v>274.0795240320532</v>
       </c>
       <c r="G96">
-        <v>345.1087028509393</v>
+        <v>274.6925801384531</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1">
-        <v>9.57037037037037</v>
+        <v>4.767924528301887</v>
       </c>
       <c r="B97">
         <v>274</v>
@@ -2608,21 +2608,21 @@
         <v>274</v>
       </c>
       <c r="D97">
-        <v>294.2531254511715</v>
+        <v>273.999729337734</v>
       </c>
       <c r="E97">
-        <v>313.727801752495</v>
+        <v>273.9999262259041</v>
       </c>
       <c r="F97">
-        <v>330.6984124164114</v>
+        <v>274.0877600321966</v>
       </c>
       <c r="G97">
-        <v>345.4796947545933</v>
+        <v>274.7446993897112</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1">
-        <v>9.671111111111109</v>
+        <v>4.81811320754717</v>
       </c>
       <c r="B98">
         <v>274</v>
@@ -2631,21 +2631,21 @@
         <v>274</v>
       </c>
       <c r="D98">
-        <v>294.4453086551564</v>
+        <v>273.9997574882086</v>
       </c>
       <c r="E98">
-        <v>314.0240436843444</v>
+        <v>274.0003240999077</v>
       </c>
       <c r="F98">
-        <v>331.0456781572608</v>
+        <v>274.0967110186321</v>
       </c>
       <c r="G98">
-        <v>345.8508018153815</v>
+        <v>274.8005014334445</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1">
-        <v>9.771851851851851</v>
+        <v>4.868301886792453</v>
       </c>
       <c r="B99">
         <v>274</v>
@@ -2654,21 +2654,21 @@
         <v>274</v>
       </c>
       <c r="D99">
-        <v>294.6376679998737</v>
+        <v>273.9997829821455</v>
       </c>
       <c r="E99">
-        <v>314.3204380050298</v>
+        <v>274.0007518391868</v>
       </c>
       <c r="F99">
-        <v>331.3930765748435</v>
+        <v>274.1064378464307</v>
       </c>
       <c r="G99">
-        <v>346.2220241585273</v>
+        <v>274.8602270841897</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1">
-        <v>9.872592592592591</v>
+        <v>4.918490566037736</v>
       </c>
       <c r="B100">
         <v>274</v>
@@ -2677,21 +2677,21 @@
         <v>274</v>
       </c>
       <c r="D100">
-        <v>294.8302047058428</v>
+        <v>273.9998060412239</v>
       </c>
       <c r="E100">
-        <v>314.6169853116457</v>
+        <v>274.0012143207652</v>
       </c>
       <c r="F100">
-        <v>331.7406079576441</v>
+        <v>274.1170061141946</v>
       </c>
       <c r="G100">
-        <v>346.5933619091263</v>
+        <v>274.924132235309</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1">
-        <v>9.973333333333333</v>
+        <v>4.96867924528302</v>
       </c>
       <c r="B101">
         <v>274</v>
@@ -2700,21 +2700,21 @@
         <v>274</v>
       </c>
       <c r="D101">
-        <v>295.0229199933112</v>
+        <v>273.999826872239</v>
       </c>
       <c r="E101">
-        <v>314.9136862011821</v>
+        <v>274.0017169625081</v>
       </c>
       <c r="F101">
-        <v>332.0882725939975</v>
+        <v>274.128486498987</v>
       </c>
       <c r="G101">
-        <v>346.9648151921697</v>
+        <v>274.9924887133931</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1">
-        <v>10.07407407407407</v>
+        <v>5.018867924528302</v>
       </c>
       <c r="B102">
         <v>274</v>
@@ -2723,21 +2723,21 @@
         <v>274</v>
       </c>
       <c r="D102">
-        <v>295.2158150824416</v>
+        <v>273.9998456678454</v>
       </c>
       <c r="E102">
-        <v>315.2105412704455</v>
+        <v>274.002265783762</v>
       </c>
       <c r="F102">
-        <v>332.4360707721272</v>
+        <v>274.1409551127251</v>
       </c>
       <c r="G102">
-        <v>347.3363841325188</v>
+        <v>275.0655851811034</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1">
-        <v>10.17481481481481</v>
+        <v>5.069056603773586</v>
       </c>
       <c r="B103">
         <v>274</v>
@@ -2746,21 +2746,21 @@
         <v>274</v>
       </c>
       <c r="D103">
-        <v>295.4088911931105</v>
+        <v>273.9998626073162</v>
       </c>
       <c r="E103">
-        <v>315.5075511161327</v>
+        <v>274.0028674722046</v>
       </c>
       <c r="F103">
-        <v>332.7840027801028</v>
+        <v>274.1544938812104</v>
       </c>
       <c r="G103">
-        <v>347.7080688549285</v>
+        <v>275.1437280911351</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1">
-        <v>10.27555555555555</v>
+        <v>5.119245283018868</v>
       </c>
       <c r="B104">
         <v>274</v>
@@ -2769,21 +2769,21 @@
         <v>274</v>
       </c>
       <c r="D104">
-        <v>295.6021495450981</v>
+        <v>273.9998778573134</v>
       </c>
       <c r="E104">
-        <v>315.8047163347493</v>
+        <v>274.0035294574678</v>
       </c>
       <c r="F104">
-        <v>333.1320689058797</v>
+        <v>274.1691909470252</v>
       </c>
       <c r="G104">
-        <v>348.0798694840215</v>
+        <v>275.2272426941547</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1">
-        <v>10.37629629629629</v>
+        <v>5.169433962264152</v>
       </c>
       <c r="B105">
         <v>274</v>
@@ -2792,21 +2792,21 @@
         <v>274</v>
       </c>
       <c r="D105">
-        <v>295.7955913578847</v>
+        <v>273.9998915726701</v>
       </c>
       <c r="E105">
-        <v>316.1020375226857</v>
+        <v>274.0042599921395</v>
       </c>
       <c r="F105">
-        <v>333.4802694372553</v>
+        <v>274.1851410975868</v>
       </c>
       <c r="G105">
-        <v>348.4517861443125</v>
+        <v>275.3164741037663</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1">
-        <v>10.47703703703704</v>
+        <v>5.219622641509434</v>
       </c>
       <c r="B106">
         <v>274</v>
@@ -2815,21 +2815,21 @@
         <v>274</v>
       </c>
       <c r="D106">
-        <v>295.9892178508422</v>
+        <v>273.9999038971872</v>
       </c>
       <c r="E106">
-        <v>316.399515276134</v>
+        <v>274.0050682408026</v>
       </c>
       <c r="F106">
-        <v>333.828604661909</v>
+        <v>274.2024462197132</v>
       </c>
       <c r="G106">
-        <v>348.823818960181</v>
+        <v>275.4117884217702</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1">
-        <v>10.57777777777778</v>
+        <v>5.269811320754718</v>
       </c>
       <c r="B107">
         <v>274</v>
@@ -2838,21 +2838,21 @@
         <v>274</v>
       </c>
       <c r="D107">
-        <v>296.183030243029</v>
+        <v>273.9999149644438</v>
       </c>
       <c r="E107">
-        <v>316.6971501911647</v>
+        <v>274.0059643778141</v>
       </c>
       <c r="F107">
-        <v>334.1770748673592</v>
+        <v>274.2212157821172</v>
       </c>
       <c r="G107">
-        <v>349.1959680558973</v>
+        <v>275.5135739272047</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="1">
-        <v>10.67851851851852</v>
+        <v>5.32</v>
       </c>
       <c r="B108">
         <v>274</v>
@@ -2861,21 +2861,21 @@
         <v>274</v>
       </c>
       <c r="D108">
-        <v>296.3770297533833</v>
+        <v>273.9999248986277</v>
       </c>
       <c r="E108">
-        <v>316.9949428636436</v>
+        <v>274.0069596945816</v>
       </c>
       <c r="F108">
-        <v>334.5256803410024</v>
+        <v>274.2415673473181</v>
       </c>
       <c r="G108">
-        <v>349.5682335555941</v>
+        <v>275.6222423329124</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="1">
-        <v>10.77925925925926</v>
+        <v>5.370188679245284</v>
       </c>
       <c r="B109">
         <v>274</v>
@@ -2884,21 +2884,21 @@
         <v>274</v>
       </c>
       <c r="D109">
-        <v>296.571217600516</v>
+        <v>273.9999338153892</v>
       </c>
       <c r="E109">
-        <v>317.2928938893085</v>
+        <v>274.0080667171536</v>
       </c>
       <c r="F109">
-        <v>334.8744213700703</v>
+        <v>274.2636271145314</v>
       </c>
       <c r="G109">
-        <v>349.940615583293</v>
+        <v>275.7382301136399</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="1">
-        <v>10.88</v>
+        <v>5.420377358490566</v>
       </c>
       <c r="B110">
         <v>274</v>
@@ -2907,21 +2907,21 @@
         <v>274</v>
       </c>
       <c r="D110">
-        <v>296.7655950029065</v>
+        <v>273.999941822727</v>
       </c>
       <c r="E110">
-        <v>317.5910038636861</v>
+        <v>274.0092993349923</v>
       </c>
       <c r="F110">
-        <v>335.2232982416697</v>
+        <v>274.2875304951711</v>
       </c>
       <c r="G110">
-        <v>350.3131142628755</v>
+        <v>275.8619999099706</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="1">
-        <v>10.98074074074074</v>
+        <v>5.47056603773585</v>
       </c>
       <c r="B111">
         <v>274</v>
@@ -2930,21 +2930,21 @@
         <v>274</v>
       </c>
       <c r="D111">
-        <v>296.9601631786926</v>
+        <v>273.9999490219145</v>
       </c>
       <c r="E111">
-        <v>317.8892733821687</v>
+        <v>274.0106729418652</v>
       </c>
       <c r="F111">
-        <v>335.5723112427386</v>
+        <v>274.3134227226833</v>
       </c>
       <c r="G111">
-        <v>350.6857297181104</v>
+        <v>275.9940420127126</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="1">
-        <v>11.08148148148148</v>
+        <v>5.520754716981132</v>
       </c>
       <c r="B112">
         <v>274</v>
@@ -2953,21 +2953,21 @@
         <v>274</v>
       </c>
       <c r="D112">
-        <v>297.1549233458696</v>
+        <v>273.9999555084791</v>
       </c>
       <c r="E112">
-        <v>318.1877030399307</v>
+        <v>274.0122045898543</v>
       </c>
       <c r="F112">
-        <v>335.9214606600867</v>
+        <v>274.3414594985118</v>
       </c>
       <c r="G112">
-        <v>351.0584620726241</v>
+        <v>276.1348759327042</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="1">
-        <v>11.18222222222222</v>
+        <v>5.570943396226416</v>
       </c>
       <c r="B113">
         <v>274</v>
@@ -2976,21 +2976,21 @@
         <v>274</v>
       </c>
       <c r="D113">
-        <v>297.3498767220775</v>
+        <v>273.9999613732509</v>
       </c>
       <c r="E113">
-        <v>318.4862934320061</v>
+        <v>274.0139131575508</v>
       </c>
       <c r="F113">
-        <v>336.2707467803514</v>
+        <v>274.3718076760871</v>
       </c>
       <c r="G113">
-        <v>351.4313114499283</v>
+        <v>276.2850520613828</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="1">
-        <v>11.28296296296296</v>
+        <v>5.621132075471698</v>
       </c>
       <c r="B114">
         <v>274</v>
@@ -2999,21 +2999,21 @@
         <v>274</v>
       </c>
       <c r="D114">
-        <v>297.5450245248018</v>
+        <v>273.9999667034957</v>
       </c>
       <c r="E114">
-        <v>318.7850451532047</v>
+        <v>274.0158195335741</v>
       </c>
       <c r="F114">
-        <v>336.6201698900384</v>
+        <v>274.4046459848288</v>
       </c>
       <c r="G114">
-        <v>351.8042779733902</v>
+        <v>276.4451534278696</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="1">
-        <v>11.3837037037037</v>
+        <v>5.671320754716982</v>
       </c>
       <c r="B115">
         <v>274</v>
@@ -3022,21 +3022,21 @@
         <v>274</v>
       </c>
       <c r="D115">
-        <v>297.7403679711593</v>
+        <v>273.9999715841602</v>
       </c>
       <c r="E115">
-        <v>319.0839587981889</v>
+        <v>274.0179468166306</v>
       </c>
       <c r="F115">
-        <v>336.969730275477</v>
+        <v>274.4401657962462</v>
       </c>
       <c r="G115">
-        <v>352.1773617662608</v>
+        <v>276.6157975587777</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="1">
-        <v>11.48444444444444</v>
+        <v>5.721509433962265</v>
       </c>
       <c r="B116">
         <v>274</v>
@@ -3045,21 +3045,21 @@
         <v>274</v>
       </c>
       <c r="D116">
-        <v>297.9359082781012</v>
+        <v>273.999976099253</v>
       </c>
       <c r="E116">
-        <v>319.3830349613913</v>
+        <v>274.0203205334058</v>
       </c>
       <c r="F116">
-        <v>337.3194282228619</v>
+        <v>274.4785719343389</v>
       </c>
       <c r="G116">
-        <v>352.5505629516435</v>
+        <v>276.7976384474367</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="1">
-        <v>11.58518518518518</v>
+        <v>5.771698113207548</v>
       </c>
       <c r="B117">
         <v>274</v>
@@ -3068,21 +3068,21 @@
         <v>274</v>
       </c>
       <c r="D117">
-        <v>298.1316466621962</v>
+        <v>273.9999803333967</v>
       </c>
       <c r="E117">
-        <v>319.6822742370904</v>
+        <v>274.0229688756617</v>
       </c>
       <c r="F117">
-        <v>337.6692640182076</v>
+        <v>274.5200835326066</v>
       </c>
       <c r="G117">
-        <v>352.9238816525244</v>
+        <v>276.9913686397721</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="1">
-        <v>11.68592592592592</v>
+        <v>5.821886792452831</v>
       </c>
       <c r="B118">
         <v>274</v>
@@ -3091,21 +3091,21 @@
         <v>274</v>
       </c>
       <c r="D118">
-        <v>298.3275843398359</v>
+        <v>273.9999843735905</v>
       </c>
       <c r="E118">
-        <v>319.9816772193284</v>
+        <v>274.0259229580042</v>
       </c>
       <c r="F118">
-        <v>338.0192379473907</v>
+        <v>274.5649349401058</v>
       </c>
       <c r="G118">
-        <v>353.2973179917396</v>
+        <v>277.1977214446603</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="1">
-        <v>11.78666666666667</v>
+        <v>5.872075471698114</v>
       </c>
       <c r="B119">
         <v>274</v>
@@ -3114,21 +3114,21 @@
         <v>274</v>
       </c>
       <c r="D119">
-        <v>298.5237225270159</v>
+        <v>273.9999883112314</v>
       </c>
       <c r="E119">
-        <v>320.2812445019874</v>
+        <v>274.0292170978645</v>
       </c>
       <c r="F119">
-        <v>338.369350296104</v>
+        <v>274.6133766791236</v>
       </c>
       <c r="G119">
-        <v>353.6708720920062</v>
+        <v>277.4174732772332</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="1">
-        <v>11.88740740740741</v>
+        <v>5.922264150943397</v>
       </c>
       <c r="B120">
         <v>274</v>
@@ -3137,21 +3137,21 @@
         <v>274</v>
       </c>
       <c r="D120">
-        <v>298.7200624395436</v>
+        <v>273.9999922444509</v>
       </c>
       <c r="E120">
-        <v>320.5809766787065</v>
+        <v>274.0328891193397</v>
       </c>
       <c r="F120">
-        <v>338.7196013498988</v>
+        <v>274.6656764571774</v>
       </c>
       <c r="G120">
-        <v>354.0445440758887</v>
+        <v>277.6514461443093</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="1">
-        <v>11.98814814814815</v>
+        <v>5.97245283018868</v>
       </c>
       <c r="B121">
         <v>274</v>
@@ -3160,21 +3160,21 @@
         <v>274</v>
       </c>
       <c r="D121">
-        <v>298.9166052928168</v>
+        <v>273.9999962808351</v>
       </c>
       <c r="E121">
-        <v>320.8808743429588</v>
+        <v>274.0369806826259</v>
       </c>
       <c r="F121">
-        <v>339.069991394139</v>
+        <v>274.7221202362085</v>
       </c>
       <c r="G121">
-        <v>354.418334065831</v>
+        <v>277.9005102819118</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="1">
-        <v>12.08888888888889</v>
+        <v>6.022641509433963</v>
       </c>
       <c r="B122">
         <v>274</v>
@@ -3183,21 +3183,21 @@
         <v>274</v>
       </c>
       <c r="D122">
-        <v>299.1133523020337</v>
+        <v>274.0000005406079</v>
       </c>
       <c r="E122">
-        <v>321.1809380879679</v>
+        <v>274.0415376408809</v>
       </c>
       <c r="F122">
-        <v>339.4205207140441</v>
+        <v>274.7830133619979</v>
       </c>
       <c r="G122">
-        <v>354.7922421841224</v>
+        <v>278.1655869556866</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="1">
-        <v>12.18962962962963</v>
+        <v>6.072830188679246</v>
       </c>
       <c r="B123">
         <v>274</v>
@@ -3206,21 +3206,21 @@
         <v>274</v>
       </c>
       <c r="D123">
-        <v>299.31030468197</v>
+        <v>274.0000051603737</v>
       </c>
       <c r="E123">
-        <v>321.4811685067854</v>
+        <v>274.0466104264526</v>
       </c>
       <c r="F123">
-        <v>339.7711895946424</v>
+        <v>274.8486817570142</v>
       </c>
       <c r="G123">
-        <v>355.1662685529296</v>
+        <v>278.4476514359823</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="1">
-        <v>12.29037037037037</v>
+        <v>6.123018867924529</v>
       </c>
       <c r="B124">
         <v>274</v>
@@ -3229,21 +3229,21 @@
         <v>274</v>
       </c>
       <c r="D124">
-        <v>299.50746364719</v>
+        <v>274.0000102975299</v>
       </c>
       <c r="E124">
-        <v>321.7815661922066</v>
+        <v>274.0522544685158</v>
       </c>
       <c r="F124">
-        <v>340.121998320814</v>
+        <v>274.9194731800987</v>
       </c>
       <c r="G124">
-        <v>355.5404132942624</v>
+        <v>278.7477361603816</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="1">
-        <v>12.39111111111111</v>
+        <v>6.173207547169812</v>
       </c>
       <c r="B125">
         <v>274</v>
@@ -3252,21 +3252,21 @@
         <v>274</v>
       </c>
       <c r="D125">
-        <v>299.7048304118225</v>
+        <v>274.0000161354822</v>
       </c>
       <c r="E125">
-        <v>322.082131736849</v>
+        <v>274.0585306442695</v>
       </c>
       <c r="F125">
-        <v>340.4729471772448</v>
+        <v>274.995758556599</v>
       </c>
       <c r="G125">
-        <v>355.9146765300067</v>
+        <v>279.0669340976275</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="1">
-        <v>12.49185185185185</v>
+        <v>6.223396226415095</v>
       </c>
       <c r="B126">
         <v>274</v>
@@ -3275,21 +3275,21 @@
         <v>274</v>
       </c>
       <c r="D126">
-        <v>299.9024061897737</v>
+        <v>274.0000228898182</v>
       </c>
       <c r="E126">
-        <v>322.3828657330675</v>
+        <v>274.0655057659561</v>
       </c>
       <c r="F126">
-        <v>340.8240364484692</v>
+        <v>275.0779333827954</v>
       </c>
       <c r="G126">
-        <v>356.2890583818886</v>
+        <v>279.4064023281452</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="1">
-        <v>12.59259259259259</v>
+        <v>6.273584905660378</v>
       </c>
       <c r="B127">
         <v>274</v>
@@ -3298,21 +3298,21 @@
         <v>274</v>
       </c>
       <c r="D127">
-        <v>300.1001921945011</v>
+        <v>274.000030815621</v>
       </c>
       <c r="E127">
-        <v>322.6837687730329</v>
+        <v>274.0732531060803</v>
       </c>
       <c r="F127">
-        <v>341.1752664188234</v>
+        <v>275.1664192087126</v>
       </c>
       <c r="G127">
-        <v>356.6635589715091</v>
+        <v>279.7673658577544</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="1">
-        <v>12.69333333333333</v>
+        <v>6.323773584905661</v>
       </c>
       <c r="B128">
         <v>274</v>
@@ -3321,21 +3321,21 @@
         <v>274</v>
       </c>
       <c r="D128">
-        <v>300.2981896392282</v>
+        <v>274.0000402161336</v>
       </c>
       <c r="E128">
-        <v>322.9848414486469</v>
+        <v>274.0818529633239</v>
       </c>
       <c r="F128">
-        <v>341.5266373724891</v>
+        <v>275.2616652036797</v>
       </c>
       <c r="G128">
-        <v>357.0381784203071</v>
+        <v>280.1511216827115</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="1">
-        <v>12.79407407407407</v>
+        <v>6.373962264150944</v>
       </c>
       <c r="B129">
         <v>274</v>
@@ -3344,21 +3344,21 @@
         <v>274</v>
       </c>
       <c r="D129">
-        <v>300.4963997367171</v>
+        <v>274.0000514530285</v>
       </c>
       <c r="E129">
-        <v>323.2860843516216</v>
+        <v>274.0913932717702</v>
       </c>
       <c r="F129">
-        <v>341.8781495934462</v>
+        <v>275.3641498092972</v>
       </c>
       <c r="G129">
-        <v>357.4129168495945</v>
+        <v>280.5590431259212</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="1">
-        <v>12.89481481481481</v>
+        <v>6.424150943396227</v>
       </c>
       <c r="B130">
         <v>274</v>
@@ -3367,21 +3367,21 @@
         <v>274</v>
       </c>
       <c r="D130">
-        <v>300.6948236994845</v>
+        <v>274.0000649585659</v>
       </c>
       <c r="E130">
-        <v>323.5874980733935</v>
+        <v>274.10197025618</v>
       </c>
       <c r="F130">
-        <v>342.229803365517</v>
+        <v>275.4743824848005</v>
       </c>
       <c r="G130">
-        <v>357.7877743805188</v>
+        <v>280.9925844660499</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="1">
-        <v>12.99555555555555</v>
+        <v>6.47433962264151</v>
       </c>
       <c r="B131">
         <v>274</v>
@@ -3390,21 +3390,21 @@
         <v>274</v>
       </c>
       <c r="D131">
-        <v>300.8934627395728</v>
+        <v>274.0000812499854</v>
       </c>
       <c r="E131">
-        <v>323.8890832052033</v>
+        <v>274.1136891361842</v>
       </c>
       <c r="F131">
-        <v>342.5815989723183</v>
+        <v>275.5929055501575</v>
       </c>
       <c r="G131">
-        <v>358.1627511340996</v>
+        <v>281.4532858833662</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="1">
-        <v>13.09629629629629</v>
+        <v>6.524528301886793</v>
       </c>
       <c r="B132">
         <v>274</v>
@@ -3413,21 +3413,21 @@
         <v>274</v>
       </c>
       <c r="D132">
-        <v>301.0923180687674</v>
+        <v>274.000100946518</v>
       </c>
       <c r="E132">
-        <v>324.1908403380095</v>
+        <v>274.1266648823862</v>
       </c>
       <c r="F132">
-        <v>342.9335366973058</v>
+        <v>275.7202961326345</v>
       </c>
       <c r="G132">
-        <v>358.5378472311887</v>
+        <v>281.9427787484535</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="1">
-        <v>13.19703703703703</v>
+        <v>6.574716981132076</v>
       </c>
       <c r="B133">
         <v>274</v>
@@ -3436,21 +3436,21 @@
         <v>274</v>
       </c>
       <c r="D133">
-        <v>301.2913908983675</v>
+        <v>274.0001247894773</v>
       </c>
       <c r="E133">
-        <v>324.4927700625695</v>
+        <v>274.1410230275063</v>
       </c>
       <c r="F133">
-        <v>343.2856168237266</v>
+        <v>275.8571682229884</v>
       </c>
       <c r="G133">
-        <v>358.9130627925091</v>
+        <v>282.4627912825256</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="1">
-        <v>13.29777777777778</v>
+        <v>6.624905660377359</v>
       </c>
       <c r="B134">
         <v>274</v>
@@ -3459,21 +3459,21 @@
         <v>274</v>
       </c>
       <c r="D134">
-        <v>301.490682439403</v>
+        <v>274.0001536659557</v>
       </c>
       <c r="E134">
-        <v>324.7948729693518</v>
+        <v>274.1569005358286</v>
       </c>
       <c r="F134">
-        <v>343.6378396346634</v>
+        <v>276.0041748479179</v>
       </c>
       <c r="G134">
-        <v>359.2883979386139</v>
+        <v>283.0151546209398</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="1">
-        <v>13.39851851851852</v>
+        <v>6.675094339622642</v>
       </c>
       <c r="B135">
         <v>274</v>
@@ -3482,21 +3482,21 @@
         <v>274</v>
       </c>
       <c r="D135">
-        <v>301.690193902406</v>
+        <v>274.0001886367335</v>
       </c>
       <c r="E135">
-        <v>325.0971496486179</v>
+        <v>274.1744467343521</v>
       </c>
       <c r="F135">
-        <v>343.9902054129866</v>
+        <v>276.1620103659222</v>
       </c>
       <c r="G135">
-        <v>359.6638527899249</v>
+        <v>283.6018093147002</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="1">
-        <v>13.49925925925926</v>
+        <v>6.725283018867925</v>
       </c>
       <c r="B136">
         <v>274</v>
@@ -3505,21 +3505,21 @@
         <v>274</v>
       </c>
       <c r="D136">
-        <v>301.8899264976271</v>
+        <v>274.0002309691026</v>
       </c>
       <c r="E136">
-        <v>325.3996006903344</v>
+        <v>274.1938243091927</v>
       </c>
       <c r="F136">
-        <v>344.342714441399</v>
+        <v>276.3314128942874</v>
       </c>
       <c r="G136">
-        <v>360.0394274666929</v>
+        <v>284.2248123082966</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="1">
-        <v>13.6</v>
+        <v>6.775471698113208</v>
       </c>
       <c r="B137">
         <v>274</v>
@@ -3528,21 +3528,21 @@
         <v>274</v>
       </c>
       <c r="D137">
-        <v>302.0898814348074</v>
+        <v>274.0002821754098</v>
       </c>
       <c r="E137">
-        <v>325.7022266842547</v>
+        <v>274.2152103709234</v>
       </c>
       <c r="F137">
-        <v>344.6953670023879</v>
+        <v>276.5131668755516</v>
       </c>
       <c r="G137">
-        <v>360.4151220890349</v>
+        <v>284.8863444361973</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="1">
-        <v>13.70074074074074</v>
+        <v>6.825660377358491</v>
       </c>
       <c r="B138">
         <v>274</v>
@@ -3551,21 +3551,21 @@
         <v>274</v>
       </c>
       <c r="D138">
-        <v>302.2900599233944</v>
+        <v>274.0003440582482</v>
       </c>
       <c r="E138">
-        <v>326.0050282198309</v>
+        <v>274.2387975926932</v>
       </c>
       <c r="F138">
-        <v>345.0481633782695</v>
+        <v>276.7081057924905</v>
       </c>
       <c r="G138">
-        <v>360.7909367768951</v>
+        <v>285.5887184847389</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="1">
-        <v>13.80148148148148</v>
+        <v>6.875849056603774</v>
       </c>
       <c r="B139">
         <v>274</v>
@@ -3574,21 +3574,21 @@
         <v>274</v>
       </c>
       <c r="D139">
-        <v>302.4904631723147</v>
+        <v>274.0004187633517</v>
       </c>
       <c r="E139">
-        <v>326.3080058862967</v>
+        <v>274.2647954251199</v>
       </c>
       <c r="F139">
-        <v>345.401103851141</v>
+        <v>276.9171150414372</v>
       </c>
       <c r="G139">
-        <v>361.1668716500824</v>
+        <v>286.3343878711113</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="1">
-        <v>13.90222222222222</v>
+        <v>6.926037735849057</v>
       </c>
       <c r="B140">
         <v>274</v>
@@ -3597,21 +3597,21 @@
         <v>274</v>
       </c>
       <c r="D140">
-        <v>302.6910923901891</v>
+        <v>274.0005088414087</v>
       </c>
       <c r="E140">
-        <v>326.6111602725775</v>
+        <v>274.2934313921088</v>
       </c>
       <c r="F140">
-        <v>345.7541887029256</v>
+        <v>277.1411349745903</v>
       </c>
       <c r="G140">
-        <v>361.5429268282304</v>
+        <v>287.1259559966738</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="1">
-        <v>14.00296296296296</v>
+        <v>6.97622641509434</v>
       </c>
       <c r="B141">
         <v>274</v>
@@ -3620,21 +3620,21 @@
         <v>274</v>
       </c>
       <c r="D141">
-        <v>302.8919487851058</v>
+        <v>274.0006173201722</v>
       </c>
       <c r="E141">
-        <v>326.9144919673751</v>
+        <v>274.3249524719171</v>
       </c>
       <c r="F141">
-        <v>346.1074182153239</v>
+        <v>277.3811641229103</v>
       </c>
       <c r="G141">
-        <v>361.9191024308357</v>
+        <v>287.9661863380428</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="1">
-        <v>14.1037037037037</v>
+        <v>7.026415094339623</v>
       </c>
       <c r="B142">
         <v>274</v>
@@ -3643,21 +3643,21 @@
         <v>274</v>
       </c>
       <c r="D142">
-        <v>303.0930335648358</v>
+        <v>274.0007477884403</v>
       </c>
       <c r="E142">
-        <v>327.2180015590764</v>
+        <v>274.3596265679562</v>
       </c>
       <c r="F142">
-        <v>346.4607926698594</v>
+        <v>277.6382626122306</v>
       </c>
       <c r="G142">
-        <v>362.295398577218</v>
+        <v>288.8580133463535</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="1">
-        <v>14.20444444444444</v>
+        <v>7.076603773584906</v>
       </c>
       <c r="B143">
         <v>274</v>
@@ -3666,21 +3666,21 @@
         <v>274</v>
       </c>
       <c r="D143">
-        <v>303.2943479366055</v>
+        <v>274.0009044936892</v>
       </c>
       <c r="E143">
-        <v>327.5216896358388</v>
+        <v>274.3977440740039</v>
       </c>
       <c r="F143">
-        <v>346.8143123478293</v>
+        <v>277.913555786368</v>
       </c>
       <c r="G143">
-        <v>362.6718153865577</v>
+        <v>289.8045542329028</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="1">
-        <v>14.30518518518518</v>
+        <v>7.126792452830189</v>
       </c>
       <c r="B144">
         <v>274</v>
@@ -3689,21 +3689,21 @@
         <v>274</v>
       </c>
       <c r="D144">
-        <v>303.4958931073124</v>
+        <v>274.0010924553827</v>
       </c>
       <c r="E144">
-        <v>327.8255567854993</v>
+        <v>274.4396195386881</v>
       </c>
       <c r="F144">
-        <v>347.1679775303508</v>
+        <v>278.2082380522824</v>
       </c>
       <c r="G144">
-        <v>363.0483529778567</v>
+        <v>290.8091217281683</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="1">
-        <v>14.40592592592592</v>
+        <v>7.176981132075472</v>
       </c>
       <c r="B145">
         <v>274</v>
@@ -3712,21 +3712,21 @@
         <v>274</v>
       </c>
       <c r="D145">
-        <v>303.697670283298</v>
+        <v>274.0013175962385</v>
       </c>
       <c r="E145">
-        <v>328.1296035956586</v>
+        <v>274.4855934343055</v>
       </c>
       <c r="F145">
-        <v>347.5217884983114</v>
+        <v>278.5235769637495</v>
       </c>
       <c r="G145">
-        <v>363.4250114699757</v>
+        <v>291.8752379110712</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="1">
-        <v>14.50666666666666</v>
+        <v>7.227169811320755</v>
       </c>
       <c r="B146">
         <v>274</v>
@@ -3735,21 +3735,21 @@
         <v>274</v>
       </c>
       <c r="D146">
-        <v>303.8996806705631</v>
+        <v>274.0015868940315</v>
       </c>
       <c r="E146">
-        <v>328.4338306535919</v>
+        <v>274.5360340352534</v>
       </c>
       <c r="F146">
-        <v>347.8757455324154</v>
+        <v>278.8609175615772</v>
       </c>
       <c r="G146">
-        <v>363.801790981595</v>
+        <v>293.0066492164823</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="1">
-        <v>14.60740740740741</v>
+        <v>7.277358490566038</v>
       </c>
       <c r="B147">
         <v>274</v>
@@ -3758,21 +3758,21 @@
         <v>274</v>
       </c>
       <c r="D147">
-        <v>304.1019254745411</v>
+        <v>274.0019085568284</v>
       </c>
       <c r="E147">
-        <v>328.7382385463318</v>
+        <v>274.5913394115811</v>
       </c>
       <c r="F147">
-        <v>348.2298489131339</v>
+        <v>279.2216869901316</v>
       </c>
       <c r="G147">
-        <v>364.1786916312517</v>
+        <v>294.2073427415232</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="1">
-        <v>14.70814814814815</v>
+        <v>7.327547169811321</v>
       </c>
       <c r="B148">
         <v>274</v>
@@ -3781,21 +3781,21 @@
         <v>274</v>
       </c>
       <c r="D148">
-        <v>304.3044059003129</v>
+        <v>274.0022922249084</v>
       </c>
       <c r="E148">
-        <v>329.0428278605791</v>
+        <v>274.651939543415</v>
       </c>
       <c r="F148">
-        <v>348.5840989207518</v>
+        <v>279.607399411873</v>
       </c>
       <c r="G148">
-        <v>364.5557135373008</v>
+        <v>295.4815639853869</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="1">
-        <v>14.80888888888889</v>
+        <v>7.377735849056604</v>
       </c>
       <c r="B149">
         <v>274</v>
@@ -3804,21 +3804,21 @@
         <v>274</v>
       </c>
       <c r="D149">
-        <v>304.5071231523808</v>
+        <v>274.0027492030098</v>
       </c>
       <c r="E149">
-        <v>329.3475991827868</v>
+        <v>274.7182985622801</v>
       </c>
       <c r="F149">
-        <v>348.9384958353176</v>
+        <v>280.0196612437516</v>
       </c>
       <c r="G149">
-        <v>364.9328568179523</v>
+        <v>296.8338361734264</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="1">
-        <v>14.90962962962963</v>
+        <v>7.427924528301888</v>
       </c>
       <c r="B150">
         <v>274</v>
@@ -3827,21 +3827,21 @@
         <v>274</v>
       </c>
       <c r="D150">
-        <v>304.7100784348829</v>
+        <v>274.0032927269723</v>
       </c>
       <c r="E150">
-        <v>329.6525530990698</v>
+        <v>274.7909171256341</v>
       </c>
       <c r="F150">
-        <v>349.2930399366899</v>
+        <v>280.4601767416964</v>
       </c>
       <c r="G150">
-        <v>365.3101215912321</v>
+        <v>298.2689813343951</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="1">
-        <v>15.01037037037037</v>
+        <v>7.47811320754717</v>
       </c>
       <c r="B151">
         <v>274</v>
@@ -3850,21 +3850,21 @@
         <v>274</v>
       </c>
       <c r="D151">
-        <v>304.9132729513676</v>
+        <v>274.0039382693049</v>
       </c>
       <c r="E151">
-        <v>329.9576901952893</v>
+        <v>274.8703349312512</v>
       </c>
       <c r="F151">
-        <v>349.6477315044882</v>
+        <v>280.9307539621025</v>
       </c>
       <c r="G151">
-        <v>365.6875079750193</v>
+        <v>299.7921433202777</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="1">
-        <v>15.11111111111111</v>
+        <v>7.528301886792454</v>
       </c>
       <c r="B152">
         <v>274</v>
@@ -3873,21 +3873,21 @@
         <v>274</v>
       </c>
       <c r="D152">
-        <v>305.1167079050069</v>
+        <v>274.0047038887168</v>
       </c>
       <c r="E152">
-        <v>330.2630110569625</v>
+        <v>274.9571333784465</v>
       </c>
       <c r="F152">
-        <v>350.0025708181388</v>
+        <v>281.4333111321794</v>
       </c>
       <c r="G152">
-        <v>366.0650160870072</v>
+        <v>301.4088129814674</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="1">
-        <v>15.21185185185185</v>
+        <v>7.578490566037736</v>
       </c>
       <c r="B153">
         <v>274</v>
@@ -3896,21 +3896,21 @@
         <v>274</v>
       </c>
       <c r="D153">
-        <v>305.3203844983728</v>
+        <v>274.0056106291981</v>
       </c>
       <c r="E153">
-        <v>330.5685162693474</v>
+        <v>275.0519383835274</v>
       </c>
       <c r="F153">
-        <v>350.3575581568253</v>
+        <v>281.9698834643372</v>
       </c>
       <c r="G153">
-        <v>366.4426460447404</v>
+        <v>303.1248557365295</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="1">
-        <v>15.31259259259259</v>
+        <v>7.62867924528302</v>
       </c>
       <c r="B154">
         <v>274</v>
@@ -3919,21 +3919,21 @@
         <v>274</v>
       </c>
       <c r="D154">
-        <v>305.5243039336488</v>
+        <v>274.0066829748189</v>
       </c>
       <c r="E154">
-        <v>330.8742064173519</v>
+        <v>275.1554233572936</v>
       </c>
       <c r="F154">
-        <v>350.7126937995354</v>
+        <v>282.5426304534772</v>
       </c>
       <c r="G154">
-        <v>366.8203979655757</v>
+        <v>304.946541805921</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="1">
-        <v>15.41333333333333</v>
+        <v>7.678867924528302</v>
       </c>
       <c r="B155">
         <v>274</v>
@@ -3942,21 +3942,21 @@
         <v>274</v>
       </c>
       <c r="D155">
-        <v>305.7284674124073</v>
+        <v>274.0079493670607</v>
       </c>
       <c r="E155">
-        <v>331.1800820856188</v>
+        <v>275.2683123528966</v>
       </c>
       <c r="F155">
-        <v>351.0679780250107</v>
+        <v>283.1538437001812</v>
       </c>
       <c r="G155">
-        <v>367.1982719667196</v>
+        <v>306.8805794133283</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="1">
-        <v>15.51407407407407</v>
+        <v>7.729056603773586</v>
       </c>
       <c r="B156">
         <v>274</v>
@@ -3965,21 +3965,21 @@
         <v>274</v>
       </c>
       <c r="D156">
-        <v>305.9328761358207</v>
+        <v>274.0094427921678</v>
       </c>
       <c r="E156">
-        <v>331.4861438584351</v>
+        <v>275.3913833929186</v>
       </c>
       <c r="F156">
-        <v>351.4234111117933</v>
+        <v>283.8059553074052</v>
       </c>
       <c r="G156">
-        <v>367.5762681651891</v>
+        <v>308.9341512973856</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="1">
-        <v>15.61481481481481</v>
+        <v>7.779245283018868</v>
       </c>
       <c r="B157">
         <v>274</v>
@@ -3988,21 +3988,21 @@
         <v>274</v>
       </c>
       <c r="D157">
-        <v>306.1375313044396</v>
+        <v>274.0112014467306</v>
       </c>
       <c r="E157">
-        <v>331.7923923198169</v>
+        <v>275.5254719851417</v>
       </c>
       <c r="F157">
-        <v>351.7789933381771</v>
+        <v>284.5015469034464</v>
       </c>
       <c r="G157">
-        <v>367.9543866778487</v>
+        <v>311.1149549211567</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="1">
-        <v>15.71555555555555</v>
+        <v>7.829433962264152</v>
       </c>
       <c r="B158">
         <v>274</v>
@@ -4011,21 +4011,21 @@
         <v>274</v>
       </c>
       <c r="D158">
-        <v>306.3424341184027</v>
+        <v>274.0132694904868</v>
       </c>
       <c r="E158">
-        <v>332.0988280534188</v>
+        <v>275.6714748371742</v>
       </c>
       <c r="F158">
-        <v>352.1347249822518</v>
+        <v>285.2433593497358</v>
       </c>
       <c r="G158">
-        <v>368.332627621372</v>
+        <v>313.4312468177387</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="1">
-        <v>15.81629629629629</v>
+        <v>7.879622641509434</v>
       </c>
       <c r="B159">
         <v>274</v>
@@ -4034,21 +4034,21 @@
         <v>274</v>
       </c>
       <c r="D159">
-        <v>306.5475857772164</v>
+        <v>274.0156978961406</v>
       </c>
       <c r="E159">
-        <v>332.4054516426187</v>
+        <v>275.8303537808756</v>
       </c>
       <c r="F159">
-        <v>352.4906063218573</v>
+        <v>286.0343031984924</v>
       </c>
       <c r="G159">
-        <v>368.710991112278</v>
+        <v>315.8918915686481</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="1">
-        <v>15.91703703703704</v>
+        <v>7.929811320754718</v>
       </c>
       <c r="B160">
         <v>274</v>
@@ -4057,21 +4057,21 @@
         <v>274</v>
       </c>
       <c r="D160">
-        <v>306.7529874799633</v>
+        <v>274.0185454068549</v>
       </c>
       <c r="E160">
-        <v>332.712263670427</v>
+        <v>276.0031399184068</v>
       </c>
       <c r="F160">
-        <v>352.846637634625</v>
+        <v>286.8774699725531</v>
       </c>
       <c r="G160">
-        <v>369.0894772668931</v>
+        <v>318.5064159783796</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="1">
-        <v>16.01777777777778</v>
+        <v>7.98</v>
       </c>
       <c r="B161">
         <v>274</v>
@@ -4080,21 +4080,21 @@
         <v>274</v>
       </c>
       <c r="D161">
-        <v>306.9586404250833</v>
+        <v>274.0218796129726</v>
       </c>
       <c r="E161">
-        <v>333.0192647195721</v>
+        <v>276.1909380027168</v>
       </c>
       <c r="F161">
-        <v>353.2028191979341</v>
+        <v>287.7761443478693</v>
       </c>
       <c r="G161">
-        <v>369.4680862013877</v>
+        <v>321.285069084972</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="1">
-        <v>16.11851851851852</v>
+        <v>8.030188679245283</v>
       </c>
       <c r="B162">
         <v>274</v>
@@ -4103,21 +4103,21 @@
         <v>274</v>
       </c>
       <c r="D162">
-        <v>307.1645458105808</v>
+        <v>274.0257781604585</v>
       </c>
       <c r="E162">
-        <v>333.3264553724089</v>
+        <v>276.3949310664078</v>
       </c>
       <c r="F162">
-        <v>353.5591512889517</v>
+        <v>288.7338173283579</v>
       </c>
       <c r="G162">
-        <v>369.8468180317374</v>
+        <v>324.2388887340296</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="1">
-        <v>16.21925925925926</v>
+        <v>8.080377358490567</v>
       </c>
       <c r="B163">
         <v>274</v>
@@ -4126,21 +4126,21 @@
         <v>274</v>
       </c>
       <c r="D163">
-        <v>307.3707048338071</v>
+        <v>274.0303301045244</v>
       </c>
       <c r="E163">
-        <v>333.6338362110046</v>
+        <v>276.6163853141763</v>
       </c>
       <c r="F163">
-        <v>353.9156341845897</v>
+        <v>289.754200513148</v>
       </c>
       <c r="G163">
-        <v>370.2256728737598</v>
+        <v>327.3797755440985</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="1">
-        <v>16.32</v>
+        <v>8.13056603773585</v>
       </c>
       <c r="B164">
         <v>274</v>
@@ -4149,21 +4149,21 @@
         <v>274</v>
       </c>
       <c r="D164">
-        <v>307.5771186916659</v>
+        <v>274.0356374228963</v>
       </c>
       <c r="E164">
-        <v>333.9414078170472</v>
+        <v>276.8566552954721</v>
       </c>
       <c r="F164">
-        <v>354.272268161545</v>
+        <v>290.8412415679356</v>
       </c>
       <c r="G164">
-        <v>370.6046508430766</v>
+        <v>330.7205752064992</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="1">
-        <v>16.42074074074074</v>
+        <v>8.180754716981133</v>
       </c>
       <c r="B165">
         <v>274</v>
@@ -4172,21 +4172,21 @@
         <v>274</v>
       </c>
       <c r="D165">
-        <v>307.7837885803982</v>
+        <v>274.0418167042142</v>
       </c>
       <c r="E165">
-        <v>334.2491707719314</v>
+        <v>277.1171893756215</v>
       </c>
       <c r="F165">
-        <v>354.6290534962559</v>
+        <v>291.9991410253283</v>
       </c>
       <c r="G165">
-        <v>370.9837520551494</v>
+        <v>334.2751701948583</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="1">
-        <v>16.52148148148148</v>
+        <v>8.230943396226415</v>
       </c>
       <c r="B166">
         <v>274</v>
@@ -4195,21 +4195,21 @@
         <v>274</v>
       </c>
       <c r="D166">
-        <v>307.9907156957852</v>
+        <v>274.049001028086</v>
       </c>
       <c r="E166">
-        <v>334.5571256566672</v>
+        <v>277.3995355254975</v>
       </c>
       <c r="F166">
-        <v>354.9859904649426</v>
+        <v>293.2323705539362</v>
       </c>
       <c r="G166">
-        <v>371.362976625242</v>
+        <v>338.0585821112338</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="1">
-        <v>16.62222222222222</v>
+        <v>8.281132075471699</v>
       </c>
       <c r="B167">
         <v>274</v>
@@ -4218,21 +4218,21 @@
         <v>274</v>
       </c>
       <c r="D167">
-        <v>308.1979012329354</v>
+        <v>274.0573420543757</v>
       </c>
       <c r="E167">
-        <v>334.8652730519652</v>
+        <v>277.7053474518776</v>
       </c>
       <c r="F167">
-        <v>355.343079343564</v>
+        <v>294.5456928527919</v>
       </c>
       <c r="G167">
-        <v>371.7423246684566</v>
+        <v>342.0870860699748</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="1">
-        <v>16.72296296296296</v>
+        <v>8.331320754716982</v>
       </c>
       <c r="B168">
         <v>274</v>
@@ -4241,21 +4241,21 @@
         <v>274</v>
       </c>
       <c r="D168">
-        <v>308.4053463864855</v>
+        <v>274.067012340359</v>
       </c>
       <c r="E168">
-        <v>335.173613538146</v>
+        <v>278.0363910929607</v>
       </c>
       <c r="F168">
-        <v>355.7003204078572</v>
+        <v>295.9441833467295</v>
       </c>
       <c r="G168">
-        <v>372.1217962996958</v>
+        <v>346.3783387211454</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="1">
-        <v>16.8237037037037</v>
+        <v>8.381509433962265</v>
       </c>
       <c r="B169">
         <v>274</v>
@@ -4264,21 +4264,21 @@
         <v>274</v>
       </c>
       <c r="D169">
-        <v>308.6130523503899</v>
+        <v>274.0782079054207</v>
       </c>
       <c r="E169">
-        <v>335.4821476952252</v>
+        <v>278.3945515061433</v>
       </c>
       <c r="F169">
-        <v>356.0577139332958</v>
+        <v>297.4332538799484</v>
       </c>
       <c r="G169">
-        <v>372.5013916336989</v>
+        <v>350.9515217474427</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="1">
-        <v>16.92444444444444</v>
+        <v>8.431698113207547</v>
       </c>
       <c r="B170">
         <v>274</v>
@@ -4287,21 +4287,21 @@
         <v>274</v>
       </c>
       <c r="D170">
-        <v>308.8210203181194</v>
+        <v>274.0911510640012</v>
       </c>
       <c r="E170">
-        <v>335.7908761028228</v>
+        <v>278.78184017812</v>
       </c>
       <c r="F170">
-        <v>356.4152601951274</v>
+        <v>299.0186786294919</v>
       </c>
       <c r="G170">
-        <v>372.8811107850036</v>
+        <v>355.8275029386533</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="1">
-        <v>17.02518518518518</v>
+        <v>8.481886792452832</v>
       </c>
       <c r="B171">
         <v>274</v>
@@ -4310,21 +4310,21 @@
         <v>274</v>
       </c>
       <c r="D171">
-        <v>309.0292514824523</v>
+        <v>274.1060935485006</v>
       </c>
       <c r="E171">
-        <v>336.0997993402477</v>
+        <v>279.2004027907181</v>
       </c>
       <c r="F171">
-        <v>356.7729594683339</v>
+        <v>300.7066224882141</v>
       </c>
       <c r="G171">
-        <v>373.2609538679829</v>
+        <v>361.029017264528</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="1">
-        <v>17.12592592592592</v>
+        <v>8.532075471698114</v>
       </c>
       <c r="B172">
         <v>274</v>
@@ -4333,21 +4333,21 @@
         <v>274</v>
       </c>
       <c r="D172">
-        <v>309.2377470356719</v>
+        <v>274.1233199448121</v>
       </c>
       <c r="E172">
-        <v>336.4089179864085</v>
+        <v>279.6525274796481</v>
       </c>
       <c r="F172">
-        <v>357.1308120276681</v>
+        <v>302.5036721984785</v>
       </c>
       <c r="G172">
-        <v>373.6409209968065</v>
+        <v>366.580870741611</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="1">
-        <v>17.22666666666666</v>
+        <v>8.582264150943397</v>
       </c>
       <c r="B173">
         <v>274</v>
@@ -4356,21 +4356,21 @@
         <v>274</v>
       </c>
       <c r="D173">
-        <v>309.446508169359</v>
+        <v>274.1431514640691</v>
       </c>
       <c r="E173">
-        <v>336.7182326198963</v>
+        <v>280.1406536276015</v>
       </c>
       <c r="F173">
-        <v>357.4888181476135</v>
+        <v>304.4168705538959</v>
       </c>
       <c r="G173">
-        <v>374.0210122854775</v>
+        <v>372.5101703347957</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="1">
-        <v>17.32740740740741</v>
+        <v>8.632452830188679</v>
       </c>
       <c r="B174">
         <v>274</v>
@@ -4379,21 +4379,21 @@
         <v>274</v>
       </c>
       <c r="D174">
-        <v>309.6555360745878</v>
+        <v>274.1659500750483</v>
       </c>
       <c r="E174">
-        <v>337.027743818897</v>
+        <v>280.6673812379219</v>
       </c>
       <c r="F174">
-        <v>357.8469781024222</v>
+        <v>306.4537540275142</v>
       </c>
       <c r="G174">
-        <v>374.4012278477938</v>
+        <v>378.8465836617911</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="1">
-        <v>17.42814814814815</v>
+        <v>8.682641509433964</v>
       </c>
       <c r="B175">
         <v>274</v>
@@ -4402,21 +4402,21 @@
         <v>274</v>
       </c>
       <c r="D175">
-        <v>309.8648319417203</v>
+        <v>274.1921230224544</v>
       </c>
       <c r="E175">
-        <v>337.3374521612728</v>
+        <v>281.2354809404726</v>
       </c>
       <c r="F175">
-        <v>358.2052921660735</v>
+        <v>308.6223942317797</v>
       </c>
       <c r="G175">
-        <v>374.7815677973855</v>
+        <v>385.6226328818015</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="1">
-        <v>17.52888888888889</v>
+        <v>8.732830188679246</v>
       </c>
       <c r="B176">
         <v>274</v>
@@ -4425,21 +4425,21 @@
         <v>274</v>
       </c>
       <c r="D176">
-        <v>310.0743969606001</v>
+        <v>274.2221277570171</v>
       </c>
       <c r="E176">
-        <v>337.647358224476</v>
+        <v>281.8479046874141</v>
       </c>
       <c r="F176">
-        <v>358.563760612312</v>
+        <v>310.9314436691613</v>
       </c>
       <c r="G176">
-        <v>375.1620322476757</v>
+        <v>392.8740278306465</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="1">
-        <v>17.62962962962963</v>
+        <v>8.783018867924529</v>
       </c>
       <c r="B177">
         <v>274</v>
@@ -4448,21 +4448,21 @@
         <v>274</v>
       </c>
       <c r="D177">
-        <v>310.2842323203494</v>
+        <v>274.2564773039501</v>
       </c>
       <c r="E177">
-        <v>337.9574625856289</v>
+        <v>282.5077972034642</v>
       </c>
       <c r="F177">
-        <v>358.9223837146076</v>
+        <v>313.3901862935693</v>
       </c>
       <c r="G177">
-        <v>375.5426213119176</v>
+        <v>400.6400441522761</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="1">
-        <v>17.73037037037037</v>
+        <v>8.833207547169811</v>
       </c>
       <c r="B178">
         <v>274</v>
@@ -4471,21 +4471,21 @@
         <v>274</v>
       </c>
       <c r="D178">
-        <v>310.4943392095596</v>
+        <v>274.2957460968502</v>
       </c>
       <c r="E178">
-        <v>338.2677658214389</v>
+        <v>283.2185082629496</v>
       </c>
       <c r="F178">
-        <v>359.2811617461912</v>
+        <v>316.0085934727722</v>
       </c>
       <c r="G178">
-        <v>375.9233351031561</v>
+        <v>408.9639527391183</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="1">
-        <v>17.83111111111111</v>
+        <v>8.883396226415096</v>
       </c>
       <c r="B179">
         <v>274</v>
@@ -4494,21 +4494,21 @@
         <v>274</v>
       </c>
       <c r="D179">
-        <v>310.7047188160922</v>
+        <v>274.3405763045395</v>
       </c>
       <c r="E179">
-        <v>338.5782685082777</v>
+        <v>283.9836058746803</v>
       </c>
       <c r="F179">
-        <v>359.6400949800169</v>
+        <v>318.797386022266</v>
       </c>
       <c r="G179">
-        <v>376.3041737342644</v>
+        <v>417.8935070065098</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="1">
-        <v>17.93185185185185</v>
+        <v>8.933584905660378</v>
       </c>
       <c r="B180">
         <v>274</v>
@@ -4517,21 +4517,21 @@
         <v>274</v>
       </c>
       <c r="D180">
-        <v>310.9153723272652</v>
+        <v>274.3916846786957</v>
       </c>
       <c r="E180">
-        <v>338.8889712220969</v>
+        <v>284.8068904655212</v>
       </c>
       <c r="F180">
-        <v>359.9991836887965</v>
+        <v>321.768103073046</v>
       </c>
       <c r="G180">
-        <v>376.6851373179056</v>
+        <v>427.4814940956627</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="1">
-        <v>18.03259259259259</v>
+        <v>8.983773584905661</v>
       </c>
       <c r="B181">
         <v>274</v>
@@ -4540,21 +4540,21 @@
         <v>274</v>
       </c>
       <c r="D181">
-        <v>311.1263009296582</v>
+        <v>274.4498699503523</v>
       </c>
       <c r="E181">
-        <v>339.1998745385065</v>
+        <v>285.6924101646418</v>
       </c>
       <c r="F181">
-        <v>360.358428144962</v>
+        <v>324.9331786413381</v>
       </c>
       <c r="G181">
-        <v>377.0662259665697</v>
+        <v>437.7863548119071</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="1">
-        <v>18.13333333333333</v>
+        <v>9.033962264150944</v>
       </c>
       <c r="B182">
         <v>274</v>
@@ -4563,21 +4563,21 @@
         <v>274</v>
       </c>
       <c r="D182">
-        <v>311.3375058092954</v>
+        <v>274.5160208035193</v>
       </c>
       <c r="E182">
-        <v>339.5109790326914</v>
+        <v>286.6444773029684</v>
       </c>
       <c r="F182">
-        <v>360.7178286207001</v>
+        <v>328.3060268897174</v>
       </c>
       <c r="G182">
-        <v>377.447439792535</v>
+        <v>448.8728752545258</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="1">
-        <v>18.23407407407407</v>
+        <v>9.084150943396228</v>
       </c>
       <c r="B183">
         <v>274</v>
@@ -4586,21 +4586,21 @@
         <v>274</v>
       </c>
       <c r="D183">
-        <v>311.5489881514528</v>
+        <v>274.5911244542682</v>
       </c>
       <c r="E183">
-        <v>339.822285279489</v>
+        <v>287.6676862565421</v>
       </c>
       <c r="F183">
-        <v>361.077385387915</v>
+        <v>331.901137208802</v>
       </c>
       <c r="G183">
-        <v>377.8287789079044</v>
+        <v>460.8129523962134</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="1">
-        <v>18.33481481481481</v>
+        <v>9.134339622641511</v>
       </c>
       <c r="B184">
         <v>274</v>
@@ -4609,21 +4609,21 @@
         <v>274</v>
       </c>
       <c r="D184">
-        <v>311.76074914084</v>
+        <v>274.6762758636805</v>
       </c>
       <c r="E184">
-        <v>340.1337938533068</v>
+        <v>288.7669327785117</v>
       </c>
       <c r="F184">
-        <v>361.4370987182624</v>
+        <v>335.7341804098963</v>
       </c>
       <c r="G184">
-        <v>378.2102434245683</v>
+        <v>473.6864410153525</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="1">
-        <v>18.43555555555555</v>
+        <v>9.184528301886793</v>
       </c>
       <c r="B185">
         <v>274</v>
@@ -4632,21 +4632,21 @@
         <v>274</v>
       </c>
       <c r="D185">
-        <v>311.9727899614093</v>
+        <v>274.7726876131023</v>
       </c>
       <c r="E185">
-        <v>340.4455053281988</v>
+        <v>289.9474349826352</v>
       </c>
       <c r="F185">
-        <v>361.7969688831128</v>
+        <v>339.8221275051705</v>
       </c>
       <c r="G185">
-        <v>378.5918334542394</v>
+        <v>487.5821099850193</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="1">
-        <v>18.53629629629629</v>
+        <v>9.234716981132076</v>
       </c>
       <c r="B186">
         <v>274</v>
@@ -4655,21 +4655,21 @@
         <v>274</v>
       </c>
       <c r="D186">
-        <v>312.1851117965344</v>
+        <v>274.8817004702112</v>
       </c>
       <c r="E186">
-        <v>340.7574202777843</v>
+        <v>291.2147561617158</v>
       </c>
       <c r="F186">
-        <v>362.1569961535848</v>
+        <v>344.1833827672082</v>
       </c>
       <c r="G186">
-        <v>378.9735491084167</v>
+        <v>502.5987873925887</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="1">
-        <v>18.63703703703704</v>
+        <v>9.28490566037736</v>
       </c>
       <c r="B187">
         <v>274</v>
@@ -4678,21 +4678,21 @@
         <v>274</v>
       </c>
       <c r="D187">
-        <v>312.397715828823</v>
+        <v>275.0047946745512</v>
       </c>
       <c r="E187">
-        <v>341.069539275323</v>
+        <v>292.5748296476867</v>
       </c>
       <c r="F187">
-        <v>362.5171808005093</v>
+        <v>348.8379330083073</v>
       </c>
       <c r="G187">
-        <v>379.3553904984195</v>
+        <v>518.8468734709191</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="1">
-        <v>18.73777777777778</v>
+        <v>9.335094339622643</v>
       </c>
       <c r="B188">
         <v>274</v>
@@ -4701,21 +4701,21 @@
         <v>274</v>
       </c>
       <c r="D188">
-        <v>312.6106032402929</v>
+        <v>275.1436019714699</v>
       </c>
       <c r="E188">
-        <v>341.3818628936355</v>
+        <v>294.033985946507</v>
       </c>
       <c r="F188">
-        <v>362.8775230944625</v>
+        <v>353.807515305642</v>
       </c>
       <c r="G188">
-        <v>379.7373577353521</v>
+        <v>536.4505506306394</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="1">
-        <v>18.83851851851852</v>
+        <v>9.385283018867925</v>
       </c>
       <c r="B189">
         <v>274</v>
@@ -4724,21 +4724,21 @@
         <v>274</v>
       </c>
       <c r="D189">
-        <v>312.8237752121863</v>
+        <v>275.2999184238827</v>
       </c>
       <c r="E189">
-        <v>341.6943917051763</v>
+        <v>295.598982411053</v>
       </c>
       <c r="F189">
-        <v>363.2380233057295</v>
+        <v>359.115805723919</v>
       </c>
       <c r="G189">
-        <v>380.1194509301373</v>
+        <v>555.5511723720876</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="1">
-        <v>18.93925925925926</v>
+        <v>9.435471698113208</v>
       </c>
       <c r="B190">
         <v>274</v>
@@ -4747,21 +4747,21 @@
         <v>274</v>
       </c>
       <c r="D190">
-        <v>313.0372329251444</v>
+        <v>275.4757180320775</v>
       </c>
       <c r="E190">
-        <v>342.0071262819564</v>
+        <v>297.2770357493367</v>
       </c>
       <c r="F190">
-        <v>363.5986817043382</v>
+        <v>364.7886319522864</v>
       </c>
       <c r="G190">
-        <v>380.5016701934812</v>
+        <v>576.3123083972554</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="1">
-        <v>19.04</v>
+        <v>9.485660377358492</v>
       </c>
       <c r="B191">
         <v>274</v>
@@ -4770,21 +4770,21 @@
         <v>274</v>
       </c>
       <c r="D191">
-        <v>313.2509775590236</v>
+        <v>275.6731671929508</v>
       </c>
       <c r="E191">
-        <v>342.3200671956151</v>
+        <v>299.075857704254</v>
       </c>
       <c r="F191">
-        <v>363.9594985600224</v>
+        <v>370.8542131725956</v>
       </c>
       <c r="G191">
-        <v>380.884015635907</v>
+        <v>598.9264370127491</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="1">
-        <v>19.14074074074074</v>
+        <v>9.535849056603775</v>
       </c>
       <c r="B192">
         <v>274</v>
@@ -4793,21 +4793,21 @@
         <v>274</v>
       </c>
       <c r="D192">
-        <v>313.4650102930678</v>
+        <v>275.8946400317616</v>
       </c>
       <c r="E192">
-        <v>342.6332150173429</v>
+        <v>301.0036942853433</v>
       </c>
       <c r="F192">
-        <v>364.3204741422556</v>
+        <v>377.3434309025639</v>
       </c>
       <c r="G192">
-        <v>381.2664873677195</v>
+        <v>623.621844765994</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="1">
-        <v>19.24148148148148</v>
+        <v>9.586037735849057</v>
       </c>
       <c r="B193">
         <v>274</v>
@@ -4816,21 +4816,21 @@
         <v>274</v>
       </c>
       <c r="D193">
-        <v>313.6793323057278</v>
+        <v>276.1427346418154</v>
       </c>
       <c r="E193">
-        <v>342.9465703179528</v>
+        <v>303.0693689835642</v>
       </c>
       <c r="F193">
-        <v>364.6816087202149</v>
+        <v>384.2901349993974</v>
       </c>
       <c r="G193">
-        <v>381.6490854990388</v>
+        <v>650.6655560904495</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="1">
-        <v>19.34222222222222</v>
+        <v>9.63622641509434</v>
       </c>
       <c r="B194">
         <v>274</v>
@@ -4839,21 +4839,21 @@
         <v>274</v>
       </c>
       <c r="D194">
-        <v>313.8939447748299</v>
+        <v>276.4202902706165</v>
       </c>
       <c r="E194">
-        <v>343.2601336678049</v>
+        <v>305.2823304577925</v>
       </c>
       <c r="F194">
-        <v>365.0429025628134</v>
+        <v>391.7314894668516</v>
       </c>
       <c r="G194">
-        <v>382.0318101397655</v>
+        <v>680.3543626799097</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="1">
-        <v>19.44296296296296</v>
+        <v>9.686415094339623</v>
       </c>
       <c r="B195">
         <v>274</v>
@@ -4862,21 +4862,21 @@
         <v>274</v>
       </c>
       <c r="D195">
-        <v>314.1088488773984</v>
+        <v>276.7304054950954</v>
       </c>
       <c r="E195">
-        <v>343.5739056368751</v>
+        <v>307.6527052476824</v>
       </c>
       <c r="F195">
-        <v>365.4043559386656</v>
+        <v>399.7083632197759</v>
       </c>
       <c r="G195">
-        <v>382.4146613996133</v>
+        <v>712.9829044329998</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="1">
-        <v>19.5437037037037</v>
+        <v>9.736603773584907</v>
       </c>
       <c r="B196">
         <v>274</v>
@@ -4885,21 +4885,21 @@
         <v>274</v>
       </c>
       <c r="D196">
-        <v>314.3240457898221</v>
+        <v>277.0764574337286</v>
       </c>
       <c r="E196">
-        <v>343.8878867946825</v>
+        <v>310.1913561430229</v>
       </c>
       <c r="F196">
-        <v>365.765969116119</v>
+        <v>408.2657716546435</v>
       </c>
       <c r="G196">
-        <v>382.7976393880753</v>
+        <v>748.7785450167961</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="1">
-        <v>19.64444444444444</v>
+        <v>9.78679245283019</v>
       </c>
       <c r="B197">
         <v>274</v>
@@ -4908,21 +4908,21 @@
         <v>274</v>
       </c>
       <c r="D197">
-        <v>314.539536687679</v>
+        <v>277.462122049918</v>
       </c>
       <c r="E197">
-        <v>344.2020777103555</v>
+        <v>312.909946926151</v>
       </c>
       <c r="F197">
-        <v>366.1277423632196</v>
+        <v>417.4533760568132</v>
       </c>
       <c r="G197">
-        <v>383.1807442144557</v>
+        <v>787.8012672883455</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="1">
-        <v>19.74518518518518</v>
+        <v>9.836981132075472</v>
       </c>
       <c r="B198">
         <v>274</v>
@@ -4931,21 +4931,21 @@
         <v>274</v>
       </c>
       <c r="D198">
-        <v>314.7553227458999</v>
+        <v>277.8913956091045</v>
       </c>
       <c r="E198">
-        <v>344.5164789525614</v>
+        <v>315.8210143030459</v>
       </c>
       <c r="F198">
-        <v>366.4896759477433</v>
+        <v>427.32605012509</v>
       </c>
       <c r="G198">
-        <v>383.563975987837</v>
+        <v>829.8243717384445</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="1">
-        <v>19.84592592592592</v>
+        <v>9.887169811320755</v>
       </c>
       <c r="B199">
         <v>274</v>
@@ -4954,21 +4954,21 @@
         <v>274</v>
       </c>
       <c r="D199">
-        <v>314.9714051385968</v>
+        <v>278.368617362012</v>
       </c>
       <c r="E199">
-        <v>344.8310910895714</v>
+        <v>318.9380479522561</v>
       </c>
       <c r="F199">
-        <v>366.8517701371622</v>
+        <v>437.9445271288746</v>
       </c>
       <c r="G199">
-        <v>383.9473348171107</v>
+        <v>874.2339131688702</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="1">
-        <v>19.94666666666667</v>
+        <v>9.937358490566039</v>
       </c>
       <c r="B200">
         <v>274</v>
@@ -4977,21 +4977,21 @@
         <v>274</v>
       </c>
       <c r="D200">
-        <v>315.1877850392223</v>
+        <v>278.8984935384043</v>
       </c>
       <c r="E200">
-        <v>345.1459146891902</v>
+        <v>322.2755797508977</v>
       </c>
       <c r="F200">
-        <v>367.214025198675</v>
+        <v>449.3761485734416</v>
       </c>
       <c r="G200">
-        <v>384.3308208109458</v>
+        <v>920</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="1">
-        <v>20.04740740740741</v>
+        <v>9.987547169811322</v>
       </c>
       <c r="B201">
         <v>274</v>
@@ -5000,21 +5000,18 @@
         <v>274</v>
       </c>
       <c r="D201">
-        <v>315.4044636204023</v>
+        <v>279.4861227500963</v>
       </c>
       <c r="E201">
-        <v>345.4609503188208</v>
+        <v>325.8492833858539</v>
       </c>
       <c r="F201">
-        <v>367.5764413991743</v>
-      </c>
-      <c r="G201">
-        <v>384.7144340778176</v>
+        <v>461.6957465458643</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="1">
-        <v>20.14814814814815</v>
+        <v>10.0377358490566</v>
       </c>
       <c r="B202">
         <v>274</v>
@@ -5023,21 +5020,18 @@
         <v>274</v>
       </c>
       <c r="D202">
-        <v>315.6214420540917</v>
+        <v>280.1370229190005</v>
       </c>
       <c r="E202">
-        <v>345.7761985453958</v>
+        <v>329.6760857284651</v>
       </c>
       <c r="F202">
-        <v>367.9390190052759</v>
-      </c>
-      <c r="G202">
-        <v>385.0981747259784</v>
+        <v>474.9867062482768</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="1">
-        <v>20.24888888888889</v>
+        <v>10.08792452830189</v>
       </c>
       <c r="B203">
         <v>274</v>
@@ -5046,21 +5040,18 @@
         <v>274</v>
       </c>
       <c r="D203">
-        <v>315.8387215114106</v>
+        <v>280.8571598660612</v>
       </c>
       <c r="E203">
-        <v>346.0916599354392</v>
+        <v>333.7742915450933</v>
       </c>
       <c r="F203">
-        <v>368.301758283287</v>
-      </c>
-      <c r="G203">
-        <v>385.4820428634847</v>
+        <v>489.3422673631619</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="1">
-        <v>20.34962962962963</v>
+        <v>10.13811320754717</v>
       </c>
       <c r="B204">
         <v>274</v>
@@ -5069,21 +5060,18 @@
         <v>274</v>
       </c>
       <c r="D204">
-        <v>316.0563031627961</v>
+        <v>281.6529777204206</v>
       </c>
       <c r="E204">
-        <v>346.4073350550013</v>
+        <v>338.1637233369918</v>
       </c>
       <c r="F204">
-        <v>368.6646594992351</v>
-      </c>
-      <c r="G204">
-        <v>385.8660385981686</v>
+        <v>504.8671193056158</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="1">
-        <v>20.45037037037037</v>
+        <v>10.18830188679245</v>
       </c>
       <c r="B205">
         <v>274</v>
@@ -5092,21 +5080,18 @@
         <v>274</v>
       </c>
       <c r="D205">
-        <v>316.2741881778426</v>
+        <v>282.5314313354783</v>
       </c>
       <c r="E205">
-        <v>346.7232244697171</v>
+        <v>342.8658783546419</v>
       </c>
       <c r="F205">
-        <v>369.0277229188368</v>
-      </c>
-      <c r="G205">
-        <v>386.2501620376649</v>
+        <v>521.6792998341767</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="1">
-        <v>20.55111111111111</v>
+        <v>10.23849056603774</v>
       </c>
       <c r="B206">
         <v>274</v>
@@ -5115,21 +5100,18 @@
         <v>274</v>
       </c>
       <c r="D206">
-        <v>316.4923777254501</v>
+        <v>283.5000209301292</v>
       </c>
       <c r="E206">
-        <v>347.0393287447436</v>
+        <v>347.9041051194067</v>
       </c>
       <c r="F206">
-        <v>369.3909488075253</v>
-      </c>
-      <c r="G206">
-        <v>386.6344132893825</v>
+        <v>539.9122777436924</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="1">
-        <v>20.65185185185185</v>
+        <v>10.28867924528302</v>
       </c>
       <c r="B207">
         <v>274</v>
@@ -5138,21 +5120,18 @@
         <v>274</v>
       </c>
       <c r="D207">
-        <v>316.7108729736677</v>
+        <v>284.5668292099015</v>
       </c>
       <c r="E207">
-        <v>347.355648444817</v>
+        <v>353.303802117217</v>
       </c>
       <c r="F207">
-        <v>369.7543374304211</v>
-      </c>
-      <c r="G207">
-        <v>387.018792460531</v>
+        <v>559.7168377017648</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="1">
-        <v>20.75259259259259</v>
+        <v>10.3388679245283</v>
       </c>
       <c r="B208">
         <v>274</v>
@@ -5161,21 +5140,18 @@
         <v>274</v>
       </c>
       <c r="D208">
-        <v>316.9296750898385</v>
+        <v>285.7405612645289</v>
       </c>
       <c r="E208">
-        <v>347.6721841341908</v>
+        <v>359.0926417186197</v>
       </c>
       <c r="F208">
-        <v>370.1178890523578</v>
-      </c>
-      <c r="G208">
-        <v>387.4032996580933</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7">
+        <v>581.2619481581215</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
       <c r="A209" s="1">
-        <v>20.85333333333333</v>
+        <v>10.38905660377359</v>
       </c>
       <c r="B209">
         <v>274</v>
@@ -5184,21 +5160,18 @@
         <v>274</v>
       </c>
       <c r="D209">
-        <v>317.1487852404471</v>
+        <v>287.0305875863509</v>
       </c>
       <c r="E209">
-        <v>347.9889363766922</v>
+        <v>365.3008228488907</v>
       </c>
       <c r="F209">
-        <v>370.4816039378539</v>
-      </c>
-      <c r="G209">
-        <v>387.7879349888509</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7">
+        <v>604.733190436904</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
       <c r="A210" s="1">
-        <v>20.95407407407407</v>
+        <v>10.43924528301887</v>
       </c>
       <c r="B210">
         <v>274</v>
@@ -5207,21 +5180,18 @@
         <v>274</v>
       </c>
       <c r="D210">
-        <v>317.3682045912599</v>
+        <v>288.4469906085398</v>
       </c>
       <c r="E210">
-        <v>348.305905735661</v>
+        <v>371.9613565146856</v>
       </c>
       <c r="F210">
-        <v>370.8454823511382</v>
-      </c>
-      <c r="G210">
-        <v>388.1726985593574</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7">
+        <v>630.3266708339045</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
       <c r="A211" s="1">
-        <v>21.05481481481481</v>
+        <v>10.48943396226415</v>
       </c>
       <c r="B211">
         <v>274</v>
@@ -5230,21 +5200,18 @@
         <v>274</v>
       </c>
       <c r="D211">
-        <v>317.5879343071776</v>
+        <v>290.0006152243466</v>
       </c>
       <c r="E211">
-        <v>348.623092774005</v>
+        <v>379.1103890360027</v>
       </c>
       <c r="F211">
-        <v>371.2095245561218</v>
-      </c>
-      <c r="G211">
-        <v>388.5575904759634</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7">
+        <v>658.2358901557914</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
       <c r="A212" s="1">
-        <v>21.15555555555555</v>
+        <v>10.53962264150944</v>
       </c>
       <c r="B212">
         <v>274</v>
@@ -5253,21 +5220,18 @@
         <v>274</v>
       </c>
       <c r="D212">
-        <v>317.8079755523709</v>
+        <v>291.7031238192857</v>
       </c>
       <c r="E212">
-        <v>348.9404980541406</v>
+        <v>386.7875687861741</v>
       </c>
       <c r="F212">
-        <v>371.5737308164229</v>
-      </c>
-      <c r="G212">
-        <v>388.9426108447902</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7">
+        <v>688.6292159270724</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
       <c r="A213" s="1">
-        <v>21.25629629629629</v>
+        <v>10.58981132075472</v>
       </c>
       <c r="B213">
         <v>274</v>
@@ -5276,21 +5240,18 @@
         <v>274</v>
       </c>
       <c r="D213">
-        <v>318.028329490137</v>
+        <v>293.5670564285287</v>
       </c>
       <c r="E213">
-        <v>349.2581221380456</v>
+        <v>395.0364634430977</v>
       </c>
       <c r="F213">
-        <v>371.9381013953399</v>
-      </c>
-      <c r="G213">
-        <v>389.3277597717542</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7">
+        <v>721.6168457501832</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
       <c r="A214" s="1">
-        <v>21.35703703703703</v>
+        <v>10.64</v>
       </c>
       <c r="B214">
         <v>274</v>
@@ -5299,21 +5260,18 @@
         <v>274</v>
       </c>
       <c r="D214">
-        <v>318.2489972830314</v>
+        <v>295.6058967230204</v>
       </c>
       <c r="E214">
-        <v>349.5759655872029</v>
+        <v>403.9050361648307</v>
       </c>
       <c r="F214">
-        <v>372.3026365558749</v>
-      </c>
-      <c r="G214">
-        <v>389.7130373625416</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7">
+        <v>757.2087459867312</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
       <c r="A215" s="1">
-        <v>21.45777777777777</v>
+        <v>10.69018867924528</v>
       </c>
       <c r="B215">
         <v>274</v>
@@ -5322,21 +5280,18 @@
         <v>274</v>
       </c>
       <c r="D215">
-        <v>318.469980092729</v>
+        <v>297.8341446314418</v>
       </c>
       <c r="E215">
-        <v>349.8940289626509</v>
+        <v>413.4461905064233</v>
       </c>
       <c r="F215">
-        <v>372.6673365607079</v>
-      </c>
-      <c r="G215">
-        <v>390.0984437226314</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7">
+        <v>795.2688218863243</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
       <c r="A216" s="1">
-        <v>21.55851851851851</v>
+        <v>10.74037735849057</v>
       </c>
       <c r="B216">
         <v>274</v>
@@ -5345,21 +5300,18 @@
         <v>274</v>
       </c>
       <c r="D216">
-        <v>318.6912790801506</v>
+        <v>300.2673965228414</v>
       </c>
       <c r="E216">
-        <v>350.2123128249285</v>
+        <v>423.7183947214409</v>
       </c>
       <c r="F216">
-        <v>373.0322016722201</v>
-      </c>
-      <c r="G216">
-        <v>390.4839789572717</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7">
+        <v>835.4746903915989</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
       <c r="A217" s="1">
-        <v>21.65925925925926</v>
+        <v>10.79056603773585</v>
       </c>
       <c r="B217">
         <v>274</v>
@@ -5368,21 +5320,18 @@
         <v>274</v>
       </c>
       <c r="D217">
-        <v>318.9128954053297</v>
+        <v>302.9224340085205</v>
       </c>
       <c r="E217">
-        <v>350.5308177341244</v>
+        <v>434.7863951675172</v>
       </c>
       <c r="F217">
-        <v>373.3972321524674</v>
-      </c>
-      <c r="G217">
-        <v>390.8696431715016</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7">
+        <v>877.2954431274738</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
       <c r="A218" s="1">
-        <v>21.76</v>
+        <v>10.84075471698113</v>
       </c>
       <c r="B218">
         <v>274</v>
@@ -5391,21 +5340,18 @@
         <v>274</v>
       </c>
       <c r="D218">
-        <v>319.1348302275337</v>
+        <v>305.8173225738252</v>
       </c>
       <c r="E218">
-        <v>350.8495442498238</v>
+        <v>446.7220238387324</v>
       </c>
       <c r="F218">
-        <v>373.7624282632045</v>
-      </c>
-      <c r="G218">
-        <v>391.2554364701278</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
       <c r="A219" s="1">
-        <v>21.86074074074074</v>
+        <v>10.89094339622642</v>
       </c>
       <c r="B219">
         <v>274</v>
@@ -5414,21 +5360,15 @@
         <v>274</v>
       </c>
       <c r="D219">
-        <v>319.3570847051352</v>
+        <v>308.9715214233043</v>
       </c>
       <c r="E219">
-        <v>351.1684929311559</v>
-      </c>
-      <c r="F219">
-        <v>374.127790265858</v>
-      </c>
-      <c r="G219">
-        <v>391.6413589577464</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7">
+        <v>459.6050937247738</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
       <c r="A220" s="1">
-        <v>21.96148148148148</v>
+        <v>10.9411320754717</v>
       </c>
       <c r="B220">
         <v>274</v>
@@ -5437,21 +5377,15 @@
         <v>274</v>
       </c>
       <c r="D220">
-        <v>319.5796599957292</v>
+        <v>312.406006118728</v>
       </c>
       <c r="E220">
-        <v>351.487664336742</v>
-      </c>
-      <c r="F220">
-        <v>374.4933184215506</v>
-      </c>
-      <c r="G220">
-        <v>392.02741073872</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7">
+        <v>473.5243550571568</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
       <c r="A221" s="1">
-        <v>22.06222222222222</v>
+        <v>10.99132075471698</v>
       </c>
       <c r="B221">
         <v>274</v>
@@ -5460,21 +5394,15 @@
         <v>274</v>
       </c>
       <c r="D221">
-        <v>319.8025572560085</v>
+        <v>316.1434058109285</v>
       </c>
       <c r="E221">
-        <v>351.8070590247418</v>
-      </c>
-      <c r="F221">
-        <v>374.8590129910745</v>
-      </c>
-      <c r="G221">
-        <v>392.4135919171984</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7">
+        <v>488.5784566803728</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
       <c r="A222" s="1">
-        <v>22.16296296296296</v>
+        <v>11.04150943396226</v>
       </c>
       <c r="B222">
         <v>274</v>
@@ -5483,21 +5411,15 @@
         <v>274</v>
       </c>
       <c r="D222">
-        <v>320.025777641877</v>
+        <v>320.2081571148411</v>
       </c>
       <c r="E222">
-        <v>352.1266775528028</v>
-      </c>
-      <c r="F222">
-        <v>375.2248742349146</v>
-      </c>
-      <c r="G222">
-        <v>392.7999025970975</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7">
+        <v>504.8768344426829</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
       <c r="A223" s="1">
-        <v>22.2637037037037</v>
+        <v>11.09169811320755</v>
       </c>
       <c r="B223">
         <v>274</v>
@@ -5506,21 +5428,15 @@
         <v>274</v>
       </c>
       <c r="D223">
-        <v>320.2493223083287</v>
+        <v>324.6266769525744</v>
       </c>
       <c r="E223">
-        <v>352.4465204781053</v>
-      </c>
-      <c r="F223">
-        <v>375.5909024132237</v>
-      </c>
-      <c r="G223">
-        <v>393.186342882118</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7">
+        <v>522.5404816391772</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
       <c r="A224" s="1">
-        <v>22.36444444444444</v>
+        <v>11.14188679245283</v>
       </c>
       <c r="B224">
         <v>274</v>
@@ -5529,21 +5445,15 @@
         <v>274</v>
       </c>
       <c r="D224">
-        <v>320.4731924095572</v>
+        <v>329.4275569899615</v>
       </c>
       <c r="E224">
-        <v>352.7665883573135</v>
-      </c>
-      <c r="F224">
-        <v>375.9570977858438</v>
-      </c>
-      <c r="G224">
-        <v>393.5729128757258</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7">
+        <v>541.702762770219</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
       <c r="A225" s="1">
-        <v>22.46518518518518</v>
+        <v>11.19207547169811</v>
       </c>
       <c r="B225">
         <v>274</v>
@@ -5552,21 +5462,15 @@
         <v>274</v>
       </c>
       <c r="D225">
-        <v>320.6973890988394</v>
+        <v>334.6417826136675</v>
       </c>
       <c r="E225">
-        <v>353.0868817466178</v>
-      </c>
-      <c r="F225">
-        <v>376.3234606122826</v>
-      </c>
-      <c r="G225">
-        <v>393.9596126811696</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7">
+        <v>562.5110267704512</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
       <c r="A226" s="1">
-        <v>22.56592592592592</v>
+        <v>11.2422641509434</v>
       </c>
       <c r="B226">
         <v>274</v>
@@ -5575,21 +5479,15 @@
         <v>274</v>
       </c>
       <c r="D226">
-        <v>320.9219135286396</v>
+        <v>340.3029797334156</v>
       </c>
       <c r="E226">
-        <v>353.4074012016895</v>
-      </c>
-      <c r="F226">
-        <v>376.6899911517338</v>
-      </c>
-      <c r="G226">
-        <v>394.3464424014627</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7">
+        <v>585.131014481835</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
       <c r="A227" s="1">
-        <v>22.66666666666666</v>
+        <v>11.29245283018868</v>
       </c>
       <c r="B227">
         <v>274</v>
@@ -5598,21 +5496,15 @@
         <v>274</v>
       </c>
       <c r="D227">
-        <v>321.1467668504988</v>
+        <v>346.4476930452959</v>
       </c>
       <c r="E227">
-        <v>353.7281472777195</v>
-      </c>
-      <c r="F227">
-        <v>377.0566896630551</v>
-      </c>
-      <c r="G227">
-        <v>394.7334021393988</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7">
+        <v>609.7578816918812</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
       <c r="A228" s="1">
-        <v>22.7674074074074</v>
+        <v>11.34264150943396</v>
       </c>
       <c r="B228">
         <v>274</v>
@@ -5621,21 +5513,15 @@
         <v>274</v>
       </c>
       <c r="D228">
-        <v>321.3719502151336</v>
+        <v>353.1156997688322</v>
       </c>
       <c r="E228">
-        <v>354.0491205293761</v>
-      </c>
-      <c r="F228">
-        <v>377.4235564047864</v>
-      </c>
-      <c r="G228">
-        <v>395.1204919975355</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7">
+        <v>636.6387900043858</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
       <c r="A229" s="1">
-        <v>22.86814814814814</v>
+        <v>11.39283018867925</v>
       </c>
       <c r="B229">
         <v>274</v>
@@ -5644,21 +5530,15 @@
         <v>274</v>
       </c>
       <c r="D229">
-        <v>321.5974647723301</v>
+        <v>360.3503633165071</v>
       </c>
       <c r="E229">
-        <v>354.3703215108412</v>
-      </c>
-      <c r="F229">
-        <v>377.79059163513</v>
-      </c>
-      <c r="G229">
-        <v>395.5077120782088</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7">
+        <v>666.1085915931113</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
       <c r="A230" s="1">
-        <v>22.96888888888889</v>
+        <v>11.44301886792453</v>
       </c>
       <c r="B230">
         <v>274</v>
@@ -5667,21 +5547,15 @@
         <v>274</v>
       </c>
       <c r="D230">
-        <v>321.8233116710386</v>
+        <v>368.1990319776889</v>
       </c>
       <c r="E230">
-        <v>354.6917507757701</v>
-      </c>
-      <c r="F230">
-        <v>378.157795611967</v>
-      </c>
-      <c r="G230">
-        <v>395.8950624835176</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7">
+        <v>698.6256574526516</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
       <c r="A231" s="1">
-        <v>23.06962962962963</v>
+        <v>11.49320754716981</v>
       </c>
       <c r="B231">
         <v>274</v>
@@ -5690,21 +5564,15 @@
         <v>274</v>
       </c>
       <c r="D231">
-        <v>322.0494920592722</v>
+        <v>376.7134887134297</v>
       </c>
       <c r="E231">
-        <v>355.013408877326</v>
-      </c>
-      <c r="F231">
-        <v>378.5251685928391</v>
-      </c>
-      <c r="G231">
-        <v>396.2825433153376</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7">
+        <v>734.7657101848713</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
       <c r="A232" s="1">
-        <v>23.17037037037037</v>
+        <v>11.5433962264151</v>
       </c>
       <c r="B232">
         <v>274</v>
@@ -5713,21 +5581,15 @@
         <v>274</v>
       </c>
       <c r="D232">
-        <v>322.2760070841961</v>
+        <v>385.9504599253503</v>
       </c>
       <c r="E232">
-        <v>355.3352963681414</v>
-      </c>
-      <c r="F232">
-        <v>378.8927108349634</v>
-      </c>
-      <c r="G232">
-        <v>396.6701546753059</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7">
+        <v>775.1009283602314</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
       <c r="A233" s="1">
-        <v>23.27111111111111</v>
+        <v>11.59358490566038</v>
       </c>
       <c r="B233">
         <v>274</v>
@@ -5736,21 +5598,15 @@
         <v>274</v>
       </c>
       <c r="D233">
-        <v>322.5028578920317</v>
+        <v>395.9721940918892</v>
       </c>
       <c r="E233">
-        <v>355.657413800351</v>
-      </c>
-      <c r="F233">
-        <v>379.2604225952153</v>
-      </c>
-      <c r="G233">
-        <v>397.057896664835</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7">
+        <v>819.9026273316003</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
       <c r="A234" s="1">
-        <v>23.37185185185185</v>
+        <v>11.64377358490566</v>
       </c>
       <c r="B234">
         <v>274</v>
@@ -5759,21 +5615,15 @@
         <v>274</v>
       </c>
       <c r="D234">
-        <v>322.7300456281407</v>
+        <v>406.8471260087313</v>
       </c>
       <c r="E234">
-        <v>355.9797617255552</v>
-      </c>
-      <c r="F234">
-        <v>379.628304130143</v>
-      </c>
-      <c r="G234">
-        <v>397.4457693850975</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7">
+        <v>868.710826558228</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
       <c r="A235" s="1">
-        <v>23.47259259259259</v>
+        <v>11.69396226415094</v>
       </c>
       <c r="B235">
         <v>274</v>
@@ -5782,21 +5632,15 @@
         <v>274</v>
       </c>
       <c r="D235">
-        <v>322.9575714369345</v>
+        <v>418.6506492563733</v>
       </c>
       <c r="E235">
-        <v>356.3023406948503</v>
-      </c>
-      <c r="F235">
-        <v>379.9963556959506</v>
-      </c>
-      <c r="G235">
-        <v>397.83377293704</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
       <c r="A236" s="1">
-        <v>23.57333333333333</v>
+        <v>11.74415094339623</v>
       </c>
       <c r="B236">
         <v>274</v>
@@ -5805,21 +5649,12 @@
         <v>274</v>
       </c>
       <c r="D236">
-        <v>323.1854364619529</v>
-      </c>
-      <c r="E236">
-        <v>356.6251512587947</v>
-      </c>
-      <c r="F236">
-        <v>380.364577548512</v>
-      </c>
-      <c r="G236">
-        <v>398.2219074213675</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7">
+        <v>431.466027552628</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
       <c r="A237" s="1">
-        <v>23.67407407407407</v>
+        <v>11.79433962264151</v>
       </c>
       <c r="B237">
         <v>274</v>
@@ -5828,21 +5663,12 @@
         <v>274</v>
       </c>
       <c r="D237">
-        <v>323.4136418457789</v>
-      </c>
-      <c r="E237">
-        <v>356.9481939674369</v>
-      </c>
-      <c r="F237">
-        <v>380.7329699433548</v>
-      </c>
-      <c r="G237">
-        <v>398.6101729385578</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7">
+        <v>445.3854813685469</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
       <c r="A238" s="1">
-        <v>23.77481481481481</v>
+        <v>11.84452830188679</v>
       </c>
       <c r="B238">
         <v>274</v>
@@ -5851,21 +5677,12 @@
         <v>274</v>
       </c>
       <c r="D238">
-        <v>323.642188730112</v>
-      </c>
-      <c r="E238">
-        <v>357.2714693702839</v>
-      </c>
-      <c r="F238">
-        <v>381.1015331356733</v>
-      </c>
-      <c r="G238">
-        <v>398.9985695888458</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7">
+        <v>460.511481406139</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
       <c r="A239" s="1">
-        <v>23.87555555555555</v>
+        <v>11.89471698113208</v>
       </c>
       <c r="B239">
         <v>274</v>
@@ -5874,21 +5691,12 @@
         <v>274</v>
       </c>
       <c r="D239">
-        <v>323.8710782556885</v>
-      </c>
-      <c r="E239">
-        <v>357.5949780163261</v>
-      </c>
-      <c r="F239">
-        <v>381.4702673803139</v>
-      </c>
-      <c r="G239">
-        <v>399.3870974722375</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7">
+        <v>476.9582498486958</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
       <c r="A240" s="1">
-        <v>23.97629629629629</v>
+        <v>11.94490566037736</v>
       </c>
       <c r="B240">
         <v>274</v>
@@ -5897,21 +5705,12 @@
         <v>274</v>
       </c>
       <c r="D240">
-        <v>324.1003115623495</v>
-      </c>
-      <c r="E240">
-        <v>357.9187204540097</v>
-      </c>
-      <c r="F240">
-        <v>381.8391729317859</v>
-      </c>
-      <c r="G240">
-        <v>399.7757566884952</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7">
+        <v>494.8533894624612</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
       <c r="A241" s="1">
-        <v>24.07703703703703</v>
+        <v>11.99509433962264</v>
       </c>
       <c r="B241">
         <v>274</v>
@@ -5920,21 +5719,12 @@
         <v>274</v>
       </c>
       <c r="D241">
-        <v>324.3298897889662</v>
-      </c>
-      <c r="E241">
-        <v>358.2426972312581</v>
-      </c>
-      <c r="F241">
-        <v>382.2082500442491</v>
-      </c>
-      <c r="G241">
-        <v>400.1645473371498</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7">
+        <v>514.3393983439427</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
       <c r="A242" s="1">
-        <v>24.17777777777777</v>
+        <v>12.04528301886793</v>
       </c>
       <c r="B242">
         <v>274</v>
@@ -5943,21 +5733,12 @@
         <v>274</v>
       </c>
       <c r="D242">
-        <v>324.559814073503</v>
-      </c>
-      <c r="E242">
-        <v>358.5669088954465</v>
-      </c>
-      <c r="F242">
-        <v>382.577498971523</v>
-      </c>
-      <c r="G242">
-        <v>400.5534695174884</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7">
+        <v>535.5745547675652</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
       <c r="A243" s="1">
-        <v>24.27851851851852</v>
+        <v>12.09547169811321</v>
       </c>
       <c r="B243">
         <v>274</v>
@@ -5966,21 +5747,12 @@
         <v>274</v>
       </c>
       <c r="D243">
-        <v>324.7900855529481</v>
-      </c>
-      <c r="E243">
-        <v>358.8913559934218</v>
-      </c>
-      <c r="F243">
-        <v>382.9469199670755</v>
-      </c>
-      <c r="G243">
-        <v>400.9425233285642</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7">
+        <v>558.7322635956311</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
       <c r="A244" s="1">
-        <v>24.37925925925926</v>
+        <v>12.14566037735849</v>
       </c>
       <c r="B244">
         <v>274</v>
@@ -5989,21 +5761,12 @@
         <v>274</v>
       </c>
       <c r="D244">
-        <v>325.0207053633709</v>
-      </c>
-      <c r="E244">
-        <v>359.2160390714788</v>
-      </c>
-      <c r="F244">
-        <v>383.3165132840314</v>
-      </c>
-      <c r="G244">
-        <v>401.3317088691861</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7">
+        <v>583.9974855185959</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
       <c r="A245" s="1">
-        <v>24.48</v>
+        <v>12.19584905660377</v>
       </c>
       <c r="B245">
         <v>274</v>
@@ -6012,21 +5775,12 @@
         <v>274</v>
       </c>
       <c r="D245">
-        <v>325.2516746398584</v>
-      </c>
-      <c r="E245">
-        <v>359.5409586753782</v>
-      </c>
-      <c r="F245">
-        <v>383.6862791751615</v>
-      </c>
-      <c r="G245">
-        <v>401.7210262379269</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7">
+        <v>611.5584495906463</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
       <c r="A246" s="1">
-        <v>24.58074074074074</v>
+        <v>12.24603773584906</v>
       </c>
       <c r="B246">
         <v>274</v>
@@ -6035,21 +5789,12 @@
         <v>274</v>
       </c>
       <c r="D246">
-        <v>325.4829945165671</v>
-      </c>
-      <c r="E246">
-        <v>359.8661153503249</v>
-      </c>
-      <c r="F246">
-        <v>384.0562178928905</v>
-      </c>
-      <c r="G246">
-        <v>402.1104755331145</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7">
+        <v>641.5917061653417</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
       <c r="A247" s="1">
-        <v>24.68148148148148</v>
+        <v>12.29622641509434</v>
       </c>
       <c r="B247">
         <v>274</v>
@@ -6058,21 +5803,12 @@
         <v>274</v>
       </c>
       <c r="D247">
-        <v>325.7146661266645</v>
-      </c>
-      <c r="E247">
-        <v>360.191509640984</v>
-      </c>
-      <c r="F247">
-        <v>384.4263296892875</v>
-      </c>
-      <c r="G247">
-        <v>402.5000568528387</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7">
+        <v>674.2390294596505</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
       <c r="A248" s="1">
-        <v>24.78222222222222</v>
+        <v>12.34641509433962</v>
       </c>
       <c r="B248">
         <v>274</v>
@@ -6081,21 +5817,12 @@
         <v>274</v>
       </c>
       <c r="D248">
-        <v>325.9466906023762</v>
-      </c>
-      <c r="E248">
-        <v>360.5171420914611</v>
-      </c>
-      <c r="F248">
-        <v>384.7966148160719</v>
-      </c>
-      <c r="G248">
-        <v>402.8897702949435</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7">
+        <v>709.5764620318811</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
       <c r="A249" s="1">
-        <v>24.88296296296296</v>
+        <v>12.39660377358491</v>
       </c>
       <c r="B249">
         <v>274</v>
@@ -6104,21 +5831,12 @@
         <v>274</v>
       </c>
       <c r="D249">
-        <v>326.1790690749323</v>
-      </c>
-      <c r="E249">
-        <v>360.8430132453161</v>
-      </c>
-      <c r="F249">
-        <v>385.1670735246057</v>
-      </c>
-      <c r="G249">
-        <v>403.2796159570331</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7">
+        <v>747.5882476111725</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
       <c r="A250" s="1">
-        <v>24.9837037037037</v>
+        <v>12.44679245283019</v>
       </c>
       <c r="B250">
         <v>274</v>
@@ -6127,21 +5845,12 @@
         <v>274</v>
       </c>
       <c r="D250">
-        <v>326.4118026746094</v>
-      </c>
-      <c r="E250">
-        <v>361.1691236455458</v>
-      </c>
-      <c r="F250">
-        <v>385.5377060658982</v>
-      </c>
-      <c r="G250">
-        <v>403.6695939364645</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7">
+        <v>788.3181091270151</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
       <c r="A251" s="1">
-        <v>25.08444444444444</v>
+        <v>12.49698113207547</v>
       </c>
       <c r="B251">
         <v>274</v>
@@ -6150,21 +5859,12 @@
         <v>274</v>
       </c>
       <c r="D251">
-        <v>326.6448925306824</v>
-      </c>
-      <c r="E251">
-        <v>361.4954738345954</v>
-      </c>
-      <c r="F251">
-        <v>385.9085126905993</v>
-      </c>
-      <c r="G251">
-        <v>404.0597043303538</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7">
+        <v>834.0112789240465</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
       <c r="A252" s="1">
-        <v>25.18518518518518</v>
+        <v>12.54716981132076</v>
       </c>
       <c r="B252">
         <v>274</v>
@@ -6173,21 +5873,12 @@
         <v>274</v>
       </c>
       <c r="D252">
-        <v>326.8783397714607</v>
-      </c>
-      <c r="E252">
-        <v>361.8220643543436</v>
-      </c>
-      <c r="F252">
-        <v>386.2794936490031</v>
-      </c>
-      <c r="G252">
-        <v>404.4499472355685</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7">
+        <v>904.2980588301639</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
       <c r="A253" s="1">
-        <v>25.28592592592592</v>
+        <v>12.59735849056604</v>
       </c>
       <c r="B253">
         <v>274</v>
@@ -6195,22 +5886,10 @@
       <c r="C253">
         <v>274</v>
       </c>
-      <c r="D253">
-        <v>327.1121455242463</v>
-      </c>
-      <c r="E253">
-        <v>362.1488957461115</v>
-      </c>
-      <c r="F253">
-        <v>386.6506491910424</v>
-      </c>
-      <c r="G253">
-        <v>404.8403227487333</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7">
+    </row>
+    <row r="254" spans="1:4">
       <c r="A254" s="1">
-        <v>25.38666666666666</v>
+        <v>12.64754716981132</v>
       </c>
       <c r="B254">
         <v>274</v>
@@ -6218,22 +5897,10 @@
       <c r="C254">
         <v>274</v>
       </c>
-      <c r="D254">
-        <v>327.3463109153634</v>
-      </c>
-      <c r="E254">
-        <v>362.4759685506501</v>
-      </c>
-      <c r="F254">
-        <v>387.0219795662911</v>
-      </c>
-      <c r="G254">
-        <v>405.2308309662239</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7">
+    </row>
+    <row r="255" spans="1:4">
       <c r="A255" s="1">
-        <v>25.4874074074074</v>
+        <v>12.6977358490566</v>
       </c>
       <c r="B255">
         <v>274</v>
@@ -6241,22 +5908,10 @@
       <c r="C255">
         <v>274</v>
       </c>
-      <c r="D255">
-        <v>327.580837070123</v>
-      </c>
-      <c r="E255">
-        <v>362.8032833081473</v>
-      </c>
-      <c r="F255">
-        <v>387.3934850239594</v>
-      </c>
-      <c r="G255">
-        <v>405.6214719841711</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7">
+    </row>
+    <row r="256" spans="1:4">
       <c r="A256" s="1">
-        <v>25.58814814814815</v>
+        <v>12.74792452830189</v>
       </c>
       <c r="B256">
         <v>274</v>
@@ -6264,22 +5919,10 @@
       <c r="C256">
         <v>274</v>
       </c>
-      <c r="D256">
-        <v>327.8157251128467</v>
-      </c>
-      <c r="E256">
-        <v>363.1308405582167</v>
-      </c>
-      <c r="F256">
-        <v>387.7651658128965</v>
-      </c>
-      <c r="G256">
-        <v>406.0122458984555</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7">
+    </row>
+    <row r="257" spans="1:3">
       <c r="A257" s="1">
-        <v>25.68888888888889</v>
+        <v>12.79811320754717</v>
       </c>
       <c r="B257">
         <v>274</v>
@@ -6287,22 +5930,10 @@
       <c r="C257">
         <v>274</v>
       </c>
-      <c r="D257">
-        <v>328.0509761668363</v>
-      </c>
-      <c r="E257">
-        <v>363.4586408399036</v>
-      </c>
-      <c r="F257">
-        <v>388.1370221815852</v>
-      </c>
-      <c r="G257">
-        <v>406.4031528047114</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7">
+    </row>
+    <row r="258" spans="1:3">
       <c r="A258" s="1">
-        <v>25.78962962962963</v>
+        <v>12.84830188679245</v>
       </c>
       <c r="B258">
         <v>274</v>
@@ -6310,22 +5941,10 @@
       <c r="C258">
         <v>274</v>
       </c>
-      <c r="D258">
-        <v>328.286591354393</v>
-      </c>
-      <c r="E258">
-        <v>363.786684691675</v>
-      </c>
-      <c r="F258">
-        <v>388.5090543781445</v>
-      </c>
-      <c r="G258">
-        <v>406.794192798322</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7">
+    </row>
+    <row r="259" spans="1:3">
       <c r="A259" s="1">
-        <v>25.89037037037037</v>
+        <v>12.89849056603774</v>
       </c>
       <c r="B259">
         <v>274</v>
@@ -6333,22 +5952,10 @@
       <c r="C259">
         <v>274</v>
       </c>
-      <c r="D259">
-        <v>328.5225717967919</v>
-      </c>
-      <c r="E259">
-        <v>364.1149726514241</v>
-      </c>
-      <c r="F259">
-        <v>388.8812626503247</v>
-      </c>
-      <c r="G259">
-        <v>407.185365974422</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7">
+    </row>
+    <row r="260" spans="1:3">
       <c r="A260" s="1">
-        <v>25.99111111111111</v>
+        <v>12.94867924528302</v>
       </c>
       <c r="B260">
         <v>274</v>
@@ -6356,22 +5963,10 @@
       <c r="C260">
         <v>274</v>
       </c>
-      <c r="D260">
-        <v>328.7589186142956</v>
-      </c>
-      <c r="E260">
-        <v>364.4435052564621</v>
-      </c>
-      <c r="F260">
-        <v>389.25364724551</v>
-      </c>
-      <c r="G260">
-        <v>407.5766724278947</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7">
+    </row>
+    <row r="261" spans="1:3">
       <c r="A261" s="1">
-        <v>26.09185185185185</v>
+        <v>12.9988679245283</v>
       </c>
       <c r="B261">
         <v>274</v>
@@ -6379,22 +5974,10 @@
       <c r="C261">
         <v>274</v>
       </c>
-      <c r="D261">
-        <v>328.9956329261349</v>
-      </c>
-      <c r="E261">
-        <v>364.7722830435209</v>
-      </c>
-      <c r="F261">
-        <v>389.6262084107134</v>
-      </c>
-      <c r="G261">
-        <v>407.9681122533727</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7">
+    </row>
+    <row r="262" spans="1:3">
       <c r="A262" s="1">
-        <v>26.19259259259259</v>
+        <v>13.04905660377359</v>
       </c>
       <c r="B262">
         <v>274</v>
@@ -6402,22 +5985,10 @@
       <c r="C262">
         <v>274</v>
       </c>
-      <c r="D262">
-        <v>329.2327158505162</v>
-      </c>
-      <c r="E262">
-        <v>365.1013065487463</v>
-      </c>
-      <c r="F262">
-        <v>389.9989463925788</v>
-      </c>
-      <c r="G262">
-        <v>408.3596855452362</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7">
+    </row>
+    <row r="263" spans="1:3">
       <c r="A263" s="1">
-        <v>26.29333333333333</v>
+        <v>13.09924528301887</v>
       </c>
       <c r="B263">
         <v>274</v>
@@ -6425,22 +5996,10 @@
       <c r="C263">
         <v>274</v>
       </c>
-      <c r="D263">
-        <v>329.4701685046081</v>
-      </c>
-      <c r="E263">
-        <v>365.4305763076994</v>
-      </c>
-      <c r="F263">
-        <v>390.3718614373772</v>
-      </c>
-      <c r="G263">
-        <v>408.7513923976132</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7">
+    </row>
+    <row r="264" spans="1:3">
       <c r="A264" s="1">
-        <v>26.39407407407407</v>
+        <v>13.14943396226415</v>
       </c>
       <c r="B264">
         <v>274</v>
@@ -6448,22 +6007,10 @@
       <c r="C264">
         <v>274</v>
       </c>
-      <c r="D264">
-        <v>329.7079920045431</v>
-      </c>
-      <c r="E264">
-        <v>365.7600928553516</v>
-      </c>
-      <c r="F264">
-        <v>390.744953791007</v>
-      </c>
-      <c r="G264">
-        <v>409.1432329043783</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7">
+    </row>
+    <row r="265" spans="1:3">
       <c r="A265" s="1">
-        <v>26.49481481481481</v>
+        <v>13.19962264150944</v>
       </c>
       <c r="B265">
         <v>274</v>
@@ -6471,22 +6018,10 @@
       <c r="C265">
         <v>274</v>
       </c>
-      <c r="D265">
-        <v>330.0645755132144</v>
-      </c>
-      <c r="E265">
-        <v>366.1774007058713</v>
-      </c>
-      <c r="F265">
-        <v>391.1852897783559</v>
-      </c>
-      <c r="G265">
-        <v>409.5879948154416</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7">
+    </row>
+    <row r="266" spans="1:3">
       <c r="A266" s="1">
-        <v>26.59555555555555</v>
+        <v>13.24981132075472</v>
       </c>
       <c r="B266">
         <v>274</v>
@@ -6494,155 +6029,16 @@
       <c r="C266">
         <v>274</v>
       </c>
-      <c r="D266">
-        <v>330.5402924605872</v>
-      </c>
-      <c r="E266">
-        <v>366.6827103825488</v>
-      </c>
-      <c r="F266">
-        <v>391.6929790929312</v>
-      </c>
-      <c r="G266">
-        <v>410.0857281411867</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7">
+    </row>
+    <row r="267" spans="1:3">
       <c r="A267" s="1">
-        <v>26.69629629629629</v>
+        <v>13.3</v>
       </c>
       <c r="B267">
         <v>274</v>
       </c>
       <c r="C267">
-        <v>274</v>
-      </c>
-      <c r="D267">
-        <v>331.1354534202194</v>
-      </c>
-      <c r="E267">
-        <v>367.2761783320155</v>
-      </c>
-      <c r="F267">
-        <v>392.2680884208509</v>
-      </c>
-      <c r="G267">
-        <v>410.6364492673516</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7">
-      <c r="A268" s="1">
-        <v>26.79703703703703</v>
-      </c>
-      <c r="B268">
-        <v>274</v>
-      </c>
-      <c r="C268">
-        <v>274</v>
-      </c>
-      <c r="D268">
-        <v>331.8503055079442</v>
-      </c>
-      <c r="E268">
-        <v>367.9579064214675</v>
-      </c>
-      <c r="F268">
-        <v>392.9106411151265</v>
-      </c>
-      <c r="G268">
-        <v>411.2401407518244</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7">
-      <c r="A269" s="1">
-        <v>26.89777777777778</v>
-      </c>
-      <c r="B269">
-        <v>274</v>
-      </c>
-      <c r="C269">
-        <v>274</v>
-      </c>
-      <c r="D269">
-        <v>332.6850315637323</v>
-      </c>
-      <c r="E269">
-        <v>368.7279413635416</v>
-      </c>
-      <c r="F269">
-        <v>393.620616856155</v>
-      </c>
-      <c r="G269">
-        <v>411.8967511270866</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7">
-      <c r="A270" s="1">
-        <v>26.99851851851852</v>
-      </c>
-      <c r="B270">
-        <v>274</v>
-      </c>
-      <c r="C270">
-        <v>274</v>
-      </c>
-      <c r="D270">
-        <v>333.6397491131404</v>
-      </c>
-      <c r="E270">
-        <v>369.5862740656631</v>
-      </c>
-      <c r="F270">
-        <v>394.3979512937086</v>
-      </c>
-      <c r="G270">
-        <v>412.6061947037787</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7">
-      <c r="A271" s="1">
-        <v>27.09925925925926</v>
-      </c>
-      <c r="B271">
-        <v>274</v>
-      </c>
-      <c r="C271">
-        <v>274</v>
-      </c>
-      <c r="D271">
-        <v>334.714509106671</v>
-      </c>
-      <c r="E271">
-        <v>370.5328389015647</v>
-      </c>
-      <c r="F271">
-        <v>395.2425356657754</v>
-      </c>
-      <c r="G271">
-        <v>413.3683513706604</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7">
-      <c r="A272" s="1">
-        <v>27.2</v>
-      </c>
-      <c r="B272">
-        <v>274</v>
-      </c>
-      <c r="C272">
-        <v>274.0029840335314</v>
-      </c>
-      <c r="D272">
-        <v>335.9092944368781</v>
-      </c>
-      <c r="E272">
-        <v>371.5675129036929</v>
-      </c>
-      <c r="F272">
-        <v>396.1542163901681</v>
-      </c>
-      <c r="G272">
-        <v>414.1830663865781</v>
+        <v>284.537865948384</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -420,19 +420,19 @@
         <v>274</v>
       </c>
       <c r="C2">
-        <v>273.9998668558185</v>
+        <v>274.02116992485</v>
       </c>
       <c r="D2">
-        <v>273.9630007738066</v>
+        <v>282.2683129333407</v>
       </c>
       <c r="E2">
-        <v>273.9501772582856</v>
+        <v>289.7844033530823</v>
       </c>
       <c r="F2">
-        <v>273.9427322519459</v>
+        <v>298.7295242193356</v>
       </c>
       <c r="G2">
-        <v>273.9552960774988</v>
+        <v>308.0771234729729</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -446,16 +446,16 @@
         <v>274</v>
       </c>
       <c r="D3">
-        <v>273.9637768153218</v>
+        <v>282.0662157435856</v>
       </c>
       <c r="E3">
-        <v>273.9509469636872</v>
+        <v>289.4701068906117</v>
       </c>
       <c r="F3">
-        <v>273.9434991490565</v>
+        <v>298.2944085124677</v>
       </c>
       <c r="G3">
-        <v>273.9561006952241</v>
+        <v>307.5372822977999</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -469,16 +469,16 @@
         <v>274</v>
       </c>
       <c r="D4">
-        <v>273.9645432462234</v>
+        <v>281.8678920840221</v>
       </c>
       <c r="E4">
-        <v>273.9517111848447</v>
+        <v>289.1606384043093</v>
       </c>
       <c r="F4">
-        <v>273.9442638326411</v>
+        <v>297.8648511759806</v>
       </c>
       <c r="G4">
-        <v>273.9569306236793</v>
+        <v>307.0032335201411</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -492,16 +492,16 @@
         <v>274</v>
       </c>
       <c r="D5">
-        <v>273.9653000662643</v>
+        <v>281.6732879665019</v>
       </c>
       <c r="E5">
-        <v>273.9524699200743</v>
+        <v>288.8559221642859</v>
       </c>
       <c r="F5">
-        <v>273.9450263089855</v>
+        <v>297.4407770082782</v>
       </c>
       <c r="G5">
-        <v>273.9577859533431</v>
+        <v>306.474905939444</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -515,16 +515,16 @@
         <v>274</v>
       </c>
       <c r="D6">
-        <v>273.9660472790026</v>
+        <v>281.4823499196963</v>
       </c>
       <c r="E6">
-        <v>273.9532231690931</v>
+        <v>288.5558835621947</v>
       </c>
       <c r="F6">
-        <v>273.945786588445</v>
+        <v>297.0221113998568</v>
       </c>
       <c r="G6">
-        <v>273.9586668097236</v>
+        <v>305.9522302039802</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -538,16 +538,16 @@
         <v>274</v>
       </c>
       <c r="D7">
-        <v>273.9667848917975</v>
+        <v>281.2950247808286</v>
       </c>
       <c r="E7">
-        <v>273.9539709330191</v>
+        <v>288.2604488061972</v>
       </c>
       <c r="F7">
-        <v>273.9465446854648</v>
+        <v>296.6087802128715</v>
       </c>
       <c r="G7">
-        <v>273.9595733534873</v>
+        <v>305.435137531533</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -561,16 +561,16 @@
         <v>274</v>
       </c>
       <c r="D8">
-        <v>273.9675129158009</v>
+        <v>281.1112596879145</v>
       </c>
       <c r="E8">
-        <v>273.95471321437</v>
+        <v>287.9695448938238</v>
       </c>
       <c r="F8">
-        <v>273.9473006186068</v>
+        <v>296.2007097742007</v>
       </c>
       <c r="G8">
-        <v>273.9605057806199</v>
+        <v>304.9235594921882</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -584,16 +584,16 @@
         <v>274</v>
       </c>
       <c r="D9">
-        <v>273.9682313659471</v>
+        <v>280.9310020709281</v>
       </c>
       <c r="E9">
-        <v>273.9554500170616</v>
+        <v>287.6830996024677</v>
       </c>
       <c r="F9">
-        <v>273.9480544105823</v>
+        <v>295.7978268819474</v>
       </c>
       <c r="G9">
-        <v>273.9614643226212</v>
+        <v>304.417427998629</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -607,16 +607,16 @@
         <v>274</v>
       </c>
       <c r="D10">
-        <v>273.96894026094</v>
+        <v>280.7541996429393</v>
       </c>
       <c r="E10">
-        <v>273.9561813464055</v>
+        <v>287.4010414773932</v>
       </c>
       <c r="F10">
-        <v>273.9488060882903</v>
+        <v>295.4000588097257</v>
       </c>
       <c r="G10">
-        <v>273.9624492467335</v>
+        <v>303.9166753141666</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -630,16 +630,16 @@
         <v>274</v>
       </c>
       <c r="D11">
-        <v>273.9696396232373</v>
+        <v>280.5808003919079</v>
       </c>
       <c r="E11">
-        <v>273.9569072091065</v>
+        <v>287.1232998181328</v>
       </c>
       <c r="F11">
-        <v>273.9495556828622</v>
+        <v>295.0073333080157</v>
       </c>
       <c r="G11">
-        <v>273.9634608562033</v>
+        <v>303.4212340590029</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -653,16 +653,16 @@
         <v>274</v>
       </c>
       <c r="D12">
-        <v>273.970329479032</v>
+        <v>280.4107525732974</v>
       </c>
       <c r="E12">
-        <v>273.9576276132593</v>
+        <v>286.8498046643103</v>
       </c>
       <c r="F12">
-        <v>273.9503032297123</v>
+        <v>294.6195786032083</v>
       </c>
       <c r="G12">
-        <v>273.9644994905773</v>
+        <v>302.9310372140803</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -676,16 +676,16 @@
         <v>274</v>
       </c>
       <c r="D13">
-        <v>273.9710098582317</v>
+        <v>280.2440047033764</v>
       </c>
       <c r="E13">
-        <v>273.9583425683446</v>
+        <v>286.580486781665</v>
       </c>
       <c r="F13">
-        <v>273.9510487685947</v>
+        <v>294.2367233951856</v>
       </c>
       <c r="G13">
-        <v>273.9655655260328</v>
+        <v>302.4460181229473</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -699,16 +699,16 @@
         <v>274</v>
       </c>
       <c r="D14">
-        <v>273.9716807944349</v>
+        <v>280.0805055530254</v>
       </c>
       <c r="E14">
-        <v>273.959052085225</v>
+        <v>286.3152776486658</v>
       </c>
       <c r="F14">
-        <v>273.9517923436659</v>
+        <v>293.8586968542091</v>
       </c>
       <c r="G14">
-        <v>273.9666593757407</v>
+        <v>301.9661104922239</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -722,16 +722,16 @@
         <v>274</v>
       </c>
       <c r="D15">
-        <v>273.9723423249047</v>
+        <v>279.9202041419323</v>
       </c>
       <c r="E15">
-        <v>273.9597561761399</v>
+        <v>286.0541094437805</v>
       </c>
       <c r="F15">
-        <v>273.9525340035548</v>
+        <v>293.4854286176682</v>
       </c>
       <c r="G15">
-        <v>273.9677814902657</v>
+        <v>301.4912483912399</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -745,16 +745,16 @@
         <v>274</v>
       </c>
       <c r="D16">
-        <v>273.9729944905405</v>
+        <v>279.7630497331219</v>
       </c>
       <c r="E16">
-        <v>273.9604548547002</v>
+        <v>285.7969150332955</v>
       </c>
       <c r="F16">
-        <v>273.9532738014378</v>
+        <v>293.1168487869788</v>
       </c>
       <c r="G16">
-        <v>273.9689323579988</v>
+        <v>301.0213662513021</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -768,16 +768,16 @@
         <v>274</v>
       </c>
       <c r="D17">
-        <v>273.9736373358461</v>
+        <v>279.6089918278021</v>
       </c>
       <c r="E17">
-        <v>273.9611481358827</v>
+        <v>285.5436279595432</v>
       </c>
       <c r="F17">
-        <v>273.954011795121</v>
+        <v>292.7528879247175</v>
       </c>
       <c r="G17">
-        <v>273.9701125056268</v>
+        <v>300.5563988648914</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -791,16 +791,16 @@
         <v>274</v>
       </c>
       <c r="D18">
-        <v>273.9742709088968</v>
+        <v>279.457980160525</v>
       </c>
       <c r="E18">
-        <v>273.9618360360234</v>
+        <v>285.2941824294182</v>
       </c>
       <c r="F18">
-        <v>273.9547480471297</v>
+        <v>292.3934770519612</v>
       </c>
       <c r="G18">
-        <v>273.9713224986363</v>
+        <v>300.0962813849494</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -814,16 +814,16 @@
         <v>274</v>
       </c>
       <c r="D19">
-        <v>273.9748952613029</v>
+        <v>279.3099646946611</v>
       </c>
       <c r="E19">
-        <v>273.9625185728108</v>
+        <v>285.0485133031146</v>
       </c>
       <c r="F19">
-        <v>273.9554826248034</v>
+        <v>292.0385476457498</v>
       </c>
       <c r="G19">
-        <v>273.9725629418539</v>
+        <v>299.6409493243042</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -837,16 +837,16 @@
         <v>274</v>
       </c>
       <c r="D20">
-        <v>273.9755104481714</v>
+        <v>279.1648956181853</v>
       </c>
       <c r="E20">
-        <v>273.9631957652787</v>
+        <v>284.8065560830502</v>
       </c>
       <c r="F20">
-        <v>273.9562156003989</v>
+        <v>291.6880316365963</v>
       </c>
       <c r="G20">
-        <v>273.9738344800223</v>
+        <v>299.1903385552282</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -860,16 +860,16 @@
         <v>274</v>
       </c>
       <c r="D21">
-        <v>273.9761165280645</v>
+        <v>279.0227233397727</v>
       </c>
       <c r="E21">
-        <v>273.9638676337983</v>
+        <v>284.5682469029688</v>
       </c>
       <c r="F21">
-        <v>273.9569470511992</v>
+        <v>291.3418614059889</v>
       </c>
       <c r="G21">
-        <v>273.9751377984137</v>
+        <v>298.7443853090916</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -883,16 +883,16 @@
         <v>274</v>
       </c>
       <c r="D22">
-        <v>273.9767135629573</v>
+        <v>278.8833984851984</v>
       </c>
       <c r="E22">
-        <v>273.9645342000699</v>
+        <v>284.3335225172208</v>
       </c>
       <c r="F22">
-        <v>273.9576770596311</v>
+        <v>290.9999697838554</v>
       </c>
       <c r="G22">
-        <v>273.9764736234791</v>
+        <v>298.303026176075</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -906,16 +906,16 @@
         <v>274</v>
       </c>
       <c r="D23">
-        <v>273.977301618192</v>
+        <v>278.7468718940368</v>
       </c>
       <c r="E23">
-        <v>273.9651954871147</v>
+        <v>284.1023202902242</v>
       </c>
       <c r="F23">
-        <v>273.9584057133886</v>
+        <v>290.662290045978</v>
       </c>
       <c r="G23">
-        <v>273.9778427235365</v>
+        <v>297.8661981049136</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -929,16 +929,16 @@
         <v>274</v>
       </c>
       <c r="D24">
-        <v>273.9778807624299</v>
+        <v>278.6130946166524</v>
       </c>
       <c r="E24">
-        <v>273.9658515192654</v>
+        <v>283.8745781861078</v>
       </c>
       <c r="F24">
-        <v>273.9591331055652</v>
+        <v>290.3287559113608</v>
       </c>
       <c r="G24">
-        <v>273.9792459094955</v>
+        <v>297.4338384026547</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -952,16 +952,16 @@
         <v>274</v>
       </c>
       <c r="D25">
-        <v>273.9784510676024</v>
+        <v>278.4820179114756</v>
       </c>
       <c r="E25">
-        <v>273.9665023221568</v>
+        <v>283.6502347585374</v>
       </c>
       <c r="F25">
-        <v>273.9598593347931</v>
+        <v>289.9993015395522</v>
       </c>
       <c r="G25">
-        <v>273.9806840356219</v>
+        <v>297.005884734424</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -975,16 +975,16 @@
         <v>274</v>
       </c>
       <c r="D26">
-        <v>273.979012608858</v>
+        <v>278.353593242556</v>
       </c>
       <c r="E26">
-        <v>273.967147922716</v>
+        <v>283.429229140722</v>
       </c>
       <c r="F26">
-        <v>273.9605845053904</v>
+        <v>289.673861527931</v>
       </c>
       <c r="G26">
-        <v>273.9821580003401</v>
+        <v>296.5822751231985</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -998,16 +998,16 @@
         <v>274</v>
       </c>
       <c r="D27">
-        <v>273.9795654645096</v>
+        <v>278.2277722773854</v>
       </c>
       <c r="E27">
-        <v>273.9677883491526</v>
+        <v>283.211501035599</v>
       </c>
       <c r="F27">
-        <v>273.9613087275168</v>
+        <v>289.35237090896</v>
       </c>
       <c r="G27">
-        <v>273.9836687470751</v>
+        <v>296.1629479495889</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1021,16 +1021,16 @@
         <v>274</v>
       </c>
       <c r="D28">
-        <v>273.9801097159773</v>
+        <v>278.104506884982</v>
       </c>
       <c r="E28">
-        <v>273.9684236309475</v>
+        <v>282.9969907061929</v>
       </c>
       <c r="F28">
-        <v>273.962032117337</v>
+        <v>289.0347651474114</v>
       </c>
       <c r="G28">
-        <v>273.985217265136</v>
+        <v>295.7478419516355</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1044,16 +1044,16 @@
         <v>274</v>
       </c>
       <c r="D29">
-        <v>273.9806454477314</v>
+        <v>277.9837491342282</v>
       </c>
       <c r="E29">
-        <v>273.9690537988428</v>
+        <v>282.7856389661446</v>
       </c>
       <c r="F29">
-        <v>273.9627547971935</v>
+        <v>288.7209801375679</v>
       </c>
       <c r="G29">
-        <v>273.9868045906379</v>
+        <v>295.3368962246221</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1067,16 +1067,16 @@
         <v>274</v>
       </c>
       <c r="D30">
-        <v>273.9811727472323</v>
+        <v>277.865451292454</v>
       </c>
       <c r="E30">
-        <v>273.9696788848302</v>
+        <v>282.5773871704081</v>
       </c>
       <c r="F30">
-        <v>273.9634768957876</v>
+        <v>288.4109522004006</v>
       </c>
       <c r="G30">
-        <v>273.9884318074672</v>
+        <v>294.9300502209103</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1090,16 +1090,16 @@
         <v>274</v>
       </c>
       <c r="D31">
-        <v>273.9816917048688</v>
+        <v>277.7495658242582</v>
       </c>
       <c r="E31">
-        <v>273.9702989221399</v>
+        <v>282.3721772061095</v>
       </c>
       <c r="F31">
-        <v>273.9641985483691</v>
+        <v>288.1046180807262</v>
       </c>
       <c r="G31">
-        <v>273.9901000482875</v>
+        <v>294.5272437497969</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1113,16 +1113,16 @@
         <v>274</v>
       </c>
       <c r="D32">
-        <v>273.9822024138947</v>
+        <v>277.6360453905583</v>
       </c>
       <c r="E32">
-        <v>273.9709139452289</v>
+        <v>282.1699514835648</v>
       </c>
       <c r="F32">
-        <v>273.9649198969367</v>
+        <v>287.8019149443444</v>
       </c>
       <c r="G32">
-        <v>273.9918104955891</v>
+        <v>294.1284169773971</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1136,16 +1136,16 @@
         <v>274</v>
       </c>
       <c r="D33">
-        <v>273.9827049703644</v>
+        <v>277.5248428478611</v>
       </c>
       <c r="E33">
-        <v>273.9715239897691</v>
+        <v>281.9706529274542</v>
       </c>
       <c r="F33">
-        <v>273.9656410904462</v>
+        <v>287.5027803751581</v>
       </c>
       <c r="G33">
-        <v>273.993564382781</v>
+        <v>293.7335104265549</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1159,16 +1159,16 @@
         <v>274</v>
       </c>
       <c r="D34">
-        <v>273.9831994730656</v>
+        <v>277.4159112477467</v>
       </c>
       <c r="E34">
-        <v>273.9721290926353</v>
+        <v>281.7742249681476</v>
       </c>
       <c r="F34">
-        <v>273.9663622850297</v>
+        <v>287.2071523722764</v>
       </c>
       <c r="G34">
-        <v>273.9953629953278</v>
+        <v>293.342464976784</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1182,16 +1182,16 @@
         <v>274</v>
       </c>
       <c r="D35">
-        <v>273.983686023451</v>
+        <v>277.3092038365565</v>
       </c>
       <c r="E35">
-        <v>273.9727292918929</v>
+        <v>281.5806115331793</v>
       </c>
       <c r="F35">
-        <v>273.9670836442247</v>
+        <v>286.9149693471036</v>
       </c>
       <c r="G35">
-        <v>273.9972076719305</v>
+        <v>292.9552218642381</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1205,16 +1205,16 @@
         <v>274</v>
       </c>
       <c r="D36">
-        <v>273.9841647255695</v>
+        <v>277.2046740552771</v>
       </c>
       <c r="E36">
-        <v>273.9733246267859</v>
+        <v>281.389757038868</v>
       </c>
       <c r="F36">
-        <v>273.9678053392132</v>
+        <v>286.6261701204142</v>
       </c>
       <c r="G36">
-        <v>273.9990998057542</v>
+        <v>292.5717226817148</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1228,16 +1228,16 @@
         <v>274</v>
       </c>
       <c r="D37">
-        <v>273.9846356859941</v>
+        <v>277.1022755396111</v>
       </c>
       <c r="E37">
-        <v>273.973915137724</v>
+        <v>281.2016063820786</v>
       </c>
       <c r="F37">
-        <v>273.9685275490726</v>
+        <v>286.3406939194174</v>
       </c>
       <c r="G37">
-        <v>274.0010408457009</v>
+        <v>292.1919093786947</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1251,16 +1251,16 @@
         <v>274</v>
       </c>
       <c r="D38">
-        <v>273.9850990137501</v>
+        <v>277.0019621202286</v>
       </c>
       <c r="E38">
-        <v>273.9745008662704</v>
+        <v>281.0161049321247</v>
       </c>
       <c r="F38">
-        <v>273.9692504610363</v>
+        <v>286.0584803748115</v>
       </c>
       <c r="G38">
-        <v>274.0030322977305</v>
+        <v>291.8157242614151</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1274,16 +1274,16 @@
         <v>274</v>
       </c>
       <c r="D39">
-        <v>273.9855548202412</v>
+        <v>276.9036878231872</v>
       </c>
       <c r="E39">
-        <v>273.9750818551292</v>
+        <v>280.8331985228048</v>
       </c>
       <c r="F39">
-        <v>273.9699742707666</v>
+        <v>285.7794695178299</v>
       </c>
       <c r="G39">
-        <v>274.0050757262298</v>
+        <v>291.443109992984</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1297,16 +1297,16 @@
         <v>274</v>
       </c>
       <c r="D40">
-        <v>273.9860032191745</v>
+        <v>276.8074068705155</v>
       </c>
       <c r="E40">
-        <v>273.9756581481329</v>
+        <v>280.6528334445741</v>
       </c>
       <c r="F40">
-        <v>273.9706991826397</v>
+        <v>285.5036017772821</v>
       </c>
       <c r="G40">
-        <v>274.00717275543</v>
+        <v>291.0740095935316</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1320,16 +1320,16 @@
         <v>274</v>
       </c>
       <c r="D41">
-        <v>273.9864443264846</v>
+        <v>276.7130736809497</v>
       </c>
       <c r="E41">
-        <v>273.9762297902295</v>
+        <v>280.4749564368448</v>
       </c>
       <c r="F41">
-        <v>273.9714254100417</v>
+        <v>285.2308179765893</v>
       </c>
       <c r="G41">
-        <v>274.0093250708754</v>
+        <v>290.7083664404051</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1343,16 +1343,16 @@
         <v>274</v>
       </c>
       <c r="D42">
-        <v>273.9868782602562</v>
+        <v>276.6206428708156</v>
       </c>
       <c r="E42">
-        <v>273.9767968274707</v>
+        <v>280.2995146804147</v>
       </c>
       <c r="F42">
-        <v>273.9721531756783</v>
+        <v>284.9610593308183</v>
       </c>
       <c r="G42">
-        <v>274.0115344209416</v>
+        <v>290.3461242684064</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1366,16 +1366,16 @@
         <v>274</v>
       </c>
       <c r="D43">
-        <v>273.9873051406467</v>
+        <v>276.530069255047</v>
       </c>
       <c r="E43">
-        <v>273.9773593069988</v>
+        <v>280.1264557900199</v>
       </c>
       <c r="F43">
-        <v>273.9728827118965</v>
+        <v>284.6942674437144</v>
       </c>
       <c r="G43">
-        <v>274.0138026184068</v>
+        <v>289.9872271700743</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1389,16 +1389,16 @@
         <v>274</v>
       </c>
       <c r="D44">
-        <v>273.9877250898063</v>
+        <v>276.4413078483327</v>
       </c>
       <c r="E44">
-        <v>273.9779172770354</v>
+        <v>279.9557278070094</v>
       </c>
       <c r="F44">
-        <v>273.9736142610206</v>
+        <v>284.4303843047347</v>
       </c>
       <c r="G44">
-        <v>274.0161315420754</v>
+        <v>289.6316195960148</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1412,16 +1412,16 @@
         <v>274</v>
       </c>
       <c r="D45">
-        <v>273.9881382317989</v>
+        <v>276.3543138663837</v>
       </c>
       <c r="E45">
-        <v>273.9784707868687</v>
+        <v>279.7872791921387</v>
       </c>
       <c r="F45">
-        <v>273.974348075701</v>
+        <v>284.169352286086</v>
       </c>
       <c r="G45">
-        <v>274.0185231384561</v>
+        <v>289.2792463552789</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1435,16 +1435,16 @@
         <v>274</v>
       </c>
       <c r="D46">
-        <v>273.988544692521</v>
+        <v>276.2690427273113</v>
       </c>
       <c r="E46">
-        <v>273.979019886842</v>
+        <v>279.6210588184798</v>
       </c>
       <c r="F46">
-        <v>273.9750844192777</v>
+        <v>283.9111141397653</v>
       </c>
       <c r="G46">
-        <v>274.020979423495</v>
+        <v>288.930052615791</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1458,16 +1458,16 @@
         <v>274</v>
       </c>
       <c r="D47">
-        <v>273.9889445996205</v>
+        <v>276.1854500531098</v>
       </c>
       <c r="E47">
-        <v>273.9795646283424</v>
+        <v>279.4570159644445</v>
       </c>
       <c r="F47">
-        <v>273.9758235661587</v>
+        <v>283.6556129946078</v>
       </c>
       <c r="G47">
-        <v>274.0235024843645</v>
+        <v>288.5839839048309</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1481,16 +1481,16 @@
         <v>274</v>
       </c>
       <c r="D48">
-        <v>273.9893380824151</v>
+        <v>276.1034916712329</v>
       </c>
       <c r="E48">
-        <v>273.9801050637894</v>
+        <v>279.2951003069192</v>
       </c>
       <c r="F48">
-        <v>273.9765658022129</v>
+        <v>283.402792353343</v>
       </c>
       <c r="G48">
-        <v>274.0260944813104</v>
+        <v>288.2409861095692</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1504,16 +1504,16 @@
         <v>274</v>
       </c>
       <c r="D49">
-        <v>273.9897252718093</v>
+        <v>276.0231236162583</v>
       </c>
       <c r="E49">
-        <v>273.9806412466246</v>
+        <v>279.1352619145064</v>
       </c>
       <c r="F49">
-        <v>273.9773114251793</v>
+        <v>283.1525960896607</v>
       </c>
       <c r="G49">
-        <v>274.0287576495567</v>
+        <v>287.9010054776613</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1527,16 +1527,16 @@
         <v>274</v>
       </c>
       <c r="D50">
-        <v>273.9901063002117</v>
+        <v>275.94430213163</v>
       </c>
       <c r="E50">
-        <v>273.9811732313011</v>
+        <v>278.9774512408733</v>
       </c>
       <c r="F50">
-        <v>273.9780607450912</v>
+        <v>282.9049684452911</v>
       </c>
       <c r="G50">
-        <v>274.031494301271</v>
+        <v>287.563988617902</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1550,16 +1550,16 @@
         <v>274</v>
       </c>
       <c r="D51">
-        <v>273.9904813014519</v>
+        <v>275.8669836714715</v>
       </c>
       <c r="E51">
-        <v>273.9817010732738</v>
+        <v>278.8216191182015</v>
       </c>
       <c r="F51">
-        <v>273.9788140847191</v>
+        <v>282.659854027101</v>
       </c>
       <c r="G51">
-        <v>274.0343068275903</v>
+        <v>287.2298825009432</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1573,16 +1573,16 @@
         <v>274</v>
       </c>
       <c r="D52">
-        <v>273.9908504106961</v>
+        <v>275.7911249024611</v>
       </c>
       <c r="E52">
-        <v>273.9822248289904</v>
+        <v>278.6677167507395</v>
       </c>
       <c r="F52">
-        <v>273.979571780028</v>
+        <v>282.4171978042111</v>
       </c>
       <c r="G52">
-        <v>274.0371977007101</v>
+        <v>286.8986344600787</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1596,16 +1596,16 @@
         <v>274</v>
       </c>
       <c r="D53">
-        <v>273.991213764364</v>
+        <v>275.7166827057604</v>
       </c>
       <c r="E53">
-        <v>273.9827445558824</v>
+        <v>278.5156957084557</v>
       </c>
       <c r="F53">
-        <v>273.9803341806551</v>
+        <v>282.1769451051392</v>
       </c>
       <c r="G53">
-        <v>274.0401694760355</v>
+        <v>286.5701921920955</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1619,16 +1619,16 @@
         <v>274</v>
       </c>
       <c r="D54">
-        <v>273.9915715000437</v>
+        <v>275.6436141789897</v>
       </c>
       <c r="E54">
-        <v>273.9832603123581</v>
+        <v>278.3655079207943</v>
       </c>
       <c r="F54">
-        <v>273.981101650404</v>
+        <v>281.9390416149726</v>
       </c>
       <c r="G54">
-        <v>274.0432247943995</v>
+        <v>286.2445037581903</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1642,16 +1642,16 @@
         <v>274</v>
       </c>
       <c r="D55">
-        <v>273.9919237564081</v>
+        <v>275.5718766382418</v>
       </c>
       <c r="E55">
-        <v>273.9837721577942</v>
+        <v>278.2171056705379</v>
       </c>
       <c r="F55">
-        <v>273.9818745677582</v>
+        <v>281.7034333725715</v>
       </c>
       <c r="G55">
-        <v>274.0463663843458</v>
+        <v>285.9215175849467</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1665,16 +1665,16 @@
         <v>274</v>
       </c>
       <c r="D56">
-        <v>273.9922706731303</v>
+        <v>275.5014276201313</v>
       </c>
       <c r="E56">
-        <v>273.9842801525306</v>
+        <v>278.0704415877798</v>
       </c>
       <c r="F56">
-        <v>273.9826533264148</v>
+        <v>281.470066767798</v>
       </c>
       <c r="G56">
-        <v>274.0495970644806</v>
+        <v>285.6011824653598</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1688,16 +1688,16 @@
         <v>274</v>
       </c>
       <c r="D57">
-        <v>273.9926123907993</v>
+        <v>275.4322248838814</v>
       </c>
       <c r="E57">
-        <v>273.9847843578643</v>
+        <v>277.9254686440044</v>
       </c>
       <c r="F57">
-        <v>273.9834383358374</v>
+        <v>281.2388885387601</v>
       </c>
       <c r="G57">
-        <v>274.0529197458929</v>
+        <v>285.2834475598977</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1711,16 +1711,16 @@
         <v>274</v>
       </c>
       <c r="D58">
-        <v>273.9929490508354</v>
+        <v>275.3642264134578</v>
       </c>
       <c r="E58">
-        <v>273.9852848360455</v>
+        <v>277.7821401462647</v>
       </c>
       <c r="F58">
-        <v>273.9842300218306</v>
+        <v>281.0098457690511</v>
       </c>
       <c r="G58">
-        <v>274.0563374346459</v>
+        <v>284.9682623975812</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1734,16 +1734,16 @@
         <v>274</v>
       </c>
       <c r="D59">
-        <v>273.9932807954066</v>
+        <v>275.2973904197652</v>
       </c>
       <c r="E59">
-        <v>273.9857816502735</v>
+        <v>277.6404097314259</v>
       </c>
       <c r="F59">
-        <v>273.9850288271348</v>
+        <v>280.7828858849621</v>
       </c>
       <c r="G59">
-        <v>274.0598532343403</v>
+        <v>284.6555768770724</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1757,16 +1757,16 @@
         <v>274</v>
       </c>
       <c r="D60">
-        <v>273.9936077673441</v>
+        <v>275.2316753428985</v>
       </c>
       <c r="E60">
-        <v>273.9862748646953</v>
+        <v>277.5002313604325</v>
       </c>
       <c r="F60">
-        <v>273.9858352120442</v>
+        <v>280.5579566526487</v>
       </c>
       <c r="G60">
-        <v>274.0634703487517</v>
+        <v>284.3453412677642</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1780,16 +1780,16 @@
         <v>274</v>
       </c>
       <c r="D61">
-        <v>273.9939301100592</v>
+        <v>275.1670398543826</v>
       </c>
       <c r="E61">
-        <v>273.9867645444039</v>
+        <v>277.3615593125518</v>
       </c>
       <c r="F61">
-        <v>273.9866496550473</v>
+        <v>280.3350061752446</v>
       </c>
       <c r="G61">
-        <v>274.067192084543</v>
+        <v>284.0375062108783</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1803,16 +1803,16 @@
         <v>274</v>
       </c>
       <c r="D62">
-        <v>273.9942479674593</v>
+        <v>275.1034428592603</v>
       </c>
       <c r="E62">
-        <v>273.9872507554385</v>
+        <v>277.2243481795721</v>
       </c>
       <c r="F62">
-        <v>273.9874726534907</v>
+        <v>280.113982889938</v>
       </c>
       <c r="G62">
-        <v>274.0710218540536</v>
+        <v>283.7320227205921</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1826,16 +1826,16 @@
         <v>274</v>
       </c>
       <c r="D63">
-        <v>273.9945614838655</v>
+        <v>275.0408434978709</v>
       </c>
       <c r="E63">
-        <v>273.987733564787</v>
+        <v>277.0885528599766</v>
       </c>
       <c r="F63">
-        <v>273.9883047242673</v>
+        <v>279.8948355650487</v>
       </c>
       <c r="G63">
-        <v>274.0749631781687</v>
+        <v>283.4288421852258</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1849,16 +1849,16 @@
         <v>274</v>
       </c>
       <c r="D64">
-        <v>273.9948708039296</v>
+        <v>274.9792011473119</v>
       </c>
       <c r="E64">
-        <v>273.9882130403881</v>
+        <v>276.9541285531715</v>
       </c>
       <c r="F64">
-        <v>273.9891464045298</v>
+        <v>279.6775132971598</v>
       </c>
       <c r="G64">
-        <v>274.0790196892676</v>
+        <v>283.1279163685281</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1872,16 +1872,16 @@
         <v>274</v>
       </c>
       <c r="D65">
-        <v>273.9951788015767</v>
+        <v>274.9178569958029</v>
       </c>
       <c r="E65">
-        <v>273.9886914502958</v>
+        <v>276.8201329235764</v>
       </c>
       <c r="F65">
-        <v>273.9899914036415</v>
+        <v>279.4607592503662</v>
       </c>
       <c r="G65">
-        <v>274.0831150102919</v>
+        <v>282.8276891252027</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1895,16 +1895,16 @@
         <v>274</v>
       </c>
       <c r="D66">
-        <v>273.9954855241227</v>
+        <v>274.8567979934891</v>
       </c>
       <c r="E66">
-        <v>273.9891688171028</v>
+        <v>276.6865518149725</v>
       </c>
       <c r="F66">
-        <v>273.9908399060999</v>
+        <v>279.2445576793244</v>
       </c>
       <c r="G66">
-        <v>274.0872503759131</v>
+        <v>282.5281460487145</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1918,16 +1918,16 @@
         <v>274</v>
       </c>
       <c r="D67">
-        <v>273.9957910188925</v>
+        <v>274.7960111140814</v>
       </c>
       <c r="E67">
-        <v>273.9896451635047</v>
+        <v>276.5533710962439</v>
       </c>
       <c r="F67">
-        <v>273.9916920988038</v>
+        <v>279.0288928632887</v>
       </c>
       <c r="G67">
-        <v>274.0914270336467</v>
+        <v>282.2292727600186</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1941,16 +1941,16 @@
         <v>274</v>
       </c>
       <c r="D68">
-        <v>273.9960953332114</v>
+        <v>274.735483355233</v>
       </c>
       <c r="E68">
-        <v>273.9901205123016</v>
+        <v>276.4205766609676</v>
       </c>
       <c r="F68">
-        <v>273.9925481711363</v>
+        <v>278.8137491060519</v>
       </c>
       <c r="G68">
-        <v>274.0956462441891</v>
+        <v>281.9310549079826</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1964,16 +1964,16 @@
         <v>274</v>
       </c>
       <c r="D69">
-        <v>273.9963815579017</v>
+        <v>274.6788930831522</v>
       </c>
       <c r="E69">
-        <v>273.9905803009935</v>
+        <v>276.2937638282498</v>
       </c>
       <c r="F69">
-        <v>273.993469242553</v>
+        <v>278.6067804311287</v>
       </c>
       <c r="G69">
-        <v>274.1005653096613</v>
+        <v>281.6432950801368</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1987,16 +1987,16 @@
         <v>274</v>
       </c>
       <c r="D70">
-        <v>273.9966504440824</v>
+        <v>274.6260383890664</v>
       </c>
       <c r="E70">
-        <v>273.9910249222088</v>
+        <v>276.1727104555106</v>
       </c>
       <c r="F70">
-        <v>273.994459054127</v>
+        <v>278.4077352770006</v>
       </c>
       <c r="G70">
-        <v>274.1062081222282</v>
+        <v>281.3657593974322</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2010,16 +2010,16 @@
         <v>274</v>
       </c>
       <c r="D71">
-        <v>273.9969027365516</v>
+        <v>274.5767238142491</v>
       </c>
       <c r="E71">
-        <v>273.9914547961382</v>
+        <v>276.0572007113868</v>
       </c>
       <c r="F71">
-        <v>273.9955220497092</v>
+        <v>278.2163689038416</v>
       </c>
       <c r="G71">
-        <v>274.112602211938</v>
+        <v>281.0982223753172</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2033,16 +2033,16 @@
         <v>274</v>
       </c>
       <c r="D72">
-        <v>273.9971391718404</v>
+        <v>274.5307603836212</v>
       </c>
       <c r="E72">
-        <v>273.9918703714407</v>
+        <v>275.9470249589937</v>
       </c>
       <c r="F72">
-        <v>273.9966634066474</v>
+        <v>278.0324433569622</v>
       </c>
       <c r="G72">
-        <v>274.1197788612075</v>
+        <v>280.8404670250399</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2056,16 +2056,16 @@
         <v>274</v>
       </c>
       <c r="D73">
-        <v>273.9973604763945</v>
+        <v>274.4879656250949</v>
       </c>
       <c r="E73">
-        <v>273.9922721265148</v>
+        <v>275.8419796370482</v>
       </c>
       <c r="F73">
-        <v>273.9978890711878</v>
+        <v>277.8557274279495</v>
       </c>
       <c r="G73">
-        <v>274.1277732331552</v>
+        <v>280.5922849641217</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2079,16 +2079,16 @@
         <v>274</v>
       </c>
       <c r="D74">
-        <v>273.9975673648892</v>
+        <v>274.4481635766788</v>
       </c>
       <c r="E74">
-        <v>273.9926605711657</v>
+        <v>275.7418671430313</v>
       </c>
       <c r="F74">
-        <v>273.9992057987468</v>
+        <v>277.6859966158005</v>
       </c>
       <c r="G74">
-        <v>274.1366245141638</v>
+        <v>280.3534765358466</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2102,16 +2102,16 @@
         <v>274</v>
       </c>
       <c r="D75">
-        <v>273.9977605386804</v>
+        <v>274.4111847802416</v>
       </c>
       <c r="E75">
-        <v>273.9930362486992</v>
+        <v>275.6464957195193</v>
       </c>
       <c r="F75">
-        <v>274.0006211992525</v>
+        <v>277.5230330906339</v>
       </c>
       <c r="G75">
-        <v>274.1463760710992</v>
+        <v>280.1238509398174</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2125,16 +2125,16 @@
         <v>274</v>
       </c>
       <c r="D76">
-        <v>273.9979406843938</v>
+        <v>274.3768662614418</v>
       </c>
       <c r="E76">
-        <v>273.9933997384862</v>
+        <v>275.555679343334</v>
       </c>
       <c r="F76">
-        <v>274.0021437877847</v>
+        <v>277.3666256610743</v>
       </c>
       <c r="G76">
-        <v>274.1570756236503</v>
+        <v>279.9032263752703</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2148,16 +2148,16 @@
         <v>274</v>
       </c>
       <c r="D77">
-        <v>273.9981084726522</v>
+        <v>274.3450514958211</v>
       </c>
       <c r="E77">
-        <v>273.9937516590385</v>
+        <v>275.4692376171592</v>
       </c>
       <c r="F77">
-        <v>274.0037830407584</v>
+        <v>277.2165697456929</v>
       </c>
       <c r="G77">
-        <v>274.1687754322905</v>
+        <v>279.6914301980689</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2171,16 +2171,16 @@
         <v>274</v>
       </c>
       <c r="D78">
-        <v>273.9982645569414</v>
+        <v>274.3155903612594</v>
       </c>
       <c r="E78">
-        <v>273.9940926716472</v>
+        <v>275.3869956634749</v>
       </c>
       <c r="F78">
-        <v>274.0055494579213</v>
+        <v>277.0726673488433</v>
       </c>
       <c r="G78">
-        <v>274.181532502401</v>
+        <v>279.488299091969</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2194,16 +2194,16 @@
         <v>274</v>
       </c>
       <c r="D79">
-        <v>273.9984095726144</v>
+        <v>274.2883390770887</v>
       </c>
       <c r="E79">
-        <v>273.9944234846433</v>
+        <v>275.3087840207368</v>
       </c>
       <c r="F79">
-        <v>274.0074546304586</v>
+        <v>276.934727041328</v>
       </c>
       <c r="G79">
-        <v>274.1954088051417</v>
+        <v>279.293679254753</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2217,16 +2217,16 @@
         <v>274</v>
       </c>
       <c r="D80">
-        <v>273.9985441360299</v>
+        <v>274.26316013026</v>
       </c>
       <c r="E80">
-        <v>273.9947448583407</v>
+        <v>275.2344385417572</v>
       </c>
       <c r="F80">
-        <v>274.0095113155207</v>
+        <v>276.8025639463972</v>
       </c>
       <c r="G80">
-        <v>274.2104715156952</v>
+        <v>279.107426599906</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2240,16 +2240,16 @@
         <v>274</v>
       </c>
       <c r="D81">
-        <v>273.9986688438249</v>
+        <v>274.2399221890471</v>
       </c>
       <c r="E81">
-        <v>273.9950576107339</v>
+        <v>275.1638002942443</v>
       </c>
       <c r="F81">
-        <v>274.0117335175182</v>
+        <v>276.6759997315935</v>
       </c>
       <c r="G81">
-        <v>274.2267932695603</v>
+        <v>278.9294069745814</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2263,16 +2263,16 @@
         <v>274</v>
       </c>
       <c r="D82">
-        <v>273.998784272315</v>
+        <v>274.2185000048578</v>
       </c>
       <c r="E82">
-        <v>273.9953626240308</v>
+        <v>275.0967154634744</v>
       </c>
       <c r="F82">
-        <v>274.0141365765472</v>
+        <v>276.5548626069832</v>
       </c>
       <c r="G82">
-        <v>274.2444524376163</v>
+        <v>278.7594963946559</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2286,16 +2286,16 @@
         <v>274</v>
       </c>
       <c r="D83">
-        <v>273.9988909770206</v>
+        <v>274.1987743028026</v>
       </c>
       <c r="E83">
-        <v>273.9956608521076</v>
+        <v>275.0330352570821</v>
       </c>
       <c r="F83">
-        <v>274.0167372643428</v>
+        <v>276.4389873303213</v>
       </c>
       <c r="G83">
-        <v>274.2635334207301</v>
+        <v>278.5975812977234</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2309,16 +2309,16 @@
         <v>274</v>
       </c>
       <c r="D84">
-        <v>273.9989894923124</v>
+        <v>274.1806316617325</v>
       </c>
       <c r="E84">
-        <v>273.9959533289818</v>
+        <v>274.972615811976</v>
       </c>
       <c r="F84">
-        <v>274.0195538881778</v>
+        <v>276.3282152197168</v>
       </c>
       <c r="G84">
-        <v>274.2841269647319</v>
+        <v>278.4435588149309</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2332,16 +2332,16 @@
         <v>274</v>
       </c>
       <c r="D85">
-        <v>273.9990803311722</v>
+        <v>274.1639643845206</v>
       </c>
       <c r="E85">
-        <v>273.9962411784139</v>
+        <v>274.9153181034018</v>
       </c>
       <c r="F85">
-        <v>274.0226064031584</v>
+        <v>276.2223941743903</v>
       </c>
       <c r="G85">
-        <v>274.3063304966377</v>
+        <v>278.2973370626108</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2355,16 +2355,16 @@
         <v>274</v>
       </c>
       <c r="D86">
-        <v>273.9991639850616</v>
+        <v>274.1486703594045</v>
       </c>
       <c r="E86">
-        <v>273.9965256247534</v>
+        <v>274.8610078561929</v>
       </c>
       <c r="F86">
-        <v>274.0259165333923</v>
+        <v>276.1213787041269</v>
       </c>
       <c r="G86">
-        <v>274.3302484830556</v>
+        <v>278.1588354547248</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2378,16 +2378,16 @@
         <v>274</v>
       </c>
       <c r="D87">
-        <v>273.9992409238938</v>
+        <v>274.1346529132456</v>
       </c>
       <c r="E87">
-        <v>273.996808005163</v>
+        <v>274.8095554582738</v>
       </c>
       <c r="F87">
-        <v>274.0295079025391</v>
+        <v>276.0250299680575</v>
       </c>
       <c r="G87">
-        <v>274.3559928117746</v>
+        <v>278.0279850371917</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2401,16 +2401,16 @@
         <v>274</v>
       </c>
       <c r="D88">
-        <v>273.9993115961011</v>
+        <v>274.1218206575886</v>
       </c>
       <c r="E88">
-        <v>273.9970897833617</v>
+        <v>274.7608358764966</v>
       </c>
       <c r="F88">
-        <v>274.033406174281</v>
+        <v>275.9332158234183</v>
       </c>
       <c r="G88">
-        <v>274.3836831975944</v>
+        <v>277.9047288452371</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2424,16 +2424,16 @@
         <v>274</v>
       </c>
       <c r="D89">
-        <v>273.9993764287917</v>
+        <v>274.1100873284182</v>
       </c>
       <c r="E89">
-        <v>273.9973725650489</v>
+        <v>274.7147285749139</v>
       </c>
       <c r="F89">
-        <v>274.0376392032865</v>
+        <v>275.8458108849669</v>
       </c>
       <c r="G89">
-        <v>274.4134476135257</v>
+        <v>277.7890222849667</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2447,16 +2447,16 @@
         <v>274</v>
       </c>
       <c r="D90">
-        <v>273.9994358279897</v>
+        <v>274.0993716205245</v>
       </c>
       <c r="E90">
-        <v>273.9976581151786</v>
+        <v>274.6711174356184</v>
       </c>
       <c r="F90">
-        <v>274.0422371972697</v>
+        <v>275.7626965957577</v>
       </c>
       <c r="G90">
-        <v>274.4454227485592</v>
+        <v>277.6808335404377</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2470,16 +2470,16 @@
         <v>274</v>
       </c>
       <c r="D91">
-        <v>273.9994901789486</v>
+        <v>274.0895970173812</v>
       </c>
       <c r="E91">
-        <v>273.997948377279</v>
+        <v>274.6298906823006</v>
       </c>
       <c r="F91">
-        <v>274.0472328907881</v>
+        <v>275.6837613100054</v>
       </c>
       <c r="G91">
-        <v>274.4797544932763</v>
+        <v>277.5801440075728</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2493,16 +2493,16 @@
         <v>274</v>
       </c>
       <c r="D92">
-        <v>273.9995398465362</v>
+        <v>274.0806916174358</v>
       </c>
       <c r="E92">
-        <v>273.9982454950203</v>
+        <v>274.5909408066976</v>
       </c>
       <c r="F92">
-        <v>274.0526617314504</v>
+        <v>275.6089003887927</v>
       </c>
       <c r="G92">
-        <v>274.5165984546562</v>
+        <v>277.486948756346</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2516,16 +2516,16 @@
         <v>274</v>
       </c>
       <c r="D93">
-        <v>273.9995851756786</v>
+        <v>274.0725879576954</v>
       </c>
       <c r="E93">
-        <v>273.9985518362637</v>
+        <v>274.5541644981415</v>
       </c>
       <c r="F93">
-        <v>274.05856207925</v>
+        <v>275.5380163094148</v>
       </c>
       <c r="G93">
-        <v>274.5561205015142</v>
+        <v>277.4012570227449</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2539,16 +2539,16 @@
         <v>274</v>
       </c>
       <c r="D94">
-        <v>273.9996264918619</v>
+        <v>274.0652228354639</v>
       </c>
       <c r="E94">
-        <v>273.9988700198356</v>
+        <v>274.5194625764358</v>
       </c>
       <c r="F94">
-        <v>274.0649754197733</v>
+        <v>275.471018789178</v>
       </c>
       <c r="G94">
-        <v>274.5984973421021</v>
+        <v>277.3230927321091</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2562,16 +2562,16 @@
         <v>274</v>
       </c>
       <c r="D95">
-        <v>273.9996641016803</v>
+        <v>274.0585371290623</v>
       </c>
       <c r="E95">
-        <v>273.9992029453023</v>
+        <v>274.4867399283223</v>
       </c>
       <c r="F95">
-        <v>274.0719465920752</v>
+        <v>275.4078249245077</v>
       </c>
       <c r="G95">
-        <v>274.6439171354892</v>
+        <v>277.2524950555355</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2585,16 +2585,16 @@
         <v>274</v>
       </c>
       <c r="D96">
-        <v>273.9996982934296</v>
+        <v>274.0524756183252</v>
       </c>
       <c r="E96">
-        <v>273.9995538260371</v>
+        <v>274.4559054478282</v>
       </c>
       <c r="F96">
-        <v>274.0795240320532</v>
+        <v>275.3483593462568</v>
       </c>
       <c r="G96">
-        <v>274.6925801384531</v>
+        <v>277.1895190011421</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2608,16 +2608,16 @@
         <v>274</v>
       </c>
       <c r="D97">
-        <v>273.999729337734</v>
+        <v>274.0469868056279</v>
       </c>
       <c r="E97">
-        <v>273.9999262259041</v>
+        <v>274.4268719808193</v>
       </c>
       <c r="F97">
-        <v>274.0877600321966</v>
+        <v>275.2925543921391</v>
       </c>
       <c r="G97">
-        <v>274.7446993897112</v>
+        <v>277.1342360420906</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2631,16 +2631,16 @@
         <v>274</v>
       </c>
       <c r="D98">
-        <v>273.9997574882086</v>
+        <v>274.0420227381549</v>
       </c>
       <c r="E98">
-        <v>274.0003240999077</v>
+        <v>274.399556274115</v>
       </c>
       <c r="F98">
-        <v>274.0967110186321</v>
+        <v>275.2403502972602</v>
       </c>
       <c r="G98">
-        <v>274.8005014334445</v>
+        <v>277.0867347833812</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2654,16 +2654,16 @@
         <v>274</v>
       </c>
       <c r="D99">
-        <v>273.9997829821455</v>
+        <v>274.0375388320722</v>
       </c>
       <c r="E99">
-        <v>274.0007518391868</v>
+        <v>274.3738789295597</v>
       </c>
       <c r="F99">
-        <v>274.1064378464307</v>
+        <v>275.1916954037497</v>
       </c>
       <c r="G99">
-        <v>274.8602270841897</v>
+        <v>277.0471216695602</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2677,16 +2677,16 @@
         <v>274</v>
       </c>
       <c r="D100">
-        <v>273.9998060412239</v>
+        <v>274.03349369922</v>
       </c>
       <c r="E100">
-        <v>274.0012143207652</v>
+        <v>274.3497643634814</v>
       </c>
       <c r="F100">
-        <v>274.1170061141946</v>
+        <v>275.1465463905516</v>
       </c>
       <c r="G100">
-        <v>274.924132235309</v>
+        <v>277.0155217356087</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2700,16 +2700,16 @@
         <v>274</v>
       </c>
       <c r="D101">
-        <v>273.999826872239</v>
+        <v>274.0298489768825</v>
       </c>
       <c r="E101">
-        <v>274.0017169625081</v>
+        <v>274.3271407720045</v>
       </c>
       <c r="F101">
-        <v>274.128486498987</v>
+        <v>275.1048685244712</v>
       </c>
       <c r="G101">
-        <v>274.9924887133931</v>
+        <v>276.992079403428</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2723,16 +2723,16 @@
         <v>274</v>
       </c>
       <c r="D102">
-        <v>273.9998456678454</v>
+        <v>274.0265691611516</v>
       </c>
       <c r="E102">
-        <v>274.002265783762</v>
+        <v>274.3059401027322</v>
       </c>
       <c r="F102">
-        <v>274.1409551127251</v>
+        <v>275.0666359336275</v>
       </c>
       <c r="G102">
-        <v>275.0655851811034</v>
+        <v>276.976959326488</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2746,16 +2746,16 @@
         <v>274</v>
       </c>
       <c r="D103">
-        <v>273.9998626073162</v>
+        <v>274.0236214443344</v>
       </c>
       <c r="E103">
-        <v>274.0028674722046</v>
+        <v>274.2860980333466</v>
       </c>
       <c r="F103">
-        <v>274.1544938812104</v>
+        <v>275.03183190451</v>
       </c>
       <c r="G103">
-        <v>275.1437280911351</v>
+        <v>276.9703472853719</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2769,16 +2769,16 @@
         <v>274</v>
       </c>
       <c r="D104">
-        <v>273.9998778573134</v>
+        <v>274.0209755568103</v>
       </c>
       <c r="E104">
-        <v>274.0035294574678</v>
+        <v>274.2675539577314</v>
       </c>
       <c r="F104">
-        <v>274.1691909470252</v>
+        <v>275.0004492038957</v>
       </c>
       <c r="G104">
-        <v>275.2272426941547</v>
+        <v>276.9724511371287</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2792,16 +2792,16 @@
         <v>274</v>
       </c>
       <c r="D105">
-        <v>273.9998915726701</v>
+        <v>274.0186036136889</v>
       </c>
       <c r="E105">
-        <v>274.0042599921395</v>
+        <v>274.2502509802586</v>
       </c>
       <c r="F105">
-        <v>274.1851410975868</v>
+        <v>274.9724904269353</v>
       </c>
       <c r="G105">
-        <v>275.3164741037663</v>
+        <v>276.9835018215391</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2815,16 +2815,16 @@
         <v>274</v>
       </c>
       <c r="D106">
-        <v>273.9999038971872</v>
+        <v>274.0164799665658</v>
       </c>
       <c r="E106">
-        <v>274.0050682408026</v>
+        <v>274.2341359189383</v>
       </c>
       <c r="F106">
-        <v>274.2024462197132</v>
+        <v>274.947968372782</v>
       </c>
       <c r="G106">
-        <v>275.4117884217702</v>
+        <v>277.0037544276097</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2838,16 +2838,16 @@
         <v>274</v>
       </c>
       <c r="D107">
-        <v>273.9999149644438</v>
+        <v>274.0145810606269</v>
       </c>
       <c r="E107">
-        <v>274.0059643778141</v>
+        <v>274.219159318178</v>
       </c>
       <c r="F107">
-        <v>274.2212157821172</v>
+        <v>274.9269064491949</v>
       </c>
       <c r="G107">
-        <v>275.5135739272047</v>
+        <v>277.033489323837</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2861,16 +2861,16 @@
         <v>274</v>
       </c>
       <c r="D108">
-        <v>273.9999248986277</v>
+        <v>274.0128852973016</v>
       </c>
       <c r="E108">
-        <v>274.0069596945816</v>
+        <v>274.2052754719564</v>
       </c>
       <c r="F108">
-        <v>274.2415673473181</v>
+        <v>274.9093391076208</v>
       </c>
       <c r="G108">
-        <v>275.6222423329124</v>
+        <v>277.0730133560273</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2884,16 +2884,16 @@
         <v>274</v>
       </c>
       <c r="D109">
-        <v>273.9999338153892</v>
+        <v>274.011372902622</v>
       </c>
       <c r="E109">
-        <v>274.0080667171536</v>
+        <v>274.1924424582678</v>
       </c>
       <c r="F109">
-        <v>274.2636271145314</v>
+        <v>274.8953123103249</v>
       </c>
       <c r="G109">
-        <v>275.7382301136399</v>
+        <v>277.1226611167316</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2907,16 +2907,16 @@
         <v>274</v>
       </c>
       <c r="D110">
-        <v>273.999941822727</v>
+        <v>274.0100258014012</v>
       </c>
       <c r="E110">
-        <v>274.0092993349923</v>
+        <v>274.1806221857599</v>
       </c>
       <c r="F110">
-        <v>274.2875304951711</v>
+        <v>274.8848840312168</v>
       </c>
       <c r="G110">
-        <v>275.8619999099706</v>
+        <v>277.1827962906362</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2930,16 +2930,16 @@
         <v>274</v>
       </c>
       <c r="D111">
-        <v>273.9999490219145</v>
+        <v>274.0088274973032</v>
       </c>
       <c r="E111">
-        <v>274.0106729418652</v>
+        <v>274.1697804535455</v>
       </c>
       <c r="F111">
-        <v>274.3134227226833</v>
+        <v>274.8781247920988</v>
       </c>
       <c r="G111">
-        <v>275.9940420127126</v>
+        <v>277.253813080575</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2953,16 +2953,16 @@
         <v>274</v>
       </c>
       <c r="D112">
-        <v>273.9999555084791</v>
+        <v>274.0077629588429</v>
       </c>
       <c r="E112">
-        <v>274.0122045898543</v>
+        <v>274.1598870252349</v>
       </c>
       <c r="F112">
-        <v>274.3414594985118</v>
+        <v>274.8751182361446</v>
       </c>
       <c r="G112">
-        <v>276.1348759327042</v>
+        <v>277.3361377191678</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2976,16 +2976,16 @@
         <v>274</v>
       </c>
       <c r="D113">
-        <v>273.9999613732509</v>
+        <v>274.0068185113205</v>
       </c>
       <c r="E113">
-        <v>274.0139131575508</v>
+        <v>274.1509157183062</v>
       </c>
       <c r="F113">
-        <v>274.3718076760871</v>
+        <v>274.8759617405067</v>
       </c>
       <c r="G113">
-        <v>276.2850520613828</v>
+        <v>277.4302300714698</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -2999,16 +2999,16 @@
         <v>274</v>
       </c>
       <c r="D114">
-        <v>273.9999667034957</v>
+        <v>274.0059817346639</v>
       </c>
       <c r="E114">
-        <v>274.0158195335741</v>
+        <v>274.1428445099974</v>
       </c>
       <c r="F114">
-        <v>274.4046459848288</v>
+        <v>274.8807670700461</v>
       </c>
       <c r="G114">
-        <v>276.4451534278696</v>
+        <v>277.5365853344207</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3022,16 +3022,16 @@
         <v>274</v>
       </c>
       <c r="D115">
-        <v>273.9999715841602</v>
+        <v>274.0052413671282</v>
       </c>
       <c r="E115">
-        <v>274.0179468166306</v>
+        <v>274.1356556609836</v>
       </c>
       <c r="F115">
-        <v>274.4401657962462</v>
+        <v>274.8896610742777</v>
       </c>
       <c r="G115">
-        <v>276.6157975587777</v>
+        <v>277.6557358393401</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3045,16 +3045,16 @@
         <v>274</v>
       </c>
       <c r="D116">
-        <v>273.999976099253</v>
+        <v>274.0045872147816</v>
       </c>
       <c r="E116">
-        <v>274.0203205334058</v>
+        <v>274.1293358581755</v>
       </c>
       <c r="F116">
-        <v>274.4785719343389</v>
+        <v>274.9027864297316</v>
       </c>
       <c r="G116">
-        <v>276.7976384474367</v>
+        <v>277.7882529641951</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3068,16 +3068,16 @@
         <v>274</v>
       </c>
       <c r="D117">
-        <v>273.9999803333967</v>
+        <v>274.0040100666847</v>
       </c>
       <c r="E117">
-        <v>274.0229688756617</v>
+        <v>274.1238763780568</v>
       </c>
       <c r="F117">
-        <v>274.5200835326066</v>
+        <v>274.9203024300471</v>
       </c>
       <c r="G117">
-        <v>276.9913686397721</v>
+        <v>277.9347491629123</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3091,16 +3091,16 @@
         <v>274</v>
       </c>
       <c r="D118">
-        <v>273.9999843735905</v>
+        <v>274.0035016156597</v>
       </c>
       <c r="E118">
-        <v>274.0259229580042</v>
+        <v>274.1192732720651</v>
       </c>
       <c r="F118">
-        <v>274.5649349401058</v>
+        <v>274.9423858262379</v>
       </c>
       <c r="G118">
-        <v>277.1977214446603</v>
+        <v>278.0958801195873</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3114,16 +3114,16 @@
         <v>274</v>
       </c>
       <c r="D119">
-        <v>273.9999883112314</v>
+        <v>274.0030543845348</v>
       </c>
       <c r="E119">
-        <v>274.0292170978645</v>
+        <v>274.1155275755995</v>
       </c>
       <c r="F119">
-        <v>274.6133766791236</v>
+        <v>274.9692317196998</v>
       </c>
       <c r="G119">
-        <v>277.4174732772332</v>
+        <v>278.2723470360931</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3137,16 +3137,16 @@
         <v>274</v>
       </c>
       <c r="D120">
-        <v>273.9999922444509</v>
+        <v>274.0026616577453</v>
       </c>
       <c r="E120">
-        <v>274.0328891193397</v>
+        <v>274.1126455423374</v>
       </c>
       <c r="F120">
-        <v>274.6656764571774</v>
+        <v>275.0010545106735</v>
       </c>
       <c r="G120">
-        <v>277.6514461443093</v>
+        <v>278.4648990622967</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3160,16 +3160,16 @@
         <v>274</v>
       </c>
       <c r="D121">
-        <v>273.9999962808351</v>
+        <v>274.0023174181676</v>
       </c>
       <c r="E121">
-        <v>274.0369806826259</v>
+        <v>274.1106389056274</v>
       </c>
       <c r="F121">
-        <v>274.7221202362085</v>
+        <v>275.0380889050293</v>
       </c>
       <c r="G121">
-        <v>277.9005102819118</v>
+        <v>278.6743358788687</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3183,16 +3183,16 @@
         <v>274</v>
       </c>
       <c r="D122">
-        <v>274.0000005406079</v>
+        <v>274.0020162890715</v>
       </c>
       <c r="E122">
-        <v>274.0415376408809</v>
+        <v>274.109525168828</v>
       </c>
       <c r="F122">
-        <v>274.7830133619979</v>
+        <v>275.0805909824037</v>
       </c>
       <c r="G122">
-        <v>278.1655869556866</v>
+        <v>278.9015104435268</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3206,16 +3206,16 @@
         <v>274</v>
       </c>
       <c r="D123">
-        <v>274.0000051603737</v>
+        <v>274.0017534810762</v>
       </c>
       <c r="E123">
-        <v>274.0466104264526</v>
+        <v>274.1093279265551</v>
       </c>
       <c r="F123">
-        <v>274.8486817570142</v>
+        <v>275.1288393288992</v>
       </c>
       <c r="G123">
-        <v>278.4476514359823</v>
+        <v>279.147331912495</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3229,16 +3229,16 @@
         <v>274</v>
       </c>
       <c r="D124">
-        <v>274.0000102975299</v>
+        <v>274.0015247440153</v>
       </c>
       <c r="E124">
-        <v>274.0522544685158</v>
+        <v>274.1100772189089</v>
       </c>
       <c r="F124">
-        <v>274.9194731800987</v>
+        <v>275.1831362377496</v>
       </c>
       <c r="G124">
-        <v>278.7477361603816</v>
+        <v>279.4127687499972</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3252,16 +3252,16 @@
         <v>274</v>
       </c>
       <c r="D125">
-        <v>274.0000161354822</v>
+        <v>274.0013263236275</v>
       </c>
       <c r="E125">
-        <v>274.0585306442695</v>
+        <v>274.1118099208515</v>
       </c>
       <c r="F125">
-        <v>274.995758556599</v>
+        <v>275.2438089815641</v>
       </c>
       <c r="G125">
-        <v>279.0669340976275</v>
+        <v>279.698852039745</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3275,16 +3275,16 @@
         <v>274</v>
       </c>
       <c r="D126">
-        <v>274.0000228898182</v>
+        <v>274.0011549230134</v>
       </c>
       <c r="E126">
-        <v>274.0655057659561</v>
+        <v>274.1145701690191</v>
       </c>
       <c r="F126">
-        <v>275.0779333827954</v>
+        <v>275.3112111599933</v>
       </c>
       <c r="G126">
-        <v>279.4064023281452</v>
+        <v>280.006679013643</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3298,16 +3298,16 @@
         <v>274</v>
       </c>
       <c r="D127">
-        <v>274.000030815621</v>
+        <v>274.001007668829</v>
       </c>
       <c r="E127">
-        <v>274.0732531060803</v>
+        <v>274.11840982836</v>
       </c>
       <c r="F127">
-        <v>275.1664192087126</v>
+        <v>275.3857241269066</v>
       </c>
       <c r="G127">
-        <v>279.7673658577544</v>
+        <v>280.3374168143241</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3321,16 +3321,16 @@
         <v>274</v>
       </c>
       <c r="D128">
-        <v>274.0000402161336</v>
+        <v>274.0008820822147</v>
       </c>
       <c r="E128">
-        <v>274.0818529633239</v>
+        <v>274.1233890011078</v>
       </c>
       <c r="F128">
-        <v>275.2616652036797</v>
+        <v>275.467758501444</v>
       </c>
       <c r="G128">
-        <v>280.1511216827115</v>
+        <v>280.6923065096715</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3344,16 +3344,16 @@
         <v>274</v>
       </c>
       <c r="D129">
-        <v>274.0000514530285</v>
+        <v>274.0007760545021</v>
       </c>
       <c r="E129">
-        <v>274.0913932717702</v>
+        <v>274.1295765807142</v>
       </c>
       <c r="F129">
-        <v>275.3641498092972</v>
+        <v>275.5577557676005</v>
       </c>
       <c r="G129">
-        <v>280.5590431259212</v>
+        <v>281.0726673791854</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3367,16 +3367,16 @@
         <v>274</v>
       </c>
       <c r="D130">
-        <v>274.0000649585659</v>
+        <v>274.0006878277858</v>
       </c>
       <c r="E130">
-        <v>274.10197025618</v>
+        <v>274.1370508534868</v>
       </c>
       <c r="F130">
-        <v>275.4743824848005</v>
+        <v>275.6561899673264</v>
       </c>
       <c r="G130">
-        <v>280.9925844660499</v>
+        <v>281.4799014939384</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3390,16 +3390,16 @@
         <v>274</v>
       </c>
       <c r="D131">
-        <v>274.0000812499854</v>
+        <v>274.0006159804988</v>
       </c>
       <c r="E131">
-        <v>274.1136891361842</v>
+        <v>274.1459001507993</v>
       </c>
       <c r="F131">
-        <v>275.5929055501575</v>
+        <v>275.763569492482</v>
       </c>
       <c r="G131">
-        <v>281.4532858833662</v>
+        <v>281.9154986139603</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3413,16 +3413,16 @@
         <v>274</v>
       </c>
       <c r="D132">
-        <v>274.000100946518</v>
+        <v>274.0005594181943</v>
       </c>
       <c r="E132">
-        <v>274.1266648823862</v>
+        <v>274.1562235548724</v>
       </c>
       <c r="F132">
-        <v>275.7202961326345</v>
+        <v>275.8804389813753</v>
       </c>
       <c r="G132">
-        <v>281.9427787484535</v>
+        <v>282.3810414292109</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3436,16 +3436,16 @@
         <v>274</v>
       </c>
       <c r="D133">
-        <v>274.0001247894773</v>
+        <v>274.0005173698028</v>
       </c>
       <c r="E133">
-        <v>274.1410230275063</v>
+        <v>274.1681316612446</v>
       </c>
       <c r="F133">
-        <v>275.8571682229884</v>
+        <v>276.0073813260385</v>
       </c>
       <c r="G133">
-        <v>282.4627912825256</v>
+        <v>282.8782111728797</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3459,16 +3459,16 @@
         <v>274</v>
       </c>
       <c r="D134">
-        <v>274.0001536659557</v>
+        <v>274.0004893897156</v>
       </c>
       <c r="E134">
-        <v>274.1569005358286</v>
+        <v>274.1817474011937</v>
       </c>
       <c r="F134">
-        <v>276.0041748479179</v>
+        <v>276.1450197968714</v>
       </c>
       <c r="G134">
-        <v>283.0151546209398</v>
+        <v>283.4087936386213</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3482,16 +3482,16 @@
         <v>274</v>
       </c>
       <c r="D135">
-        <v>274.0001886367335</v>
+        <v>274.0004753661337</v>
       </c>
       <c r="E135">
-        <v>274.1744467343521</v>
+        <v>274.1972069274988</v>
       </c>
       <c r="F135">
-        <v>276.1620103659222</v>
+        <v>276.2940202917949</v>
       </c>
       <c r="G135">
-        <v>283.6018093147002</v>
+        <v>283.9746856365246</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3505,16 +3505,16 @@
         <v>274</v>
       </c>
       <c r="D136">
-        <v>274.0002309691026</v>
+        <v>274.000475536222</v>
       </c>
       <c r="E136">
-        <v>274.1938243091927</v>
+        <v>274.2146605670737</v>
       </c>
       <c r="F136">
-        <v>276.3314128942874</v>
+        <v>276.4550937176319</v>
       </c>
       <c r="G136">
-        <v>284.2248123082966</v>
+        <v>284.577901926172</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3528,16 +3528,16 @@
         <v>274</v>
       </c>
       <c r="D137">
-        <v>274.0002821754098</v>
+        <v>274.0004905087224</v>
       </c>
       <c r="E137">
-        <v>274.2152103709234</v>
+        <v>274.2342738441486</v>
       </c>
       <c r="F137">
-        <v>276.5131668755516</v>
+        <v>276.628998512058</v>
       </c>
       <c r="G137">
-        <v>284.8863444361973</v>
+        <v>285.2205826691109</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3551,16 +3551,16 @@
         <v>274</v>
       </c>
       <c r="D138">
-        <v>274.0003440582482</v>
+        <v>274.0005212948086</v>
       </c>
       <c r="E138">
-        <v>274.2387975926932</v>
+        <v>274.2562285778186</v>
       </c>
       <c r="F138">
-        <v>276.7081057924905</v>
+        <v>276.8165433151603</v>
       </c>
       <c r="G138">
-        <v>285.5887184847389</v>
+        <v>285.9050014474892</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3574,16 +3574,16 @@
         <v>274</v>
       </c>
       <c r="D139">
-        <v>274.0004187633517</v>
+        <v>274.0005693481057</v>
       </c>
       <c r="E139">
-        <v>274.2647954251199</v>
+        <v>274.2807240579343</v>
       </c>
       <c r="F139">
-        <v>276.9171150414372</v>
+        <v>277.0185898004092</v>
       </c>
       <c r="G139">
-        <v>286.3343878711113</v>
+        <v>286.6335739005573</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3597,16 +3597,16 @@
         <v>274</v>
       </c>
       <c r="D140">
-        <v>274.0005088414087</v>
+        <v>274.0006366149597</v>
       </c>
       <c r="E140">
-        <v>274.2934313921088</v>
+        <v>274.3079783034646</v>
       </c>
       <c r="F140">
-        <v>277.1411349745903</v>
+        <v>277.2360556756925</v>
       </c>
       <c r="G140">
-        <v>287.1259559966738</v>
+        <v>287.4088670362729</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3620,16 +3620,16 @@
         <v>274</v>
       </c>
       <c r="D141">
-        <v>274.0006173201722</v>
+        <v>274.0007255962178</v>
       </c>
       <c r="E141">
-        <v>274.3249524719171</v>
+        <v>274.3382294076255</v>
       </c>
       <c r="F141">
-        <v>277.3811641229103</v>
+        <v>277.4699178660011</v>
       </c>
       <c r="G141">
-        <v>287.9661863380428</v>
+        <v>288.2336092814574</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3643,16 +3643,16 @@
         <v>274</v>
       </c>
       <c r="D142">
-        <v>274.0007477884403</v>
+        <v>274.0008394219831</v>
       </c>
       <c r="E142">
-        <v>274.3596265679562</v>
+        <v>274.37173697424</v>
       </c>
       <c r="F142">
-        <v>277.6382626122306</v>
+        <v>277.7212158903876</v>
       </c>
       <c r="G142">
-        <v>288.8580133463535</v>
+        <v>289.110701340904</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3666,16 +3666,16 @@
         <v>274</v>
       </c>
       <c r="D143">
-        <v>274.0009044936892</v>
+        <v>274.0009819410222</v>
       </c>
       <c r="E143">
-        <v>274.3977440740039</v>
+        <v>274.408783649971</v>
       </c>
       <c r="F143">
-        <v>277.913555786368</v>
+        <v>277.9910554469706</v>
       </c>
       <c r="G143">
-        <v>289.8045542329028</v>
+        <v>290.043227943647</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3689,16 +3689,16 @@
         <v>274</v>
       </c>
       <c r="D144">
-        <v>274.0010924553827</v>
+        <v>274.0011578267541</v>
       </c>
       <c r="E144">
-        <v>274.4396195386881</v>
+        <v>274.4496767572602</v>
       </c>
       <c r="F144">
-        <v>278.2082380522824</v>
+        <v>278.2806122210267</v>
       </c>
       <c r="G144">
-        <v>290.8091217281683</v>
+        <v>291.0344705633873</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3712,16 +3712,16 @@
         <v>274</v>
       </c>
       <c r="D145">
-        <v>274.0013175962385</v>
+        <v>274.0013727020151</v>
       </c>
       <c r="E145">
-        <v>274.4855934343055</v>
+        <v>274.4947500330035</v>
       </c>
       <c r="F145">
-        <v>278.5235769637495</v>
+        <v>278.5911359326244</v>
       </c>
       <c r="G145">
-        <v>291.8752379110712</v>
+        <v>292.0879212099409</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3735,16 +3735,16 @@
         <v>274</v>
       </c>
       <c r="D146">
-        <v>274.0015868940315</v>
+        <v>274.0016332850957</v>
       </c>
       <c r="E146">
-        <v>274.5360340352534</v>
+        <v>274.544365478205</v>
       </c>
       <c r="F146">
-        <v>278.8609175615772</v>
+        <v>278.9239546418185</v>
       </c>
       <c r="G146">
-        <v>293.0066492164823</v>
+        <v>293.2072973997062</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3758,16 +3758,16 @@
         <v>274</v>
       </c>
       <c r="D147">
-        <v>274.0019085568284</v>
+        <v>274.0019475598733</v>
       </c>
       <c r="E147">
-        <v>274.5913394115811</v>
+        <v>274.5989153240853</v>
       </c>
       <c r="F147">
-        <v>279.2216869901316</v>
+        <v>279.2804793311605</v>
       </c>
       <c r="G147">
-        <v>294.2073427415232</v>
+        <v>294.3965584257032</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3781,16 +3781,16 @@
         <v>274</v>
       </c>
       <c r="D148">
-        <v>274.0022922249084</v>
+        <v>274.0023249732237</v>
       </c>
       <c r="E148">
-        <v>274.651939543415</v>
+        <v>274.6588241203584</v>
       </c>
       <c r="F148">
-        <v>279.607399411873</v>
+        <v>279.6622087872153</v>
       </c>
       <c r="G148">
-        <v>295.4815639853869</v>
+        <v>295.6599230618998</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3804,16 +3804,16 @@
         <v>274</v>
       </c>
       <c r="D149">
-        <v>274.0027492030098</v>
+        <v>274.0027766632929</v>
       </c>
       <c r="E149">
-        <v>274.7182985622801</v>
+        <v>274.724550951667</v>
       </c>
       <c r="F149">
-        <v>280.0196612437516</v>
+        <v>280.0707348049167</v>
       </c>
       <c r="G149">
-        <v>296.8338361734264</v>
+        <v>297.0018888525733</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3827,16 +3827,16 @@
         <v>274</v>
       </c>
       <c r="D150">
-        <v>274.0032927269723</v>
+        <v>274.0033157226379</v>
       </c>
       <c r="E150">
-        <v>274.7909171256341</v>
+        <v>274.7965917884506</v>
       </c>
       <c r="F150">
-        <v>280.4601767416964</v>
+        <v>280.5077477409899</v>
       </c>
       <c r="G150">
-        <v>298.2689813343951</v>
+        <v>298.4272531555845</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3850,16 +3850,16 @@
         <v>274</v>
       </c>
       <c r="D151">
-        <v>274.0039382693049</v>
+        <v>274.0039575007195</v>
       </c>
       <c r="E151">
-        <v>274.8703349312512</v>
+        <v>274.8754819788502</v>
       </c>
       <c r="F151">
-        <v>280.9307539621025</v>
+        <v>280.9750424453266</v>
       </c>
       <c r="G151">
-        <v>299.7921433202777</v>
+        <v>299.9411361289938</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3873,16 +3873,16 @@
         <v>274</v>
       </c>
       <c r="D152">
-        <v>274.0047038887168</v>
+        <v>274.0047199507352</v>
       </c>
       <c r="E152">
-        <v>274.9571333784465</v>
+        <v>274.9617988885981</v>
       </c>
       <c r="F152">
-        <v>281.4333111321794</v>
+        <v>281.4745246021641</v>
       </c>
       <c r="G152">
-        <v>301.4088129814674</v>
+        <v>301.5490058737723</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3896,16 +3896,16 @@
         <v>274</v>
       </c>
       <c r="D153">
-        <v>274.0056106291981</v>
+        <v>274.0056240263353</v>
       </c>
       <c r="E153">
-        <v>275.0519383835274</v>
+        <v>275.0561646962426</v>
       </c>
       <c r="F153">
-        <v>281.9698834643372</v>
+        <v>282.0082175162315</v>
       </c>
       <c r="G153">
-        <v>303.1248557365295</v>
+        <v>303.256705971834</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3919,16 +3919,16 @@
         <v>274</v>
       </c>
       <c r="D154">
-        <v>274.0066829748189</v>
+        <v>274.0066941343585</v>
       </c>
       <c r="E154">
-        <v>275.1554233572936</v>
+        <v>275.1592493514891</v>
       </c>
       <c r="F154">
-        <v>282.5426304534772</v>
+        <v>282.578269382714</v>
       </c>
       <c r="G154">
-        <v>304.946541805921</v>
+        <v>305.0704856887554</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3942,16 +3942,16 @@
         <v>274</v>
       </c>
       <c r="D155">
-        <v>274.0079493670607</v>
+        <v>274.0079586503595</v>
       </c>
       <c r="E155">
-        <v>275.2683123528966</v>
+        <v>275.2717737049329</v>
       </c>
       <c r="F155">
-        <v>283.1538437001812</v>
+        <v>283.1869610840146</v>
       </c>
       <c r="G155">
-        <v>306.8805794133283</v>
+        <v>306.9970331448269</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3965,16 +3965,16 @@
         <v>274</v>
       </c>
       <c r="D156">
-        <v>274.0094427921678</v>
+        <v>274.0094505043904</v>
       </c>
       <c r="E156">
-        <v>275.3913833929186</v>
+        <v>275.3945128179981</v>
       </c>
       <c r="F156">
-        <v>283.8059553074052</v>
+        <v>283.8367145609039</v>
       </c>
       <c r="G156">
-        <v>308.9341512973856</v>
+        <v>309.0435117971916</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3988,16 +3988,16 @@
         <v>274</v>
       </c>
       <c r="D157">
-        <v>274.0112014467306</v>
+        <v>274.0112078452184</v>
       </c>
       <c r="E157">
-        <v>275.5254719851417</v>
+        <v>275.528299462523</v>
       </c>
       <c r="F157">
-        <v>284.5015469034464</v>
+        <v>284.5301018108104</v>
       </c>
       <c r="G157">
-        <v>311.1149549211567</v>
+        <v>311.2176006204397</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4011,16 +4011,16 @@
         <v>274</v>
       </c>
       <c r="D158">
-        <v>274.0132694904868</v>
+        <v>274.0132747919424</v>
       </c>
       <c r="E158">
-        <v>275.6714748371742</v>
+        <v>275.6740278201138</v>
       </c>
       <c r="F158">
-        <v>285.2433593497358</v>
+        <v>285.2698545717887</v>
       </c>
       <c r="G158">
-        <v>313.4312468177387</v>
+        <v>313.5275384240012</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4034,16 +4034,16 @@
         <v>274</v>
       </c>
       <c r="D159">
-        <v>274.0156978961406</v>
+        <v>274.0157022827837</v>
       </c>
       <c r="E159">
-        <v>275.8303537808756</v>
+        <v>275.8326573921756</v>
       </c>
       <c r="F159">
-        <v>286.0343031984924</v>
+        <v>286.0588747571824</v>
       </c>
       <c r="G159">
-        <v>315.8918915686481</v>
+        <v>315.9821728029823</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4057,16 +4057,16 @@
         <v>274</v>
       </c>
       <c r="D160">
-        <v>274.0185454068549</v>
+        <v>274.0185490316905</v>
       </c>
       <c r="E160">
-        <v>276.0031399184068</v>
+        <v>276.0052171324049</v>
       </c>
       <c r="F160">
-        <v>286.8774699725531</v>
+        <v>286.900245713283</v>
       </c>
       <c r="G160">
-        <v>318.5064159783796</v>
+        <v>318.5910142858162</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4080,16 +4080,16 @@
         <v>274</v>
       </c>
       <c r="D161">
-        <v>274.0218796129726</v>
+        <v>274.0218826042905</v>
       </c>
       <c r="E161">
-        <v>276.1909380027168</v>
+        <v>276.1928098145228</v>
       </c>
       <c r="F161">
-        <v>287.7761443478693</v>
+        <v>287.7972443804545</v>
       </c>
       <c r="G161">
-        <v>321.285069084972</v>
+        <v>321.364296318545</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4103,16 +4103,16 @@
         <v>274</v>
       </c>
       <c r="D162">
-        <v>274.0257781604585</v>
+        <v>274.0257806256719</v>
       </c>
       <c r="E162">
-        <v>276.3949310664078</v>
+        <v>276.3966166491505</v>
       </c>
       <c r="F162">
-        <v>288.7338173283579</v>
+        <v>288.7533544473968</v>
       </c>
       <c r="G162">
-        <v>324.2388887340296</v>
+        <v>324.3130418131574</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4126,16 +4126,16 @@
         <v>274</v>
       </c>
       <c r="D163">
-        <v>274.0303301045244</v>
+        <v>274.0303321334378</v>
       </c>
       <c r="E163">
-        <v>276.6163853141763</v>
+        <v>276.6179021649947</v>
       </c>
       <c r="F163">
-        <v>289.754200513148</v>
+        <v>289.7722805985712</v>
       </c>
       <c r="G163">
-        <v>327.3797755440985</v>
+        <v>327.449137087856</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4149,16 +4149,16 @@
         <v>274</v>
       </c>
       <c r="D164">
-        <v>274.0356374228963</v>
+        <v>274.0356390904855</v>
       </c>
       <c r="E164">
-        <v>276.8566552954721</v>
+        <v>276.8580193709425</v>
       </c>
       <c r="F164">
-        <v>290.8412415679356</v>
+        <v>290.8579639664822</v>
       </c>
       <c r="G164">
-        <v>330.7205752064992</v>
+        <v>330.7854141423312</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4172,16 +4172,16 @@
         <v>274</v>
       </c>
       <c r="D165">
-        <v>274.0418167042142</v>
+        <v>274.0418180729844</v>
       </c>
       <c r="E165">
-        <v>277.1171893756215</v>
+        <v>277.1184152172869</v>
       </c>
       <c r="F165">
-        <v>291.9991410253283</v>
+        <v>292.0145989136795</v>
       </c>
       <c r="G165">
-        <v>334.2751701948583</v>
+        <v>334.3357423432508</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4195,16 +4195,16 @@
         <v>274</v>
       </c>
       <c r="D166">
-        <v>274.049001028086</v>
+        <v>274.0490021500714</v>
       </c>
       <c r="E166">
-        <v>277.3995355254975</v>
+        <v>277.4006363761259</v>
       </c>
       <c r="F166">
-        <v>293.2323705539362</v>
+        <v>293.2466512842195</v>
       </c>
       <c r="G166">
-        <v>338.0585821112338</v>
+        <v>338.1151307468255</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4218,16 +4218,16 @@
         <v>274</v>
       </c>
       <c r="D167">
-        <v>274.0573420543757</v>
+        <v>274.0573429728323</v>
       </c>
       <c r="E167">
-        <v>277.7053474518776</v>
+        <v>277.7063353630479</v>
       </c>
       <c r="F167">
-        <v>294.5456928527919</v>
+        <v>294.5588782811491</v>
       </c>
       <c r="G167">
-        <v>342.0870860699748</v>
+        <v>342.1398424595528</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4241,16 +4241,16 @@
         <v>274</v>
       </c>
       <c r="D168">
-        <v>274.067012340359</v>
+        <v>274.0670130911934</v>
       </c>
       <c r="E168">
-        <v>278.0363910929607</v>
+        <v>278.0372770245431</v>
       </c>
       <c r="F168">
-        <v>295.9441833467295</v>
+        <v>295.9563501456273</v>
       </c>
       <c r="G168">
-        <v>346.3783387211454</v>
+        <v>346.4275226389228</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4264,16 +4264,16 @@
         <v>274</v>
       </c>
       <c r="D169">
-        <v>274.0782079054207</v>
+        <v>274.0782085183961</v>
       </c>
       <c r="E169">
-        <v>278.3945515061433</v>
+        <v>278.3953454182095</v>
       </c>
       <c r="F169">
-        <v>297.4332538799484</v>
+        <v>297.4444738348882</v>
       </c>
       <c r="G169">
-        <v>350.9515217474427</v>
+        <v>350.9973419679629</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4287,16 +4287,16 @@
         <v>274</v>
       </c>
       <c r="D170">
-        <v>274.0911510640012</v>
+        <v>274.0911515637531</v>
       </c>
       <c r="E170">
-        <v>278.78184017812</v>
+        <v>278.7825511157915</v>
       </c>
       <c r="F170">
-        <v>299.0186786294919</v>
+        <v>299.0290189207588</v>
       </c>
       <c r="G170">
-        <v>355.8275029386533</v>
+        <v>355.8701577076063</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4310,16 +4310,16 @@
         <v>274</v>
       </c>
       <c r="D171">
-        <v>274.1060935485006</v>
+        <v>274.1060939553917</v>
       </c>
       <c r="E171">
-        <v>279.2004027907181</v>
+        <v>279.2010389624321</v>
       </c>
       <c r="F171">
-        <v>300.7066224882141</v>
+        <v>300.7161459582881</v>
       </c>
       <c r="G171">
-        <v>361.029017264528</v>
+        <v>361.0686947476916</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4333,16 +4333,16 @@
         <v>274</v>
       </c>
       <c r="D172">
-        <v>274.1233199448121</v>
+        <v>274.1233202756483</v>
       </c>
       <c r="E172">
-        <v>279.6525274796481</v>
+        <v>279.6530963292934</v>
       </c>
       <c r="F172">
-        <v>302.5036721984785</v>
+        <v>302.5124376057121</v>
       </c>
       <c r="G172">
-        <v>366.580870741611</v>
+        <v>366.6177494520479</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4356,16 +4356,16 @@
         <v>274</v>
       </c>
       <c r="D173">
-        <v>274.1431514640691</v>
+        <v>274.1431517327014</v>
       </c>
       <c r="E173">
-        <v>280.1406536276015</v>
+        <v>280.1411619009518</v>
       </c>
       <c r="F173">
-        <v>304.4168705538959</v>
+        <v>304.4249328130426</v>
       </c>
       <c r="G173">
-        <v>372.5101703347957</v>
+        <v>372.5444195383425</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4379,16 +4379,16 @@
         <v>274</v>
       </c>
       <c r="D174">
-        <v>274.1659500750483</v>
+        <v>274.1659502928759</v>
       </c>
       <c r="E174">
-        <v>280.6673812379219</v>
+        <v>280.6678350437668</v>
       </c>
       <c r="F174">
-        <v>306.4537540275142</v>
+        <v>306.4611644376773</v>
       </c>
       <c r="G174">
-        <v>378.8465836617911</v>
+        <v>378.8783637607675</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4402,16 +4402,16 @@
         <v>274</v>
       </c>
       <c r="D175">
-        <v>274.1921230224544</v>
+        <v>274.1921231988456</v>
       </c>
       <c r="E175">
-        <v>281.2354809404726</v>
+        <v>281.2358858068259</v>
       </c>
       <c r="F175">
-        <v>308.6223942317797</v>
+        <v>308.6292006923314</v>
       </c>
       <c r="G175">
-        <v>385.6226328818015</v>
+        <v>385.6520957767497</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4425,16 +4425,16 @@
         <v>274</v>
       </c>
       <c r="D176">
-        <v>274.2221277570171</v>
+        <v>274.2221278996595</v>
       </c>
       <c r="E176">
-        <v>281.8479046874141</v>
+        <v>281.8482656131541</v>
       </c>
       <c r="F176">
-        <v>310.9314436691613</v>
+        <v>310.9376908841642</v>
       </c>
       <c r="G176">
-        <v>392.8740278306465</v>
+        <v>392.9013172597799</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4448,16 +4448,16 @@
         <v>274</v>
       </c>
       <c r="D177">
-        <v>274.2564773039501</v>
+        <v>274.2564774191434</v>
       </c>
       <c r="E177">
-        <v>282.5077972034642</v>
+        <v>282.5081187057386</v>
       </c>
       <c r="F177">
-        <v>313.3901862935693</v>
+        <v>313.3959159652162</v>
       </c>
       <c r="G177">
-        <v>400.6400441522761</v>
+        <v>400.6652960081832</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4471,16 +4471,16 @@
         <v>274</v>
       </c>
       <c r="D178">
-        <v>274.2957460968502</v>
+        <v>274.2957461897493</v>
       </c>
       <c r="E178">
-        <v>283.2185082629496</v>
+        <v>283.2187944206584</v>
       </c>
       <c r="F178">
-        <v>316.0085934727722</v>
+        <v>316.013844484341</v>
       </c>
       <c r="G178">
-        <v>408.9639527391183</v>
+        <v>408.9872953621206</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4494,16 +4494,16 @@
         <v>274</v>
       </c>
       <c r="D179">
-        <v>274.3405763045395</v>
+        <v>274.3405763793565</v>
       </c>
       <c r="E179">
-        <v>283.9836058746803</v>
+        <v>283.9838603683292</v>
       </c>
       <c r="F179">
-        <v>318.797386022266</v>
+        <v>318.8021946110707</v>
       </c>
       <c r="G179">
-        <v>417.8935070065098</v>
+        <v>417.9150614539147</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4517,16 +4517,16 @@
         <v>274</v>
       </c>
       <c r="D180">
-        <v>274.3916846786957</v>
+        <v>274.3916847388673</v>
       </c>
       <c r="E180">
-        <v>284.8068904655212</v>
+        <v>284.8071166137196</v>
       </c>
       <c r="F180">
-        <v>321.768103073046</v>
+        <v>321.7725029938491</v>
       </c>
       <c r="G180">
-        <v>427.4814940956627</v>
+        <v>427.5013743859592</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4540,16 +4540,16 @@
         <v>274</v>
       </c>
       <c r="D181">
-        <v>274.4498699503523</v>
+        <v>274.4498699986787</v>
       </c>
       <c r="E181">
-        <v>285.6924101646418</v>
+        <v>285.6926109575007</v>
       </c>
       <c r="F181">
-        <v>324.9331786413381</v>
+        <v>324.9372013206686</v>
       </c>
       <c r="G181">
-        <v>437.7863548119071</v>
+        <v>437.8046681426803</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4563,16 +4563,16 @@
         <v>274</v>
       </c>
       <c r="D182">
-        <v>274.5160208035193</v>
+        <v>274.5160208422787</v>
       </c>
       <c r="E182">
-        <v>286.6444773029684</v>
+        <v>286.6446554326387</v>
       </c>
       <c r="F182">
-        <v>328.3060268897174</v>
+        <v>328.3097015715264</v>
       </c>
       <c r="G182">
-        <v>448.8728752545258</v>
+        <v>448.8897221924383</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4586,16 +4586,16 @@
         <v>274</v>
       </c>
       <c r="D183">
-        <v>274.5911244542682</v>
+        <v>274.5911244853116</v>
       </c>
       <c r="E183">
-        <v>287.6676862565421</v>
+        <v>287.6678441451136</v>
       </c>
       <c r="F183">
-        <v>331.901137208802</v>
+        <v>331.9044910918701</v>
       </c>
       <c r="G183">
-        <v>460.8129523962134</v>
+        <v>460.828427036697</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4609,16 +4609,16 @@
         <v>274</v>
       </c>
       <c r="D184">
-        <v>274.6762758636805</v>
+        <v>274.6762758885095</v>
       </c>
       <c r="E184">
-        <v>288.7669327785117</v>
+        <v>288.7670726034837</v>
       </c>
       <c r="F184">
-        <v>335.7341804098963</v>
+        <v>335.7372387773913</v>
       </c>
       <c r="G184">
-        <v>473.6864410153525</v>
+        <v>473.7006311085055</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4632,16 +4632,16 @@
         <v>274</v>
       </c>
       <c r="D185">
-        <v>274.7726876131023</v>
+        <v>274.7726876329333</v>
       </c>
       <c r="E185">
-        <v>289.9474349826352</v>
+        <v>289.9475587001497</v>
       </c>
       <c r="F185">
-        <v>339.8221275051705</v>
+        <v>339.8249138467352</v>
       </c>
       <c r="G185">
-        <v>487.5821099850193</v>
+        <v>487.5950970224078</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4655,16 +4655,16 @@
         <v>274</v>
       </c>
       <c r="D186">
-        <v>274.8817004702112</v>
+        <v>274.8817004860281</v>
       </c>
       <c r="E186">
-        <v>291.2147561617158</v>
+        <v>291.2148655277332</v>
       </c>
       <c r="F186">
-        <v>344.1833827672082</v>
+        <v>344.185918893949</v>
       </c>
       <c r="G186">
-        <v>502.5987873925887</v>
+        <v>502.6106466470083</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4678,16 +4678,16 @@
         <v>274</v>
       </c>
       <c r="D187">
-        <v>275.0047946745512</v>
+        <v>275.0047946871489</v>
       </c>
       <c r="E187">
-        <v>292.5748296476867</v>
+        <v>292.574926237272</v>
       </c>
       <c r="F187">
-        <v>348.8379330083073</v>
+        <v>348.8402391610306</v>
       </c>
       <c r="G187">
-        <v>518.8468734709191</v>
+        <v>518.8576739775424</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4701,16 +4701,16 @@
         <v>274</v>
       </c>
       <c r="D188">
-        <v>275.1436019714699</v>
+        <v>275.1436019814893</v>
       </c>
       <c r="E188">
-        <v>294.033985946507</v>
+        <v>294.0340711713805</v>
       </c>
       <c r="F188">
-        <v>353.807515305642</v>
+        <v>353.8096102566775</v>
       </c>
       <c r="G188">
-        <v>536.4505506306394</v>
+        <v>536.4603550934207</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4724,16 +4724,16 @@
         <v>274</v>
       </c>
       <c r="D189">
-        <v>275.2999184238827</v>
+        <v>275.2999184318402</v>
       </c>
       <c r="E189">
-        <v>295.598982411053</v>
+        <v>295.5990575355497</v>
       </c>
       <c r="F189">
-        <v>359.115805723919</v>
+        <v>359.1177068728495</v>
       </c>
       <c r="G189">
-        <v>555.5511723720876</v>
+        <v>555.5600369743573</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4747,16 +4747,16 @@
         <v>274</v>
       </c>
       <c r="D190">
-        <v>275.4757180320775</v>
+        <v>275.4757180383883</v>
       </c>
       <c r="E190">
-        <v>297.2770357493367</v>
+        <v>297.2771019049071</v>
       </c>
       <c r="F190">
-        <v>364.7886319522864</v>
+        <v>364.7903554158904</v>
       </c>
       <c r="G190">
-        <v>576.3123083972554</v>
+        <v>576.3202824918067</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4770,16 +4770,16 @@
         <v>274</v>
       </c>
       <c r="D191">
-        <v>275.6731671929508</v>
+        <v>275.6731671979485</v>
       </c>
       <c r="E191">
-        <v>299.075857704254</v>
+        <v>299.0759159026282</v>
       </c>
       <c r="F191">
-        <v>370.8542131725956</v>
+        <v>370.8557738692949</v>
       </c>
       <c r="G191">
-        <v>598.9264370127491</v>
+        <v>598.9335626685018</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4793,16 +4793,16 @@
         <v>274</v>
       </c>
       <c r="D192">
-        <v>275.8946400317616</v>
+        <v>275.8946400357137</v>
       </c>
       <c r="E192">
-        <v>301.0036942853433</v>
+        <v>301.0037454304742</v>
       </c>
       <c r="F192">
-        <v>377.3434309025639</v>
+        <v>377.3448426316537</v>
       </c>
       <c r="G192">
-        <v>623.621844765994</v>
+        <v>623.6281561638053</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4816,16 +4816,16 @@
         <v>274</v>
       </c>
       <c r="D193">
-        <v>276.1427346418154</v>
+        <v>276.1427346449362</v>
       </c>
       <c r="E193">
-        <v>303.0693689835642</v>
+        <v>303.069413882453</v>
       </c>
       <c r="F193">
-        <v>384.2901349993974</v>
+        <v>384.2914105153197</v>
       </c>
       <c r="G193">
-        <v>650.6655560904495</v>
+        <v>650.671078803229</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4839,16 +4839,16 @@
         <v>274</v>
       </c>
       <c r="D194">
-        <v>276.4202902706165</v>
+        <v>276.4202902730772</v>
       </c>
       <c r="E194">
-        <v>305.2823304577925</v>
+        <v>305.282369830294</v>
       </c>
       <c r="F194">
-        <v>391.7314894668516</v>
+        <v>391.7326405487596</v>
       </c>
       <c r="G194">
-        <v>680.3543626799097</v>
+        <v>680.3591129572305</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4862,16 +4862,16 @@
         <v>274</v>
       </c>
       <c r="D195">
-        <v>276.7304054950954</v>
+        <v>276.7304054970328</v>
       </c>
       <c r="E195">
-        <v>307.6527052476824</v>
+        <v>307.6527397353801</v>
       </c>
       <c r="F195">
-        <v>399.7083632197759</v>
+        <v>399.7094007366198</v>
       </c>
       <c r="G195">
-        <v>712.9829044329998</v>
+        <v>712.9868887436909</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4885,16 +4885,16 @@
         <v>274</v>
       </c>
       <c r="D196">
-        <v>277.0764574337286</v>
+        <v>277.0764574352519</v>
       </c>
       <c r="E196">
-        <v>310.1913561430229</v>
+        <v>310.1913863172535</v>
       </c>
       <c r="F196">
-        <v>408.2657716546435</v>
+        <v>408.2667056259885</v>
       </c>
       <c r="G196">
-        <v>748.7785450167961</v>
+        <v>748.7817602602508</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4908,16 +4908,16 @@
         <v>274</v>
       </c>
       <c r="D197">
-        <v>277.462122049918</v>
+        <v>277.4621220511138</v>
       </c>
       <c r="E197">
-        <v>312.909946926151</v>
+        <v>312.9099732952572</v>
       </c>
       <c r="F197">
-        <v>417.4533760568132</v>
+        <v>417.4542157095839</v>
       </c>
       <c r="G197">
-        <v>787.8012672883455</v>
+        <v>787.8037021925542</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4931,16 +4931,16 @@
         <v>274</v>
       </c>
       <c r="D198">
-        <v>277.8913956091045</v>
+        <v>277.8913956100417</v>
       </c>
       <c r="E198">
-        <v>315.8210143030459</v>
+        <v>315.8210373189239</v>
       </c>
       <c r="F198">
-        <v>427.32605012509</v>
+        <v>427.3268039464054</v>
       </c>
       <c r="G198">
-        <v>829.8243717384445</v>
+        <v>829.8260098997933</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4954,16 +4954,16 @@
         <v>274</v>
       </c>
       <c r="D199">
-        <v>278.368617362012</v>
+        <v>278.3686173627455</v>
       </c>
       <c r="E199">
-        <v>318.9380479522561</v>
+        <v>318.9380680162635</v>
       </c>
       <c r="F199">
-        <v>437.9445271288746</v>
+        <v>437.945202915121</v>
       </c>
       <c r="G199">
-        <v>874.2339131688702</v>
+        <v>874.2347378341905</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4977,13 +4977,13 @@
         <v>274</v>
       </c>
       <c r="D200">
-        <v>278.8984935384043</v>
+        <v>278.8984935389774</v>
       </c>
       <c r="E200">
-        <v>322.2755797508977</v>
+        <v>322.2755972191796</v>
       </c>
       <c r="F200">
-        <v>449.3761485734416</v>
+        <v>449.376753475694</v>
       </c>
       <c r="G200">
         <v>920</v>
@@ -5000,13 +5000,13 @@
         <v>274</v>
       </c>
       <c r="D201">
-        <v>279.4861227500963</v>
+        <v>279.4861227505435</v>
       </c>
       <c r="E201">
-        <v>325.8492833858539</v>
+        <v>325.8492985741405</v>
       </c>
       <c r="F201">
-        <v>461.6957465458643</v>
+        <v>461.6962871117441</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5020,13 +5020,13 @@
         <v>274</v>
       </c>
       <c r="D202">
-        <v>280.1370229190005</v>
+        <v>280.1370229193489</v>
       </c>
       <c r="E202">
-        <v>329.6760857284651</v>
+        <v>329.6760989163899</v>
       </c>
       <c r="F202">
-        <v>474.9867062482768</v>
+        <v>474.9871884603014</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5040,13 +5040,13 @@
         <v>274</v>
       </c>
       <c r="D203">
-        <v>280.8571598660612</v>
+        <v>280.8571598663323</v>
       </c>
       <c r="E203">
-        <v>333.7742915450933</v>
+        <v>333.774302980077</v>
       </c>
       <c r="F203">
-        <v>489.3422673631619</v>
+        <v>489.3426966736106</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5060,13 +5060,13 @@
         <v>274</v>
       </c>
       <c r="D204">
-        <v>281.6529777204206</v>
+        <v>281.652977720631</v>
       </c>
       <c r="E204">
-        <v>338.1637233369918</v>
+        <v>338.1637332377322</v>
       </c>
       <c r="F204">
-        <v>504.8671193056158</v>
+        <v>504.8675006679156</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5080,13 +5080,13 @@
         <v>274</v>
       </c>
       <c r="D205">
-        <v>282.5314313354783</v>
+        <v>282.5314313356414</v>
       </c>
       <c r="E205">
-        <v>342.8658783546419</v>
+        <v>342.8658869142483</v>
       </c>
       <c r="F205">
-        <v>521.6792998341767</v>
+        <v>521.6796377307782</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5100,13 +5100,13 @@
         <v>274</v>
       </c>
       <c r="D206">
-        <v>283.5000209301292</v>
+        <v>283.5000209302556</v>
       </c>
       <c r="E206">
-        <v>347.9041051194067</v>
+        <v>347.9041125082121</v>
       </c>
       <c r="F206">
-        <v>539.9122777436924</v>
+        <v>539.9125762103971</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5120,13 +5120,13 @@
         <v>274</v>
       </c>
       <c r="D207">
-        <v>284.5668292099015</v>
+        <v>284.5668292099992</v>
       </c>
       <c r="E207">
-        <v>353.303802117217</v>
+        <v>353.303808485299</v>
       </c>
       <c r="F207">
-        <v>559.7168377017648</v>
+        <v>559.7171003484822</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5140,13 +5140,13 @@
         <v>274</v>
       </c>
       <c r="D208">
-        <v>285.7405612645289</v>
+        <v>285.7405612646041</v>
       </c>
       <c r="E208">
-        <v>359.0926417186197</v>
+        <v>359.0926471980591</v>
       </c>
       <c r="F208">
-        <v>581.2619481581215</v>
+        <v>581.2621781861104</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5160,13 +5160,13 @@
         <v>274</v>
       </c>
       <c r="D209">
-        <v>287.0305875863509</v>
+        <v>287.0305875864088</v>
       </c>
       <c r="E209">
-        <v>365.3008228488907</v>
+        <v>365.3008275557924</v>
       </c>
       <c r="F209">
-        <v>604.733190436904</v>
+        <v>604.7333906527849</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5180,13 +5180,13 @@
         <v>274</v>
       </c>
       <c r="D210">
-        <v>288.4469906085398</v>
+        <v>288.4469906085843</v>
       </c>
       <c r="E210">
-        <v>371.9613565146856</v>
+        <v>371.9613605509871</v>
       </c>
       <c r="F210">
-        <v>630.3266708339045</v>
+        <v>630.3268436611316</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5200,13 +5200,13 @@
         <v>274</v>
       </c>
       <c r="D211">
-        <v>290.0006152243466</v>
+        <v>290.0006152243806</v>
       </c>
       <c r="E211">
-        <v>379.1103890360027</v>
+        <v>379.1103924910894</v>
       </c>
       <c r="F211">
-        <v>658.2358901557914</v>
+        <v>658.2360376449092</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5220,13 +5220,13 @@
         <v>274</v>
       </c>
       <c r="D212">
-        <v>291.7031238192857</v>
+        <v>291.7031238193117</v>
       </c>
       <c r="E212">
-        <v>386.7875687861741</v>
+        <v>386.7875717383217</v>
       </c>
       <c r="F212">
-        <v>688.6292159270724</v>
+        <v>688.6293397668537</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5240,13 +5240,13 @@
         <v>274</v>
       </c>
       <c r="D213">
-        <v>293.5670564285287</v>
+        <v>293.5670564285484</v>
       </c>
       <c r="E213">
-        <v>395.0364634430977</v>
+        <v>395.0364659607587</v>
       </c>
       <c r="F213">
-        <v>721.6168457501832</v>
+        <v>721.6169472824342</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5260,13 +5260,13 @@
         <v>274</v>
       </c>
       <c r="D214">
-        <v>295.6058967230204</v>
+        <v>295.6058967230353</v>
       </c>
       <c r="E214">
-        <v>403.9050361648307</v>
+        <v>403.9050383077815</v>
       </c>
       <c r="F214">
-        <v>757.2087459867312</v>
+        <v>757.2088262278015</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5280,13 +5280,13 @@
         <v>274</v>
       </c>
       <c r="D215">
-        <v>297.8341446314418</v>
+        <v>297.8341446314531</v>
       </c>
       <c r="E215">
-        <v>413.4461905064233</v>
+        <v>413.4461923267857</v>
       </c>
       <c r="F215">
-        <v>795.2688218863243</v>
+        <v>795.2688815578159</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5300,13 +5300,13 @@
         <v>274</v>
       </c>
       <c r="D216">
-        <v>300.2673965228414</v>
+        <v>300.2673965228498</v>
       </c>
       <c r="E216">
-        <v>423.7183947214409</v>
+        <v>423.7183962645901</v>
       </c>
       <c r="F216">
-        <v>835.4746903915989</v>
+        <v>835.4747299611331</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5320,13 +5320,13 @@
         <v>274</v>
       </c>
       <c r="D217">
-        <v>302.9224340085205</v>
+        <v>302.922434008527</v>
       </c>
       <c r="E217">
-        <v>434.7863951675172</v>
+        <v>434.7863964728901</v>
       </c>
       <c r="F217">
-        <v>877.2954431274738</v>
+        <v>877.295462857658</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5340,10 +5340,10 @@
         <v>274</v>
       </c>
       <c r="D218">
-        <v>305.8173225738252</v>
+        <v>305.81732257383</v>
       </c>
       <c r="E218">
-        <v>446.7220238387324</v>
+        <v>446.7220249405448</v>
       </c>
       <c r="F218">
         <v>920</v>
@@ -5360,10 +5360,10 @@
         <v>274</v>
       </c>
       <c r="D219">
-        <v>308.9715214233043</v>
+        <v>308.971521423308</v>
       </c>
       <c r="E219">
-        <v>459.6050937247738</v>
+        <v>459.6050946526565</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5377,10 +5377,10 @@
         <v>274</v>
       </c>
       <c r="D220">
-        <v>312.406006118728</v>
+        <v>312.4060061187308</v>
       </c>
       <c r="E220">
-        <v>473.5243550571568</v>
+        <v>473.5243558367189</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5394,10 +5394,10 @@
         <v>274</v>
       </c>
       <c r="D221">
-        <v>316.1434058109285</v>
+        <v>316.1434058109306</v>
       </c>
       <c r="E221">
-        <v>488.5784566803728</v>
+        <v>488.5784573337006</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5411,10 +5411,10 @@
         <v>274</v>
       </c>
       <c r="D222">
-        <v>320.2081571148411</v>
+        <v>320.2081571148427</v>
       </c>
       <c r="E222">
-        <v>504.8768344426829</v>
+        <v>504.87683498878</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5428,10 +5428,10 @@
         <v>274</v>
       </c>
       <c r="D223">
-        <v>324.6266769525744</v>
+        <v>324.6266769525756</v>
       </c>
       <c r="E223">
-        <v>522.5404816391772</v>
+        <v>522.5404820943526</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5445,10 +5445,10 @@
         <v>274</v>
       </c>
       <c r="D224">
-        <v>329.4275569899615</v>
+        <v>329.4275569899624</v>
       </c>
       <c r="E224">
-        <v>541.702762770219</v>
+        <v>541.7027631484268</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5462,10 +5462,10 @@
         <v>274</v>
       </c>
       <c r="D225">
-        <v>334.6417826136675</v>
+        <v>334.6417826136681</v>
       </c>
       <c r="E225">
-        <v>562.5110267704512</v>
+        <v>562.5110270835883</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5479,10 +5479,10 @@
         <v>274</v>
       </c>
       <c r="D226">
-        <v>340.3029797334156</v>
+        <v>340.3029797334161</v>
       </c>
       <c r="E226">
-        <v>585.131014481835</v>
+        <v>585.1310147399982</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5496,10 +5496,10 @@
         <v>274</v>
       </c>
       <c r="D227">
-        <v>346.4476930452959</v>
+        <v>346.4476930452962</v>
       </c>
       <c r="E227">
-        <v>609.7578816918812</v>
+        <v>609.7578819035841</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5513,10 +5513,10 @@
         <v>274</v>
       </c>
       <c r="D228">
-        <v>353.1156997688322</v>
+        <v>353.1156997688325</v>
       </c>
       <c r="E228">
-        <v>636.6387900043858</v>
+        <v>636.6387901767382</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5530,10 +5530,10 @@
         <v>274</v>
       </c>
       <c r="D229">
-        <v>360.3503633165071</v>
+        <v>360.3503633165074</v>
       </c>
       <c r="E229">
-        <v>666.1085915931113</v>
+        <v>666.1085917319568</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5547,10 +5547,10 @@
         <v>274</v>
       </c>
       <c r="D230">
-        <v>368.1990319776889</v>
+        <v>368.1990319776891</v>
       </c>
       <c r="E230">
-        <v>698.6256574526516</v>
+        <v>698.6256575626637</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5564,10 +5564,10 @@
         <v>274</v>
       </c>
       <c r="D231">
-        <v>376.7134887134297</v>
+        <v>376.7134887134298</v>
       </c>
       <c r="E231">
-        <v>734.7657101848713</v>
+        <v>734.765710269613</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5581,10 +5581,10 @@
         <v>274</v>
       </c>
       <c r="D232">
-        <v>385.9504599253503</v>
+        <v>385.9504599253504</v>
       </c>
       <c r="E232">
-        <v>775.1009283602314</v>
+        <v>775.1009284222077</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5601,7 +5601,7 @@
         <v>395.9721940918892</v>
       </c>
       <c r="E233">
-        <v>819.9026273316003</v>
+        <v>819.9026273723448</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5618,7 +5618,7 @@
         <v>406.8471260087313</v>
       </c>
       <c r="E234">
-        <v>868.710826558228</v>
+        <v>868.7108265784841</v>
       </c>
     </row>
     <row r="235" spans="1:5">
